--- a/data/technology_patents/files/pct_env_c.xlsx
+++ b/data/technology_patents/files/pct_env_c.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1442F0F-C880-B743-AEB5-B15E09C03547}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BF7979-2A8B-5E4A-ABF3-33240218EBA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19200" xr2:uid="{B51CFE45-5EB0-7244-967D-698E8B90D59B}"/>
+    <workbookView xWindow="16640" yWindow="500" windowWidth="19200" windowHeight="19200" xr2:uid="{B51CFE45-5EB0-7244-967D-698E8B90D59B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDF13CA-159D-404D-A68B-6D83BB0ADACF}">
   <dimension ref="A1:C1920"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
+      <selection activeCell="D919" sqref="D919"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/technology_patents/files/pct_env_c.xlsx
+++ b/data/technology_patents/files/pct_env_c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BF7979-2A8B-5E4A-ABF3-33240218EBA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D111302-A71B-D549-994E-C81E5786F659}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16640" yWindow="500" windowWidth="19200" windowHeight="19200" xr2:uid="{B51CFE45-5EB0-7244-967D-698E8B90D59B}"/>
   </bookViews>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDF13CA-159D-404D-A68B-6D83BB0ADACF}">
   <dimension ref="A1:C1920"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
-      <selection activeCell="D919" sqref="D919"/>
+    <sheetView tabSelected="1" topLeftCell="A787" workbookViewId="0">
+      <selection activeCell="C800" sqref="C800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1563,9 +1563,6 @@
       <c r="B78">
         <v>1999</v>
       </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -1574,9 +1571,6 @@
       <c r="B79">
         <v>2000</v>
       </c>
-      <c r="C79" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -2399,9 +2393,6 @@
       <c r="B154">
         <v>1999</v>
       </c>
-      <c r="C154" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
@@ -2421,9 +2412,6 @@
       <c r="B156">
         <v>2001</v>
       </c>
-      <c r="C156" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
@@ -2432,9 +2420,6 @@
       <c r="B157">
         <v>2002</v>
       </c>
-      <c r="C157" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
@@ -2476,9 +2461,6 @@
       <c r="B161">
         <v>2006</v>
       </c>
-      <c r="C161" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
@@ -3675,9 +3657,6 @@
       <c r="B270">
         <v>2001</v>
       </c>
-      <c r="C270" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
@@ -3752,9 +3731,6 @@
       <c r="B277">
         <v>2008</v>
       </c>
-      <c r="C277" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
@@ -4907,9 +4883,6 @@
       <c r="B382">
         <v>1999</v>
       </c>
-      <c r="C382" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
@@ -4940,9 +4913,6 @@
       <c r="B385">
         <v>2002</v>
       </c>
-      <c r="C385" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
@@ -4973,9 +4943,6 @@
       <c r="B388">
         <v>2005</v>
       </c>
-      <c r="C388" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
@@ -5028,9 +4995,6 @@
       <c r="B393">
         <v>2010</v>
       </c>
-      <c r="C393" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
@@ -5039,9 +5003,6 @@
       <c r="B394">
         <v>2011</v>
       </c>
-      <c r="C394" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
@@ -5094,9 +5055,6 @@
       <c r="B399">
         <v>2016</v>
       </c>
-      <c r="C399" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
@@ -5116,9 +5074,6 @@
       <c r="B401">
         <v>1999</v>
       </c>
-      <c r="C401" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
@@ -5160,9 +5115,6 @@
       <c r="B405">
         <v>2003</v>
       </c>
-      <c r="C405" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
@@ -5347,9 +5299,6 @@
       <c r="B422">
         <v>2001</v>
       </c>
-      <c r="C422" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
@@ -8669,9 +8618,6 @@
       <c r="B724">
         <v>1999</v>
       </c>
-      <c r="C724" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
@@ -8680,9 +8626,6 @@
       <c r="B725">
         <v>2000</v>
       </c>
-      <c r="C725" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
@@ -8691,9 +8634,6 @@
       <c r="B726">
         <v>2001</v>
       </c>
-      <c r="C726" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
@@ -8735,9 +8675,6 @@
       <c r="B730">
         <v>2005</v>
       </c>
-      <c r="C730" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
@@ -8790,9 +8727,6 @@
       <c r="B735">
         <v>2010</v>
       </c>
-      <c r="C735" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
@@ -8867,9 +8801,6 @@
       <c r="B742">
         <v>2017</v>
       </c>
-      <c r="C742" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
@@ -8878,9 +8809,6 @@
       <c r="B743">
         <v>1999</v>
       </c>
-      <c r="C743" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
@@ -8889,9 +8817,6 @@
       <c r="B744">
         <v>2000</v>
       </c>
-      <c r="C744" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
@@ -8900,9 +8825,6 @@
       <c r="B745">
         <v>2001</v>
       </c>
-      <c r="C745" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
@@ -8911,9 +8833,6 @@
       <c r="B746">
         <v>2002</v>
       </c>
-      <c r="C746" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
@@ -8922,9 +8841,6 @@
       <c r="B747">
         <v>2003</v>
       </c>
-      <c r="C747" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
@@ -8933,9 +8849,6 @@
       <c r="B748">
         <v>2004</v>
       </c>
-      <c r="C748" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
@@ -8955,9 +8868,6 @@
       <c r="B750">
         <v>2006</v>
       </c>
-      <c r="C750" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
@@ -8966,9 +8876,6 @@
       <c r="B751">
         <v>2007</v>
       </c>
-      <c r="C751" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
@@ -8977,9 +8884,6 @@
       <c r="B752">
         <v>2008</v>
       </c>
-      <c r="C752" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
@@ -8988,9 +8892,6 @@
       <c r="B753">
         <v>2009</v>
       </c>
-      <c r="C753" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
@@ -8999,9 +8900,6 @@
       <c r="B754">
         <v>2010</v>
       </c>
-      <c r="C754" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
@@ -9021,9 +8919,6 @@
       <c r="B756">
         <v>2012</v>
       </c>
-      <c r="C756" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
@@ -9032,9 +8927,6 @@
       <c r="B757">
         <v>2013</v>
       </c>
-      <c r="C757" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
@@ -9043,9 +8935,6 @@
       <c r="B758">
         <v>2014</v>
       </c>
-      <c r="C758" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
@@ -9065,9 +8954,6 @@
       <c r="B760">
         <v>2016</v>
       </c>
-      <c r="C760" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
@@ -9098,9 +8984,6 @@
       <c r="B763">
         <v>2000</v>
       </c>
-      <c r="C763" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
@@ -9120,9 +9003,6 @@
       <c r="B765">
         <v>2002</v>
       </c>
-      <c r="C765" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
@@ -9142,9 +9022,6 @@
       <c r="B767">
         <v>2004</v>
       </c>
-      <c r="C767" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
@@ -9296,9 +9173,6 @@
       <c r="B781">
         <v>1999</v>
       </c>
-      <c r="C781" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
@@ -9307,9 +9181,6 @@
       <c r="B782">
         <v>2000</v>
       </c>
-      <c r="C782" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
@@ -9318,9 +9189,6 @@
       <c r="B783">
         <v>2001</v>
       </c>
-      <c r="C783" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
@@ -9340,9 +9208,6 @@
       <c r="B785">
         <v>2003</v>
       </c>
-      <c r="C785" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
@@ -9373,9 +9238,6 @@
       <c r="B788">
         <v>2006</v>
       </c>
-      <c r="C788" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
@@ -9384,9 +9246,6 @@
       <c r="B789">
         <v>2007</v>
       </c>
-      <c r="C789" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
@@ -9395,9 +9254,6 @@
       <c r="B790">
         <v>2008</v>
       </c>
-      <c r="C790" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
@@ -9417,9 +9273,6 @@
       <c r="B792">
         <v>2010</v>
       </c>
-      <c r="C792" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
@@ -9494,9 +9347,6 @@
       <c r="B799">
         <v>2017</v>
       </c>
-      <c r="C799" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
@@ -9505,9 +9355,6 @@
       <c r="B800">
         <v>1999</v>
       </c>
-      <c r="C800" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
@@ -9582,9 +9429,6 @@
       <c r="B807">
         <v>2006</v>
       </c>
-      <c r="C807" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
@@ -9681,9 +9525,6 @@
       <c r="B816">
         <v>2015</v>
       </c>
-      <c r="C816" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
@@ -9714,9 +9555,6 @@
       <c r="B819">
         <v>1999</v>
       </c>
-      <c r="C819" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
@@ -9725,9 +9563,6 @@
       <c r="B820">
         <v>2000</v>
       </c>
-      <c r="C820" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
@@ -9736,9 +9571,6 @@
       <c r="B821">
         <v>2001</v>
       </c>
-      <c r="C821" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
@@ -9747,9 +9579,6 @@
       <c r="B822">
         <v>2002</v>
       </c>
-      <c r="C822" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
@@ -9758,9 +9587,6 @@
       <c r="B823">
         <v>2003</v>
       </c>
-      <c r="C823" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
@@ -9769,9 +9595,6 @@
       <c r="B824">
         <v>2004</v>
       </c>
-      <c r="C824" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
@@ -9780,9 +9603,6 @@
       <c r="B825">
         <v>2005</v>
       </c>
-      <c r="C825" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
@@ -9791,9 +9611,6 @@
       <c r="B826">
         <v>2006</v>
       </c>
-      <c r="C826" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
@@ -9802,9 +9619,6 @@
       <c r="B827">
         <v>2007</v>
       </c>
-      <c r="C827" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
@@ -9835,9 +9649,6 @@
       <c r="B830">
         <v>2010</v>
       </c>
-      <c r="C830" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
@@ -9846,9 +9657,6 @@
       <c r="B831">
         <v>2011</v>
       </c>
-      <c r="C831" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
@@ -9857,9 +9665,6 @@
       <c r="B832">
         <v>2012</v>
       </c>
-      <c r="C832" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
@@ -9868,9 +9673,6 @@
       <c r="B833">
         <v>2013</v>
       </c>
-      <c r="C833" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
@@ -9879,9 +9681,6 @@
       <c r="B834">
         <v>2014</v>
       </c>
-      <c r="C834" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
@@ -9890,9 +9689,6 @@
       <c r="B835">
         <v>2015</v>
       </c>
-      <c r="C835" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
@@ -9901,9 +9697,6 @@
       <c r="B836">
         <v>2016</v>
       </c>
-      <c r="C836" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
@@ -9912,9 +9705,6 @@
       <c r="B837">
         <v>2017</v>
       </c>
-      <c r="C837" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
@@ -9923,9 +9713,6 @@
       <c r="B838">
         <v>1999</v>
       </c>
-      <c r="C838" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
@@ -9934,9 +9721,6 @@
       <c r="B839">
         <v>2000</v>
       </c>
-      <c r="C839" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
@@ -9945,9 +9729,6 @@
       <c r="B840">
         <v>2001</v>
       </c>
-      <c r="C840" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
@@ -9978,9 +9759,6 @@
       <c r="B843">
         <v>2004</v>
       </c>
-      <c r="C843" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
@@ -10099,9 +9877,6 @@
       <c r="B854">
         <v>2015</v>
       </c>
-      <c r="C854" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
@@ -10121,9 +9896,6 @@
       <c r="B856">
         <v>2017</v>
       </c>
-      <c r="C856" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
@@ -10550,9 +10322,6 @@
       <c r="B895">
         <v>1999</v>
       </c>
-      <c r="C895" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
@@ -10561,9 +10330,6 @@
       <c r="B896">
         <v>2000</v>
       </c>
-      <c r="C896" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
@@ -10572,9 +10338,6 @@
       <c r="B897">
         <v>2001</v>
       </c>
-      <c r="C897" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
@@ -10583,9 +10346,6 @@
       <c r="B898">
         <v>2002</v>
       </c>
-      <c r="C898" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
@@ -10605,9 +10365,6 @@
       <c r="B900">
         <v>2004</v>
       </c>
-      <c r="C900" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
@@ -10627,9 +10384,6 @@
       <c r="B902">
         <v>2006</v>
       </c>
-      <c r="C902" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
@@ -10638,9 +10392,6 @@
       <c r="B903">
         <v>2007</v>
       </c>
-      <c r="C903" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
@@ -10649,9 +10400,6 @@
       <c r="B904">
         <v>2008</v>
       </c>
-      <c r="C904" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
@@ -10660,9 +10408,6 @@
       <c r="B905">
         <v>2009</v>
       </c>
-      <c r="C905" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
@@ -10671,9 +10416,6 @@
       <c r="B906">
         <v>2010</v>
       </c>
-      <c r="C906" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
@@ -10704,9 +10446,6 @@
       <c r="B909">
         <v>2013</v>
       </c>
-      <c r="C909" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
@@ -10715,9 +10454,6 @@
       <c r="B910">
         <v>2014</v>
       </c>
-      <c r="C910" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
@@ -10726,9 +10462,6 @@
       <c r="B911">
         <v>2015</v>
       </c>
-      <c r="C911" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
@@ -10737,9 +10470,6 @@
       <c r="B912">
         <v>2016</v>
       </c>
-      <c r="C912" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
@@ -10748,9 +10478,6 @@
       <c r="B913">
         <v>2017</v>
       </c>
-      <c r="C913" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
@@ -10979,9 +10706,6 @@
       <c r="B934">
         <v>2000</v>
       </c>
-      <c r="C934" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
@@ -10990,9 +10714,6 @@
       <c r="B935">
         <v>2001</v>
       </c>
-      <c r="C935" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
@@ -11001,9 +10722,6 @@
       <c r="B936">
         <v>2002</v>
       </c>
-      <c r="C936" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
@@ -11045,9 +10763,6 @@
       <c r="B940">
         <v>2006</v>
       </c>
-      <c r="C940" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
@@ -11100,9 +10815,6 @@
       <c r="B945">
         <v>2011</v>
       </c>
-      <c r="C945" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
@@ -11144,9 +10856,6 @@
       <c r="B949">
         <v>2015</v>
       </c>
-      <c r="C949" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
@@ -11386,9 +11095,6 @@
       <c r="B971">
         <v>1999</v>
       </c>
-      <c r="C971" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
@@ -11397,9 +11103,6 @@
       <c r="B972">
         <v>2000</v>
       </c>
-      <c r="C972" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
@@ -11408,9 +11111,6 @@
       <c r="B973">
         <v>2001</v>
       </c>
-      <c r="C973" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
@@ -11419,9 +11119,6 @@
       <c r="B974">
         <v>2002</v>
       </c>
-      <c r="C974" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
@@ -11441,9 +11138,6 @@
       <c r="B976">
         <v>2004</v>
       </c>
-      <c r="C976" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
@@ -11474,9 +11168,6 @@
       <c r="B979">
         <v>2007</v>
       </c>
-      <c r="C979" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
@@ -11485,9 +11176,6 @@
       <c r="B980">
         <v>2008</v>
       </c>
-      <c r="C980" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
@@ -11496,9 +11184,6 @@
       <c r="B981">
         <v>2009</v>
       </c>
-      <c r="C981" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
@@ -11507,9 +11192,6 @@
       <c r="B982">
         <v>2010</v>
       </c>
-      <c r="C982" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
@@ -11518,9 +11200,6 @@
       <c r="B983">
         <v>2011</v>
       </c>
-      <c r="C983" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
@@ -11540,9 +11219,6 @@
       <c r="B985">
         <v>2013</v>
       </c>
-      <c r="C985" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
@@ -11551,9 +11227,6 @@
       <c r="B986">
         <v>2014</v>
       </c>
-      <c r="C986" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
@@ -11562,9 +11235,6 @@
       <c r="B987">
         <v>2015</v>
       </c>
-      <c r="C987" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
@@ -11573,9 +11243,6 @@
       <c r="B988">
         <v>2016</v>
       </c>
-      <c r="C988" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
@@ -11595,9 +11262,6 @@
       <c r="B990">
         <v>1999</v>
       </c>
-      <c r="C990" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
@@ -11650,9 +11314,6 @@
       <c r="B995">
         <v>2004</v>
       </c>
-      <c r="C995" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
@@ -11727,9 +11388,6 @@
       <c r="B1002">
         <v>2011</v>
       </c>
-      <c r="C1002" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
@@ -11738,9 +11396,6 @@
       <c r="B1003">
         <v>2012</v>
       </c>
-      <c r="C1003" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
@@ -11749,9 +11404,6 @@
       <c r="B1004">
         <v>2013</v>
       </c>
-      <c r="C1004" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
@@ -11782,9 +11434,6 @@
       <c r="B1007">
         <v>2016</v>
       </c>
-      <c r="C1007" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
@@ -11804,9 +11453,6 @@
       <c r="B1009">
         <v>1999</v>
       </c>
-      <c r="C1009" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
@@ -11815,9 +11461,6 @@
       <c r="B1010">
         <v>2000</v>
       </c>
-      <c r="C1010" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
@@ -11826,9 +11469,6 @@
       <c r="B1011">
         <v>2001</v>
       </c>
-      <c r="C1011" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
@@ -11837,9 +11477,6 @@
       <c r="B1012">
         <v>2002</v>
       </c>
-      <c r="C1012" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
@@ -11848,9 +11485,6 @@
       <c r="B1013">
         <v>2003</v>
       </c>
-      <c r="C1013" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
@@ -11859,9 +11493,6 @@
       <c r="B1014">
         <v>2004</v>
       </c>
-      <c r="C1014" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
@@ -11870,9 +11501,6 @@
       <c r="B1015">
         <v>2005</v>
       </c>
-      <c r="C1015" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
@@ -11881,9 +11509,6 @@
       <c r="B1016">
         <v>2006</v>
       </c>
-      <c r="C1016" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
@@ -11892,9 +11517,6 @@
       <c r="B1017">
         <v>2007</v>
       </c>
-      <c r="C1017" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
@@ -11903,9 +11525,6 @@
       <c r="B1018">
         <v>2008</v>
       </c>
-      <c r="C1018" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
@@ -11914,9 +11533,6 @@
       <c r="B1019">
         <v>2009</v>
       </c>
-      <c r="C1019" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
@@ -11925,9 +11541,6 @@
       <c r="B1020">
         <v>2010</v>
       </c>
-      <c r="C1020" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
@@ -11947,9 +11560,6 @@
       <c r="B1022">
         <v>2012</v>
       </c>
-      <c r="C1022" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
@@ -11958,9 +11568,6 @@
       <c r="B1023">
         <v>2013</v>
       </c>
-      <c r="C1023" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
@@ -11969,9 +11576,6 @@
       <c r="B1024">
         <v>2014</v>
       </c>
-      <c r="C1024" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
@@ -11980,9 +11584,6 @@
       <c r="B1025">
         <v>2015</v>
       </c>
-      <c r="C1025" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
@@ -11991,9 +11592,6 @@
       <c r="B1026">
         <v>2016</v>
       </c>
-      <c r="C1026" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
@@ -12002,9 +11600,6 @@
       <c r="B1027">
         <v>2017</v>
       </c>
-      <c r="C1027" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
@@ -12024,9 +11619,6 @@
       <c r="B1029">
         <v>2000</v>
       </c>
-      <c r="C1029" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
@@ -12035,9 +11627,6 @@
       <c r="B1030">
         <v>2001</v>
       </c>
-      <c r="C1030" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
@@ -12046,9 +11635,6 @@
       <c r="B1031">
         <v>2002</v>
       </c>
-      <c r="C1031" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
@@ -12057,9 +11643,6 @@
       <c r="B1032">
         <v>2003</v>
       </c>
-      <c r="C1032" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
@@ -12079,9 +11662,6 @@
       <c r="B1034">
         <v>2005</v>
       </c>
-      <c r="C1034" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
@@ -12112,9 +11692,6 @@
       <c r="B1037">
         <v>2008</v>
       </c>
-      <c r="C1037" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
@@ -12123,9 +11700,6 @@
       <c r="B1038">
         <v>2009</v>
       </c>
-      <c r="C1038" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
@@ -12244,9 +11818,6 @@
       <c r="B1049">
         <v>2001</v>
       </c>
-      <c r="C1049" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
@@ -12255,9 +11826,6 @@
       <c r="B1050">
         <v>2002</v>
       </c>
-      <c r="C1050" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
@@ -12420,9 +11988,6 @@
       <c r="B1065">
         <v>2017</v>
       </c>
-      <c r="C1065" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
@@ -12431,9 +11996,6 @@
       <c r="B1066">
         <v>1999</v>
       </c>
-      <c r="C1066" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
@@ -12442,9 +12004,6 @@
       <c r="B1067">
         <v>2000</v>
       </c>
-      <c r="C1067" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
@@ -12453,9 +12012,6 @@
       <c r="B1068">
         <v>2001</v>
       </c>
-      <c r="C1068" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
@@ -12464,9 +12020,6 @@
       <c r="B1069">
         <v>2002</v>
       </c>
-      <c r="C1069" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
@@ -12475,9 +12028,6 @@
       <c r="B1070">
         <v>2003</v>
       </c>
-      <c r="C1070" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
@@ -12486,9 +12036,6 @@
       <c r="B1071">
         <v>2004</v>
       </c>
-      <c r="C1071" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
@@ -12497,9 +12044,6 @@
       <c r="B1072">
         <v>2005</v>
       </c>
-      <c r="C1072" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
@@ -12508,9 +12052,6 @@
       <c r="B1073">
         <v>2006</v>
       </c>
-      <c r="C1073" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
@@ -12519,9 +12060,6 @@
       <c r="B1074">
         <v>2007</v>
       </c>
-      <c r="C1074" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
@@ -12541,9 +12079,6 @@
       <c r="B1076">
         <v>2009</v>
       </c>
-      <c r="C1076" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
@@ -12552,9 +12087,6 @@
       <c r="B1077">
         <v>2010</v>
       </c>
-      <c r="C1077" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
@@ -12563,9 +12095,6 @@
       <c r="B1078">
         <v>2011</v>
       </c>
-      <c r="C1078" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
@@ -12574,9 +12103,6 @@
       <c r="B1079">
         <v>2012</v>
       </c>
-      <c r="C1079" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
@@ -12596,9 +12122,6 @@
       <c r="B1081">
         <v>2014</v>
       </c>
-      <c r="C1081" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
@@ -12618,9 +12141,6 @@
       <c r="B1083">
         <v>2016</v>
       </c>
-      <c r="C1083" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
@@ -12629,9 +12149,6 @@
       <c r="B1084">
         <v>2017</v>
       </c>
-      <c r="C1084" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
@@ -12651,9 +12168,6 @@
       <c r="B1086">
         <v>2000</v>
       </c>
-      <c r="C1086" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
@@ -12684,9 +12198,6 @@
       <c r="B1089">
         <v>2003</v>
       </c>
-      <c r="C1089" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
@@ -12794,9 +12305,6 @@
       <c r="B1099">
         <v>2013</v>
       </c>
-      <c r="C1099" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
@@ -12805,9 +12313,6 @@
       <c r="B1100">
         <v>2014</v>
       </c>
-      <c r="C1100" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
@@ -12838,9 +12343,6 @@
       <c r="B1103">
         <v>2017</v>
       </c>
-      <c r="C1103" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
@@ -12849,9 +12351,6 @@
       <c r="B1104">
         <v>1999</v>
       </c>
-      <c r="C1104" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
@@ -12860,9 +12359,6 @@
       <c r="B1105">
         <v>2000</v>
       </c>
-      <c r="C1105" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
@@ -12882,9 +12378,6 @@
       <c r="B1107">
         <v>2002</v>
       </c>
-      <c r="C1107" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
@@ -12893,9 +12386,6 @@
       <c r="B1108">
         <v>2003</v>
       </c>
-      <c r="C1108" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
@@ -12915,9 +12405,6 @@
       <c r="B1110">
         <v>2005</v>
       </c>
-      <c r="C1110" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
@@ -12926,9 +12413,6 @@
       <c r="B1111">
         <v>2006</v>
       </c>
-      <c r="C1111" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
@@ -12937,9 +12421,6 @@
       <c r="B1112">
         <v>2007</v>
       </c>
-      <c r="C1112" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
@@ -12948,9 +12429,6 @@
       <c r="B1113">
         <v>2008</v>
       </c>
-      <c r="C1113" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
@@ -12970,9 +12448,6 @@
       <c r="B1115">
         <v>2010</v>
       </c>
-      <c r="C1115" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
@@ -12992,9 +12467,6 @@
       <c r="B1117">
         <v>2012</v>
       </c>
-      <c r="C1117" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
@@ -13003,9 +12475,6 @@
       <c r="B1118">
         <v>2013</v>
       </c>
-      <c r="C1118" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
@@ -13014,9 +12483,6 @@
       <c r="B1119">
         <v>2014</v>
       </c>
-      <c r="C1119" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
@@ -13025,9 +12491,6 @@
       <c r="B1120">
         <v>2015</v>
       </c>
-      <c r="C1120" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
@@ -13036,9 +12499,6 @@
       <c r="B1121">
         <v>2016</v>
       </c>
-      <c r="C1121" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
@@ -13047,9 +12507,6 @@
       <c r="B1122">
         <v>2017</v>
       </c>
-      <c r="C1122" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
@@ -13476,9 +12933,6 @@
       <c r="B1161">
         <v>1999</v>
       </c>
-      <c r="C1161" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
@@ -13498,9 +12952,6 @@
       <c r="B1163">
         <v>2001</v>
       </c>
-      <c r="C1163" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
@@ -13520,9 +12971,6 @@
       <c r="B1165">
         <v>2003</v>
       </c>
-      <c r="C1165" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
@@ -13575,9 +13023,6 @@
       <c r="B1170">
         <v>2008</v>
       </c>
-      <c r="C1170" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
@@ -13685,9 +13130,6 @@
       <c r="B1180">
         <v>1999</v>
       </c>
-      <c r="C1180" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
@@ -13707,9 +13149,6 @@
       <c r="B1182">
         <v>2001</v>
       </c>
-      <c r="C1182" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
@@ -13718,9 +13157,6 @@
       <c r="B1183">
         <v>2002</v>
       </c>
-      <c r="C1183" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
@@ -13751,9 +13187,6 @@
       <c r="B1186">
         <v>2005</v>
       </c>
-      <c r="C1186" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
@@ -13773,9 +13206,6 @@
       <c r="B1188">
         <v>2007</v>
       </c>
-      <c r="C1188" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
@@ -13795,9 +13225,6 @@
       <c r="B1190">
         <v>2009</v>
       </c>
-      <c r="C1190" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
@@ -13894,9 +13321,6 @@
       <c r="B1199">
         <v>1999</v>
       </c>
-      <c r="C1199" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
@@ -13905,9 +13329,6 @@
       <c r="B1200">
         <v>2000</v>
       </c>
-      <c r="C1200" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
@@ -13916,9 +13337,6 @@
       <c r="B1201">
         <v>2001</v>
       </c>
-      <c r="C1201" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
@@ -13927,9 +13345,6 @@
       <c r="B1202">
         <v>2002</v>
       </c>
-      <c r="C1202" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
@@ -13938,9 +13353,6 @@
       <c r="B1203">
         <v>2003</v>
       </c>
-      <c r="C1203" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
@@ -13982,9 +13394,6 @@
       <c r="B1207">
         <v>2007</v>
       </c>
-      <c r="C1207" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
@@ -13993,9 +13402,6 @@
       <c r="B1208">
         <v>2008</v>
       </c>
-      <c r="C1208" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
@@ -14004,9 +13410,6 @@
       <c r="B1209">
         <v>2009</v>
       </c>
-      <c r="C1209" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
@@ -14015,9 +13418,6 @@
       <c r="B1210">
         <v>2010</v>
       </c>
-      <c r="C1210" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
@@ -14037,9 +13437,6 @@
       <c r="B1212">
         <v>2012</v>
       </c>
-      <c r="C1212" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
@@ -14048,9 +13445,6 @@
       <c r="B1213">
         <v>2013</v>
       </c>
-      <c r="C1213" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
@@ -14059,9 +13453,6 @@
       <c r="B1214">
         <v>2014</v>
       </c>
-      <c r="C1214" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
@@ -14070,9 +13461,6 @@
       <c r="B1215">
         <v>2015</v>
       </c>
-      <c r="C1215" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
@@ -14081,9 +13469,6 @@
       <c r="B1216">
         <v>2016</v>
       </c>
-      <c r="C1216" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
@@ -14092,9 +13477,6 @@
       <c r="B1217">
         <v>2017</v>
       </c>
-      <c r="C1217" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
@@ -14103,9 +13485,6 @@
       <c r="B1218">
         <v>1999</v>
       </c>
-      <c r="C1218" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
@@ -14114,9 +13493,6 @@
       <c r="B1219">
         <v>2000</v>
       </c>
-      <c r="C1219" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
@@ -14125,9 +13501,6 @@
       <c r="B1220">
         <v>2001</v>
       </c>
-      <c r="C1220" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
@@ -14136,9 +13509,6 @@
       <c r="B1221">
         <v>2002</v>
       </c>
-      <c r="C1221" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
@@ -14147,9 +13517,6 @@
       <c r="B1222">
         <v>2003</v>
       </c>
-      <c r="C1222" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
@@ -14158,9 +13525,6 @@
       <c r="B1223">
         <v>2004</v>
       </c>
-      <c r="C1223" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
@@ -14169,9 +13533,6 @@
       <c r="B1224">
         <v>2005</v>
       </c>
-      <c r="C1224" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
@@ -14202,9 +13563,6 @@
       <c r="B1227">
         <v>2008</v>
       </c>
-      <c r="C1227" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
@@ -14224,9 +13582,6 @@
       <c r="B1229">
         <v>2010</v>
       </c>
-      <c r="C1229" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
@@ -14246,9 +13601,6 @@
       <c r="B1231">
         <v>2012</v>
       </c>
-      <c r="C1231" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
@@ -14279,9 +13631,6 @@
       <c r="B1234">
         <v>2015</v>
       </c>
-      <c r="C1234" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
@@ -14323,9 +13672,6 @@
       <c r="B1238">
         <v>2000</v>
       </c>
-      <c r="C1238" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
@@ -14367,9 +13713,6 @@
       <c r="B1242">
         <v>2004</v>
       </c>
-      <c r="C1242" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
@@ -14521,9 +13864,6 @@
       <c r="B1256">
         <v>1999</v>
       </c>
-      <c r="C1256" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
@@ -14532,9 +13872,6 @@
       <c r="B1257">
         <v>2000</v>
       </c>
-      <c r="C1257" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
@@ -14543,9 +13880,6 @@
       <c r="B1258">
         <v>2001</v>
       </c>
-      <c r="C1258" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
@@ -14554,9 +13888,6 @@
       <c r="B1259">
         <v>2002</v>
       </c>
-      <c r="C1259" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
@@ -14565,9 +13896,6 @@
       <c r="B1260">
         <v>2003</v>
       </c>
-      <c r="C1260" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
@@ -14609,9 +13937,6 @@
       <c r="B1264">
         <v>2007</v>
       </c>
-      <c r="C1264" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
@@ -14642,9 +13967,6 @@
       <c r="B1267">
         <v>2010</v>
       </c>
-      <c r="C1267" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
@@ -14653,9 +13975,6 @@
       <c r="B1268">
         <v>2011</v>
       </c>
-      <c r="C1268" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
@@ -14675,9 +13994,6 @@
       <c r="B1270">
         <v>2013</v>
       </c>
-      <c r="C1270" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
@@ -14719,9 +14035,6 @@
       <c r="B1274">
         <v>2017</v>
       </c>
-      <c r="C1274" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
@@ -14730,9 +14043,6 @@
       <c r="B1275">
         <v>1999</v>
       </c>
-      <c r="C1275" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
@@ -14752,9 +14062,6 @@
       <c r="B1277">
         <v>2001</v>
       </c>
-      <c r="C1277" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
@@ -14763,9 +14070,6 @@
       <c r="B1278">
         <v>2002</v>
       </c>
-      <c r="C1278" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
@@ -14796,9 +14100,6 @@
       <c r="B1281">
         <v>2005</v>
       </c>
-      <c r="C1281" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
@@ -14807,9 +14108,6 @@
       <c r="B1282">
         <v>2006</v>
       </c>
-      <c r="C1282" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
@@ -14818,9 +14116,6 @@
       <c r="B1283">
         <v>2007</v>
       </c>
-      <c r="C1283" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
@@ -14829,9 +14124,6 @@
       <c r="B1284">
         <v>2008</v>
       </c>
-      <c r="C1284" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
@@ -14851,9 +14143,6 @@
       <c r="B1286">
         <v>2010</v>
       </c>
-      <c r="C1286" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
@@ -14862,9 +14151,6 @@
       <c r="B1287">
         <v>2011</v>
       </c>
-      <c r="C1287" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
@@ -14873,9 +14159,6 @@
       <c r="B1288">
         <v>2012</v>
       </c>
-      <c r="C1288" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
@@ -14884,9 +14167,6 @@
       <c r="B1289">
         <v>2013</v>
       </c>
-      <c r="C1289" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
@@ -14906,9 +14186,6 @@
       <c r="B1291">
         <v>2015</v>
       </c>
-      <c r="C1291" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
@@ -14928,9 +14205,6 @@
       <c r="B1293">
         <v>2017</v>
       </c>
-      <c r="C1293" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
@@ -14939,9 +14213,6 @@
       <c r="B1294">
         <v>1999</v>
       </c>
-      <c r="C1294" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
@@ -14950,9 +14221,6 @@
       <c r="B1295">
         <v>2000</v>
       </c>
-      <c r="C1295" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
@@ -14961,9 +14229,6 @@
       <c r="B1296">
         <v>2001</v>
       </c>
-      <c r="C1296" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
@@ -14972,9 +14237,6 @@
       <c r="B1297">
         <v>2002</v>
       </c>
-      <c r="C1297" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
@@ -14983,9 +14245,6 @@
       <c r="B1298">
         <v>2003</v>
       </c>
-      <c r="C1298" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
@@ -14994,9 +14253,6 @@
       <c r="B1299">
         <v>2004</v>
       </c>
-      <c r="C1299" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
@@ -15016,9 +14272,6 @@
       <c r="B1301">
         <v>2006</v>
       </c>
-      <c r="C1301" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
@@ -15038,9 +14291,6 @@
       <c r="B1303">
         <v>2008</v>
       </c>
-      <c r="C1303" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
@@ -15049,9 +14299,6 @@
       <c r="B1304">
         <v>2009</v>
       </c>
-      <c r="C1304" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
@@ -15071,9 +14318,6 @@
       <c r="B1306">
         <v>2011</v>
       </c>
-      <c r="C1306" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
@@ -15093,9 +14337,6 @@
       <c r="B1308">
         <v>2013</v>
       </c>
-      <c r="C1308" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
@@ -15104,9 +14345,6 @@
       <c r="B1309">
         <v>2014</v>
       </c>
-      <c r="C1309" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
@@ -15170,9 +14408,6 @@
       <c r="B1315">
         <v>2001</v>
       </c>
-      <c r="C1315" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
@@ -15181,9 +14416,6 @@
       <c r="B1316">
         <v>2002</v>
       </c>
-      <c r="C1316" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
@@ -15214,9 +14446,6 @@
       <c r="B1319">
         <v>2005</v>
       </c>
-      <c r="C1319" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
@@ -15236,9 +14465,6 @@
       <c r="B1321">
         <v>2007</v>
       </c>
-      <c r="C1321" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
@@ -15280,9 +14506,6 @@
       <c r="B1325">
         <v>2011</v>
       </c>
-      <c r="C1325" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
@@ -15346,9 +14569,6 @@
       <c r="B1331">
         <v>2017</v>
       </c>
-      <c r="C1331" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
@@ -15357,9 +14577,6 @@
       <c r="B1332">
         <v>1999</v>
       </c>
-      <c r="C1332" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
@@ -15368,9 +14585,6 @@
       <c r="B1333">
         <v>2000</v>
       </c>
-      <c r="C1333" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
@@ -15434,9 +14648,6 @@
       <c r="B1339">
         <v>2006</v>
       </c>
-      <c r="C1339" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
@@ -15544,9 +14755,6 @@
       <c r="B1349">
         <v>2016</v>
       </c>
-      <c r="C1349" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
@@ -15566,9 +14774,6 @@
       <c r="B1351">
         <v>1999</v>
       </c>
-      <c r="C1351" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
@@ -15775,9 +14980,6 @@
       <c r="B1370">
         <v>1999</v>
       </c>
-      <c r="C1370" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
@@ -15797,9 +14999,6 @@
       <c r="B1372">
         <v>2001</v>
       </c>
-      <c r="C1372" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
@@ -15808,9 +15007,6 @@
       <c r="B1373">
         <v>2002</v>
       </c>
-      <c r="C1373" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
@@ -15819,9 +15015,6 @@
       <c r="B1374">
         <v>2003</v>
       </c>
-      <c r="C1374" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
@@ -15841,9 +15034,6 @@
       <c r="B1376">
         <v>2005</v>
       </c>
-      <c r="C1376" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
@@ -15852,9 +15042,6 @@
       <c r="B1377">
         <v>2006</v>
       </c>
-      <c r="C1377" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
@@ -15863,9 +15050,6 @@
       <c r="B1378">
         <v>2007</v>
       </c>
-      <c r="C1378" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
@@ -15874,9 +15058,6 @@
       <c r="B1379">
         <v>2008</v>
       </c>
-      <c r="C1379" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
@@ -15885,9 +15066,6 @@
       <c r="B1380">
         <v>2009</v>
       </c>
-      <c r="C1380" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
@@ -15907,9 +15085,6 @@
       <c r="B1382">
         <v>2011</v>
       </c>
-      <c r="C1382" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
@@ -15984,9 +15159,6 @@
       <c r="B1389">
         <v>1999</v>
       </c>
-      <c r="C1389" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
@@ -15995,9 +15167,6 @@
       <c r="B1390">
         <v>2000</v>
       </c>
-      <c r="C1390" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
@@ -16028,9 +15197,6 @@
       <c r="B1393">
         <v>2003</v>
       </c>
-      <c r="C1393" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
@@ -16039,9 +15205,6 @@
       <c r="B1394">
         <v>2004</v>
       </c>
-      <c r="C1394" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
@@ -16105,9 +15268,6 @@
       <c r="B1400">
         <v>2010</v>
       </c>
-      <c r="C1400" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
@@ -16149,9 +15309,6 @@
       <c r="B1404">
         <v>2014</v>
       </c>
-      <c r="C1404" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
@@ -16182,9 +15339,6 @@
       <c r="B1407">
         <v>2017</v>
       </c>
-      <c r="C1407" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
@@ -16193,9 +15347,6 @@
       <c r="B1408">
         <v>1999</v>
       </c>
-      <c r="C1408" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
@@ -16237,9 +15388,6 @@
       <c r="B1412">
         <v>2003</v>
       </c>
-      <c r="C1412" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
@@ -16270,9 +15418,6 @@
       <c r="B1415">
         <v>2006</v>
       </c>
-      <c r="C1415" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
@@ -16325,9 +15470,6 @@
       <c r="B1420">
         <v>2011</v>
       </c>
-      <c r="C1420" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
@@ -16336,9 +15478,6 @@
       <c r="B1421">
         <v>2012</v>
       </c>
-      <c r="C1421" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
@@ -16347,9 +15486,6 @@
       <c r="B1422">
         <v>2013</v>
       </c>
-      <c r="C1422" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
@@ -16380,9 +15516,6 @@
       <c r="B1425">
         <v>2016</v>
       </c>
-      <c r="C1425" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
@@ -16391,9 +15524,6 @@
       <c r="B1426">
         <v>2017</v>
       </c>
-      <c r="C1426" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
@@ -16402,9 +15532,6 @@
       <c r="B1427">
         <v>1999</v>
       </c>
-      <c r="C1427" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
@@ -16413,9 +15540,6 @@
       <c r="B1428">
         <v>2000</v>
       </c>
-      <c r="C1428" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
@@ -16424,9 +15548,6 @@
       <c r="B1429">
         <v>2001</v>
       </c>
-      <c r="C1429" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
@@ -16435,9 +15556,6 @@
       <c r="B1430">
         <v>2002</v>
       </c>
-      <c r="C1430" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
@@ -16446,9 +15564,6 @@
       <c r="B1431">
         <v>2003</v>
       </c>
-      <c r="C1431" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
@@ -16457,9 +15572,6 @@
       <c r="B1432">
         <v>2004</v>
       </c>
-      <c r="C1432" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
@@ -16468,9 +15580,6 @@
       <c r="B1433">
         <v>2005</v>
       </c>
-      <c r="C1433" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
@@ -16479,9 +15588,6 @@
       <c r="B1434">
         <v>2006</v>
       </c>
-      <c r="C1434" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
@@ -16490,9 +15596,6 @@
       <c r="B1435">
         <v>2007</v>
       </c>
-      <c r="C1435" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
@@ -16512,9 +15615,6 @@
       <c r="B1437">
         <v>2009</v>
       </c>
-      <c r="C1437" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
@@ -16523,9 +15623,6 @@
       <c r="B1438">
         <v>2010</v>
       </c>
-      <c r="C1438" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
@@ -16534,9 +15631,6 @@
       <c r="B1439">
         <v>2011</v>
       </c>
-      <c r="C1439" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
@@ -16545,9 +15639,6 @@
       <c r="B1440">
         <v>2012</v>
       </c>
-      <c r="C1440" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
@@ -16556,9 +15647,6 @@
       <c r="B1441">
         <v>2013</v>
       </c>
-      <c r="C1441" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
@@ -16567,9 +15655,6 @@
       <c r="B1442">
         <v>2014</v>
       </c>
-      <c r="C1442" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
@@ -16578,9 +15663,6 @@
       <c r="B1443">
         <v>2015</v>
       </c>
-      <c r="C1443" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
@@ -16589,9 +15671,6 @@
       <c r="B1444">
         <v>2016</v>
       </c>
-      <c r="C1444" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
@@ -16611,9 +15690,6 @@
       <c r="B1446">
         <v>1999</v>
       </c>
-      <c r="C1446" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
@@ -16644,9 +15720,6 @@
       <c r="B1449">
         <v>2002</v>
       </c>
-      <c r="C1449" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
@@ -16831,9 +15904,6 @@
       <c r="B1466">
         <v>2000</v>
       </c>
-      <c r="C1466" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
@@ -16842,9 +15912,6 @@
       <c r="B1467">
         <v>2001</v>
       </c>
-      <c r="C1467" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
@@ -16864,9 +15931,6 @@
       <c r="B1469">
         <v>2003</v>
       </c>
-      <c r="C1469" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
@@ -16875,9 +15939,6 @@
       <c r="B1470">
         <v>2004</v>
       </c>
-      <c r="C1470" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
@@ -16886,9 +15947,6 @@
       <c r="B1471">
         <v>2005</v>
       </c>
-      <c r="C1471" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
@@ -16897,9 +15955,6 @@
       <c r="B1472">
         <v>2006</v>
       </c>
-      <c r="C1472" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
@@ -16930,9 +15985,6 @@
       <c r="B1475">
         <v>2009</v>
       </c>
-      <c r="C1475" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1476" t="s">
@@ -16941,9 +15993,6 @@
       <c r="B1476">
         <v>2010</v>
       </c>
-      <c r="C1476" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
@@ -16952,9 +16001,6 @@
       <c r="B1477">
         <v>2011</v>
       </c>
-      <c r="C1477" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1478" t="s">
@@ -16963,9 +16009,6 @@
       <c r="B1478">
         <v>2012</v>
       </c>
-      <c r="C1478" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
@@ -16974,9 +16017,6 @@
       <c r="B1479">
         <v>2013</v>
       </c>
-      <c r="C1479" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
@@ -16985,9 +16025,6 @@
       <c r="B1480">
         <v>2014</v>
       </c>
-      <c r="C1480" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
@@ -17007,9 +16044,6 @@
       <c r="B1482">
         <v>2016</v>
       </c>
-      <c r="C1482" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
@@ -17018,9 +16052,6 @@
       <c r="B1483">
         <v>2017</v>
       </c>
-      <c r="C1483" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
@@ -17029,9 +16060,6 @@
       <c r="B1484">
         <v>1999</v>
       </c>
-      <c r="C1484" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
@@ -17040,9 +16068,6 @@
       <c r="B1485">
         <v>2000</v>
       </c>
-      <c r="C1485" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
@@ -17051,9 +16076,6 @@
       <c r="B1486">
         <v>2001</v>
       </c>
-      <c r="C1486" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
@@ -17062,9 +16084,6 @@
       <c r="B1487">
         <v>2002</v>
       </c>
-      <c r="C1487" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
@@ -17073,9 +16092,6 @@
       <c r="B1488">
         <v>2003</v>
       </c>
-      <c r="C1488" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
@@ -17084,9 +16100,6 @@
       <c r="B1489">
         <v>2004</v>
       </c>
-      <c r="C1489" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
@@ -17106,9 +16119,6 @@
       <c r="B1491">
         <v>2006</v>
       </c>
-      <c r="C1491" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1492" t="s">
@@ -17117,9 +16127,6 @@
       <c r="B1492">
         <v>2007</v>
       </c>
-      <c r="C1492" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
@@ -17128,9 +16135,6 @@
       <c r="B1493">
         <v>2008</v>
       </c>
-      <c r="C1493" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
@@ -17150,9 +16154,6 @@
       <c r="B1495">
         <v>2010</v>
       </c>
-      <c r="C1495" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
@@ -17161,9 +16162,6 @@
       <c r="B1496">
         <v>2011</v>
       </c>
-      <c r="C1496" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
@@ -17172,9 +16170,6 @@
       <c r="B1497">
         <v>2012</v>
       </c>
-      <c r="C1497" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
@@ -17194,9 +16189,6 @@
       <c r="B1499">
         <v>2014</v>
       </c>
-      <c r="C1499" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
@@ -17227,9 +16219,6 @@
       <c r="B1502">
         <v>2017</v>
       </c>
-      <c r="C1502" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
@@ -17238,9 +16227,6 @@
       <c r="B1503">
         <v>1999</v>
       </c>
-      <c r="C1503" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
@@ -17249,9 +16235,6 @@
       <c r="B1504">
         <v>2000</v>
       </c>
-      <c r="C1504" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
@@ -17260,9 +16243,6 @@
       <c r="B1505">
         <v>2001</v>
       </c>
-      <c r="C1505" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
@@ -17271,9 +16251,6 @@
       <c r="B1506">
         <v>2002</v>
       </c>
-      <c r="C1506" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
@@ -17282,9 +16259,6 @@
       <c r="B1507">
         <v>2003</v>
       </c>
-      <c r="C1507" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
@@ -17293,9 +16267,6 @@
       <c r="B1508">
         <v>2004</v>
       </c>
-      <c r="C1508" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
@@ -17304,9 +16275,6 @@
       <c r="B1509">
         <v>2005</v>
       </c>
-      <c r="C1509" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
@@ -17315,9 +16283,6 @@
       <c r="B1510">
         <v>2006</v>
       </c>
-      <c r="C1510" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
@@ -17326,9 +16291,6 @@
       <c r="B1511">
         <v>2007</v>
       </c>
-      <c r="C1511" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
@@ -17337,9 +16299,6 @@
       <c r="B1512">
         <v>2008</v>
       </c>
-      <c r="C1512" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
@@ -17359,9 +16318,6 @@
       <c r="B1514">
         <v>2010</v>
       </c>
-      <c r="C1514" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
@@ -17414,9 +16370,6 @@
       <c r="B1519">
         <v>2015</v>
       </c>
-      <c r="C1519" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
@@ -17436,9 +16389,6 @@
       <c r="B1521">
         <v>2017</v>
       </c>
-      <c r="C1521" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
@@ -17447,9 +16397,6 @@
       <c r="B1522">
         <v>1999</v>
       </c>
-      <c r="C1522" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
@@ -17458,9 +16405,6 @@
       <c r="B1523">
         <v>2000</v>
       </c>
-      <c r="C1523" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
@@ -17469,9 +16413,6 @@
       <c r="B1524">
         <v>2001</v>
       </c>
-      <c r="C1524" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
@@ -17491,9 +16432,6 @@
       <c r="B1526">
         <v>2003</v>
       </c>
-      <c r="C1526" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
@@ -17502,9 +16440,6 @@
       <c r="B1527">
         <v>2004</v>
       </c>
-      <c r="C1527" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
@@ -17513,9 +16448,6 @@
       <c r="B1528">
         <v>2005</v>
       </c>
-      <c r="C1528" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
@@ -17524,9 +16456,6 @@
       <c r="B1529">
         <v>2006</v>
       </c>
-      <c r="C1529" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
@@ -17535,9 +16464,6 @@
       <c r="B1530">
         <v>2007</v>
       </c>
-      <c r="C1530" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
@@ -17557,9 +16483,6 @@
       <c r="B1532">
         <v>2009</v>
       </c>
-      <c r="C1532" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1533" t="s">
@@ -17568,9 +16491,6 @@
       <c r="B1533">
         <v>2010</v>
       </c>
-      <c r="C1533" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1534" t="s">
@@ -17579,9 +16499,6 @@
       <c r="B1534">
         <v>2011</v>
       </c>
-      <c r="C1534" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
@@ -17590,9 +16507,6 @@
       <c r="B1535">
         <v>2012</v>
       </c>
-      <c r="C1535" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
@@ -17623,9 +16537,6 @@
       <c r="B1538">
         <v>2015</v>
       </c>
-      <c r="C1538" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
@@ -17656,9 +16567,6 @@
       <c r="B1541">
         <v>1999</v>
       </c>
-      <c r="C1541" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
@@ -17667,9 +16575,6 @@
       <c r="B1542">
         <v>2000</v>
       </c>
-      <c r="C1542" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
@@ -17678,9 +16583,6 @@
       <c r="B1543">
         <v>2001</v>
       </c>
-      <c r="C1543" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
@@ -17722,9 +16624,6 @@
       <c r="B1547">
         <v>2005</v>
       </c>
-      <c r="C1547" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
@@ -17788,9 +16687,6 @@
       <c r="B1553">
         <v>2011</v>
       </c>
-      <c r="C1553" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
@@ -17898,9 +16794,6 @@
       <c r="B1563">
         <v>2002</v>
       </c>
-      <c r="C1563" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
@@ -18074,9 +16967,6 @@
       <c r="B1579">
         <v>1999</v>
       </c>
-      <c r="C1579" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
@@ -18085,9 +16975,6 @@
       <c r="B1580">
         <v>2000</v>
       </c>
-      <c r="C1580" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
@@ -18096,9 +16983,6 @@
       <c r="B1581">
         <v>2001</v>
       </c>
-      <c r="C1581" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
@@ -18107,9 +16991,6 @@
       <c r="B1582">
         <v>2002</v>
       </c>
-      <c r="C1582" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
@@ -18118,9 +16999,6 @@
       <c r="B1583">
         <v>2003</v>
       </c>
-      <c r="C1583" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
@@ -18129,9 +17007,6 @@
       <c r="B1584">
         <v>2004</v>
       </c>
-      <c r="C1584" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
@@ -18140,9 +17015,6 @@
       <c r="B1585">
         <v>2005</v>
       </c>
-      <c r="C1585" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
@@ -18151,9 +17023,6 @@
       <c r="B1586">
         <v>2006</v>
       </c>
-      <c r="C1586" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
@@ -18173,9 +17042,6 @@
       <c r="B1588">
         <v>2008</v>
       </c>
-      <c r="C1588" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
@@ -18195,9 +17061,6 @@
       <c r="B1590">
         <v>2010</v>
       </c>
-      <c r="C1590" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1591" t="s">
@@ -18206,9 +17069,6 @@
       <c r="B1591">
         <v>2011</v>
       </c>
-      <c r="C1591" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1592" t="s">
@@ -18239,9 +17099,6 @@
       <c r="B1594">
         <v>2014</v>
       </c>
-      <c r="C1594" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1595" t="s">
@@ -18272,9 +17129,6 @@
       <c r="B1597">
         <v>2017</v>
       </c>
-      <c r="C1597" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1598" t="s">
@@ -18745,9 +17599,6 @@
       <c r="B1640">
         <v>2003</v>
       </c>
-      <c r="C1640" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1641" t="s">
@@ -18910,9 +17761,6 @@
       <c r="B1655">
         <v>1999</v>
       </c>
-      <c r="C1655" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1656" t="s">
@@ -18921,9 +17769,6 @@
       <c r="B1656">
         <v>2000</v>
       </c>
-      <c r="C1656" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1657" t="s">
@@ -18932,9 +17777,6 @@
       <c r="B1657">
         <v>2001</v>
       </c>
-      <c r="C1657" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1658" t="s">
@@ -18943,9 +17785,6 @@
       <c r="B1658">
         <v>2002</v>
       </c>
-      <c r="C1658" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1659" t="s">
@@ -18954,9 +17793,6 @@
       <c r="B1659">
         <v>2003</v>
       </c>
-      <c r="C1659" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1660" t="s">
@@ -18965,9 +17801,6 @@
       <c r="B1660">
         <v>2004</v>
       </c>
-      <c r="C1660" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1661" t="s">
@@ -18976,9 +17809,6 @@
       <c r="B1661">
         <v>2005</v>
       </c>
-      <c r="C1661" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1662" t="s">
@@ -18987,9 +17817,6 @@
       <c r="B1662">
         <v>2006</v>
       </c>
-      <c r="C1662" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1663" t="s">
@@ -18998,9 +17825,6 @@
       <c r="B1663">
         <v>2007</v>
       </c>
-      <c r="C1663" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1664" t="s">
@@ -19009,9 +17833,6 @@
       <c r="B1664">
         <v>2008</v>
       </c>
-      <c r="C1664" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1665" t="s">
@@ -19020,9 +17841,6 @@
       <c r="B1665">
         <v>2009</v>
       </c>
-      <c r="C1665" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1666" t="s">
@@ -19031,9 +17849,6 @@
       <c r="B1666">
         <v>2010</v>
       </c>
-      <c r="C1666" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1667" t="s">
@@ -19042,9 +17857,6 @@
       <c r="B1667">
         <v>2011</v>
       </c>
-      <c r="C1667" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1668" t="s">
@@ -19053,9 +17865,6 @@
       <c r="B1668">
         <v>2012</v>
       </c>
-      <c r="C1668" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1669" t="s">
@@ -19064,9 +17873,6 @@
       <c r="B1669">
         <v>2013</v>
       </c>
-      <c r="C1669" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1670" t="s">
@@ -19075,9 +17881,6 @@
       <c r="B1670">
         <v>2014</v>
       </c>
-      <c r="C1670" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1671" t="s">
@@ -19086,9 +17889,6 @@
       <c r="B1671">
         <v>2015</v>
       </c>
-      <c r="C1671" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1672" t="s">
@@ -19097,9 +17897,6 @@
       <c r="B1672">
         <v>2016</v>
       </c>
-      <c r="C1672" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1673" t="s">
@@ -19108,9 +17905,6 @@
       <c r="B1673">
         <v>2017</v>
       </c>
-      <c r="C1673" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1674" t="s">
@@ -19537,9 +18331,6 @@
       <c r="B1712">
         <v>1999</v>
       </c>
-      <c r="C1712" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1713" t="s">
@@ -19559,9 +18350,6 @@
       <c r="B1714">
         <v>2001</v>
       </c>
-      <c r="C1714" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1715" t="s">
@@ -19592,9 +18380,6 @@
       <c r="B1717">
         <v>2004</v>
       </c>
-      <c r="C1717" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1718" t="s">
@@ -19603,9 +18388,6 @@
       <c r="B1718">
         <v>2005</v>
       </c>
-      <c r="C1718" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1719" t="s">
@@ -19669,9 +18451,6 @@
       <c r="B1724">
         <v>2011</v>
       </c>
-      <c r="C1724" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1725" t="s">
@@ -19702,9 +18481,6 @@
       <c r="B1727">
         <v>2014</v>
       </c>
-      <c r="C1727" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1728" t="s">
@@ -19735,9 +18511,6 @@
       <c r="B1730">
         <v>2017</v>
       </c>
-      <c r="C1730" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1731" t="s">
@@ -19955,9 +18728,6 @@
       <c r="B1750">
         <v>1999</v>
       </c>
-      <c r="C1750" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1751" t="s">
@@ -19966,9 +18736,6 @@
       <c r="B1751">
         <v>2000</v>
       </c>
-      <c r="C1751" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1752" t="s">
@@ -20164,9 +18931,6 @@
       <c r="B1769">
         <v>1999</v>
       </c>
-      <c r="C1769" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1770" t="s">
@@ -20175,9 +18939,6 @@
       <c r="B1770">
         <v>2000</v>
       </c>
-      <c r="C1770" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1771" t="s">
@@ -20186,9 +18947,6 @@
       <c r="B1771">
         <v>2001</v>
       </c>
-      <c r="C1771" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1772" t="s">
@@ -20208,9 +18966,6 @@
       <c r="B1773">
         <v>2003</v>
       </c>
-      <c r="C1773" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1774" t="s">
@@ -20219,9 +18974,6 @@
       <c r="B1774">
         <v>2004</v>
       </c>
-      <c r="C1774" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1775" t="s">
@@ -20241,9 +18993,6 @@
       <c r="B1776">
         <v>2006</v>
       </c>
-      <c r="C1776" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1777" t="s">
@@ -20252,9 +19001,6 @@
       <c r="B1777">
         <v>2007</v>
       </c>
-      <c r="C1777" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1778" t="s">
@@ -20263,9 +19009,6 @@
       <c r="B1778">
         <v>2008</v>
       </c>
-      <c r="C1778" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1779" t="s">
@@ -20274,9 +19017,6 @@
       <c r="B1779">
         <v>2009</v>
       </c>
-      <c r="C1779" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1780" t="s">
@@ -20296,9 +19036,6 @@
       <c r="B1781">
         <v>2011</v>
       </c>
-      <c r="C1781" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1782" t="s">
@@ -20307,9 +19044,6 @@
       <c r="B1782">
         <v>2012</v>
       </c>
-      <c r="C1782" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1783" t="s">
@@ -20318,9 +19052,6 @@
       <c r="B1783">
         <v>2013</v>
       </c>
-      <c r="C1783" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1784" t="s">
@@ -20329,9 +19060,6 @@
       <c r="B1784">
         <v>2014</v>
       </c>
-      <c r="C1784" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1785" t="s">
@@ -20340,9 +19068,6 @@
       <c r="B1785">
         <v>2015</v>
       </c>
-      <c r="C1785" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1786" t="s">
@@ -20351,9 +19076,6 @@
       <c r="B1786">
         <v>2016</v>
       </c>
-      <c r="C1786" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1787" t="s">
@@ -20362,9 +19084,6 @@
       <c r="B1787">
         <v>2017</v>
       </c>
-      <c r="C1787" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1788" t="s">
@@ -20373,9 +19092,6 @@
       <c r="B1788">
         <v>1999</v>
       </c>
-      <c r="C1788" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1789" t="s">
@@ -20384,9 +19100,6 @@
       <c r="B1789">
         <v>2000</v>
       </c>
-      <c r="C1789" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1790" t="s">
@@ -20395,9 +19108,6 @@
       <c r="B1790">
         <v>2001</v>
       </c>
-      <c r="C1790" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1791" t="s">
@@ -20417,9 +19127,6 @@
       <c r="B1792">
         <v>2003</v>
       </c>
-      <c r="C1792" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1793" t="s">
@@ -20461,9 +19168,6 @@
       <c r="B1796">
         <v>2007</v>
       </c>
-      <c r="C1796" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1797" t="s">
@@ -20527,9 +19231,6 @@
       <c r="B1802">
         <v>2013</v>
       </c>
-      <c r="C1802" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1803" t="s">
@@ -20538,9 +19239,6 @@
       <c r="B1803">
         <v>2014</v>
       </c>
-      <c r="C1803" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1804" t="s">
@@ -20571,9 +19269,6 @@
       <c r="B1806">
         <v>2017</v>
       </c>
-      <c r="C1806" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1807" t="s">
@@ -20791,9 +19486,6 @@
       <c r="B1826">
         <v>1999</v>
       </c>
-      <c r="C1826" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1827" t="s">
@@ -21011,9 +19703,6 @@
       <c r="B1846">
         <v>2000</v>
       </c>
-      <c r="C1846" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1847" t="s">
@@ -21022,9 +19711,6 @@
       <c r="B1847">
         <v>2001</v>
       </c>
-      <c r="C1847" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1848" t="s">
@@ -21033,9 +19719,6 @@
       <c r="B1848">
         <v>2002</v>
       </c>
-      <c r="C1848" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1849" t="s">
@@ -21044,9 +19727,6 @@
       <c r="B1849">
         <v>2003</v>
       </c>
-      <c r="C1849" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1850" t="s">
@@ -21055,9 +19735,6 @@
       <c r="B1850">
         <v>2004</v>
       </c>
-      <c r="C1850" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1851" t="s">
@@ -21066,9 +19743,6 @@
       <c r="B1851">
         <v>2005</v>
       </c>
-      <c r="C1851" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1852" t="s">
@@ -21077,9 +19751,6 @@
       <c r="B1852">
         <v>2006</v>
       </c>
-      <c r="C1852" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1853" t="s">
@@ -21110,9 +19781,6 @@
       <c r="B1855">
         <v>2009</v>
       </c>
-      <c r="C1855" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1856" t="s">
@@ -21121,9 +19789,6 @@
       <c r="B1856">
         <v>2010</v>
       </c>
-      <c r="C1856" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1857" t="s">
@@ -21187,9 +19852,6 @@
       <c r="B1862">
         <v>2016</v>
       </c>
-      <c r="C1862" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1863" t="s">
@@ -21209,9 +19871,6 @@
       <c r="B1864">
         <v>1999</v>
       </c>
-      <c r="C1864" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1865" t="s">
@@ -21231,9 +19890,6 @@
       <c r="B1866">
         <v>2001</v>
       </c>
-      <c r="C1866" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1867" t="s">
@@ -21253,9 +19909,6 @@
       <c r="B1868">
         <v>2003</v>
       </c>
-      <c r="C1868" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1869" t="s">
@@ -21297,9 +19950,6 @@
       <c r="B1872">
         <v>2007</v>
       </c>
-      <c r="C1872" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1873" t="s">
@@ -21308,9 +19958,6 @@
       <c r="B1873">
         <v>2008</v>
       </c>
-      <c r="C1873" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1874" t="s">
@@ -21319,9 +19966,6 @@
       <c r="B1874">
         <v>2009</v>
       </c>
-      <c r="C1874" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1875" t="s">
@@ -21330,9 +19974,6 @@
       <c r="B1875">
         <v>2010</v>
       </c>
-      <c r="C1875" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1876" t="s">
@@ -21352,9 +19993,6 @@
       <c r="B1877">
         <v>2012</v>
       </c>
-      <c r="C1877" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1878" t="s">
@@ -21363,9 +20001,6 @@
       <c r="B1878">
         <v>2013</v>
       </c>
-      <c r="C1878" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1879" t="s">
@@ -21374,9 +20009,6 @@
       <c r="B1879">
         <v>2014</v>
       </c>
-      <c r="C1879" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1880" t="s">
@@ -21385,9 +20017,6 @@
       <c r="B1880">
         <v>2015</v>
       </c>
-      <c r="C1880" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1881" t="s">
@@ -21396,9 +20025,6 @@
       <c r="B1881">
         <v>2016</v>
       </c>
-      <c r="C1881" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1882" t="s">
@@ -21473,9 +20099,6 @@
       <c r="B1888">
         <v>2004</v>
       </c>
-      <c r="C1888" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1889" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1889" t="s">
@@ -21484,9 +20107,6 @@
       <c r="B1889">
         <v>2005</v>
       </c>
-      <c r="C1889" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1890" t="s">
@@ -21506,9 +20126,6 @@
       <c r="B1891">
         <v>2007</v>
       </c>
-      <c r="C1891" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1892" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1892" t="s">
@@ -21517,9 +20134,6 @@
       <c r="B1892">
         <v>2008</v>
       </c>
-      <c r="C1892" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1893" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1893" t="s">
@@ -21528,9 +20142,6 @@
       <c r="B1893">
         <v>2009</v>
       </c>
-      <c r="C1893" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1894" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1894" t="s">
@@ -21539,9 +20150,6 @@
       <c r="B1894">
         <v>2010</v>
       </c>
-      <c r="C1894" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1895" t="s">
@@ -21583,9 +20191,6 @@
       <c r="B1898">
         <v>2014</v>
       </c>
-      <c r="C1898" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1899" t="s">
@@ -21594,9 +20199,6 @@
       <c r="B1899">
         <v>2015</v>
       </c>
-      <c r="C1899" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1900" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1900" t="s">
@@ -21616,9 +20218,6 @@
       <c r="B1901">
         <v>2017</v>
       </c>
-      <c r="C1901" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1902" t="s">
@@ -21627,9 +20226,6 @@
       <c r="B1902">
         <v>1999</v>
       </c>
-      <c r="C1902" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1903" t="s">
@@ -21649,9 +20245,6 @@
       <c r="B1904">
         <v>2001</v>
       </c>
-      <c r="C1904" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1905" t="s">
@@ -21660,9 +20253,6 @@
       <c r="B1905">
         <v>2002</v>
       </c>
-      <c r="C1905" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1906" t="s">
@@ -21682,9 +20272,6 @@
       <c r="B1907">
         <v>2004</v>
       </c>
-      <c r="C1907" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1908" t="s">
@@ -21693,9 +20280,6 @@
       <c r="B1908">
         <v>2005</v>
       </c>
-      <c r="C1908" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1909" t="s">
@@ -21704,9 +20288,6 @@
       <c r="B1909">
         <v>2006</v>
       </c>
-      <c r="C1909" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1910" t="s">
@@ -21715,9 +20296,6 @@
       <c r="B1910">
         <v>2007</v>
       </c>
-      <c r="C1910" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1911" t="s">
@@ -21737,9 +20315,6 @@
       <c r="B1912">
         <v>2009</v>
       </c>
-      <c r="C1912" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1913" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1913" t="s">
@@ -21748,9 +20323,6 @@
       <c r="B1913">
         <v>2010</v>
       </c>
-      <c r="C1913" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1914" t="s">
@@ -21759,9 +20331,6 @@
       <c r="B1914">
         <v>2011</v>
       </c>
-      <c r="C1914" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1915" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1915" t="s">
@@ -21770,9 +20339,6 @@
       <c r="B1915">
         <v>2012</v>
       </c>
-      <c r="C1915" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1916" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1916" t="s">
@@ -21781,9 +20347,6 @@
       <c r="B1916">
         <v>2013</v>
       </c>
-      <c r="C1916" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1917" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1917" t="s">
@@ -21792,9 +20355,6 @@
       <c r="B1917">
         <v>2014</v>
       </c>
-      <c r="C1917" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="1918" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1918" t="s">
@@ -21824,9 +20384,6 @@
       </c>
       <c r="B1920">
         <v>2017</v>
-      </c>
-      <c r="C1920" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/technology_patents/files/pct_env_c.xlsx
+++ b/data/technology_patents/files/pct_env_c.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D111302-A71B-D549-994E-C81E5786F659}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49371E5B-775D-7F45-A353-1250B3DBA284}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16640" yWindow="500" windowWidth="19200" windowHeight="19200" xr2:uid="{B51CFE45-5EB0-7244-967D-698E8B90D59B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="103">
   <si>
     <t>Country</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OECD </t>
   </si>
   <si>
     <t>Algeria</t>
@@ -698,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDF13CA-159D-404D-A68B-6D83BB0ADACF}">
-  <dimension ref="A1:C1920"/>
+  <dimension ref="A1:C1901"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A787" workbookViewId="0">
-      <selection activeCell="C800" sqref="C800"/>
+    <sheetView tabSelected="1" topLeftCell="A683" workbookViewId="0">
+      <selection activeCell="A705" sqref="A705:XFD723"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8409,9 +8406,6 @@
       <c r="B705">
         <v>1999</v>
       </c>
-      <c r="C705" s="1">
-        <v>4896.0916999999999</v>
-      </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
@@ -8420,9 +8414,6 @@
       <c r="B706">
         <v>2000</v>
       </c>
-      <c r="C706" s="1">
-        <v>5675.4612999999999</v>
-      </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
@@ -8431,9 +8422,6 @@
       <c r="B707">
         <v>2001</v>
       </c>
-      <c r="C707" s="1">
-        <v>6084.5043999999998</v>
-      </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
@@ -8443,7 +8431,7 @@
         <v>2002</v>
       </c>
       <c r="C708" s="1">
-        <v>6374.0378000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
@@ -8454,7 +8442,7 @@
         <v>2003</v>
       </c>
       <c r="C709" s="1">
-        <v>6889.4066999999995</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
@@ -8465,7 +8453,7 @@
         <v>2004</v>
       </c>
       <c r="C710" s="1">
-        <v>8098.4359999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
@@ -8475,9 +8463,6 @@
       <c r="B711">
         <v>2005</v>
       </c>
-      <c r="C711" s="1">
-        <v>9283.0946000000004</v>
-      </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
@@ -8487,7 +8472,7 @@
         <v>2006</v>
       </c>
       <c r="C712" s="1">
-        <v>10841.7569</v>
+        <v>2.1667000000000001</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
@@ -8498,7 +8483,7 @@
         <v>2007</v>
       </c>
       <c r="C713" s="1">
-        <v>12756.7929</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
@@ -8509,7 +8494,7 @@
         <v>2008</v>
       </c>
       <c r="C714" s="1">
-        <v>13381.4095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
@@ -8520,7 +8505,7 @@
         <v>2009</v>
       </c>
       <c r="C715" s="1">
-        <v>15713.4256</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
@@ -8530,9 +8515,6 @@
       <c r="B716">
         <v>2010</v>
       </c>
-      <c r="C716" s="1">
-        <v>18235.225299999998</v>
-      </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
@@ -8542,7 +8524,7 @@
         <v>2011</v>
       </c>
       <c r="C717" s="1">
-        <v>19804.474900000001</v>
+        <v>1.2857000000000001</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
@@ -8553,7 +8535,7 @@
         <v>2012</v>
       </c>
       <c r="C718" s="1">
-        <v>19345.718099999998</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
@@ -8564,7 +8546,7 @@
         <v>2013</v>
       </c>
       <c r="C719" s="1">
-        <v>18313.478800000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
@@ -8575,7 +8557,7 @@
         <v>2014</v>
       </c>
       <c r="C720" s="1">
-        <v>16127.8387</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
@@ -8586,7 +8568,7 @@
         <v>2015</v>
       </c>
       <c r="C721" s="1">
-        <v>14984.4931</v>
+        <v>4</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
@@ -8597,7 +8579,7 @@
         <v>2016</v>
       </c>
       <c r="C722" s="1">
-        <v>14343.8896</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
@@ -8607,9 +8589,6 @@
       <c r="B723">
         <v>2017</v>
       </c>
-      <c r="C723" s="1">
-        <v>7646.9231</v>
-      </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
@@ -8642,9 +8621,6 @@
       <c r="B727">
         <v>2002</v>
       </c>
-      <c r="C727" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
@@ -8653,9 +8629,6 @@
       <c r="B728">
         <v>2003</v>
       </c>
-      <c r="C728" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
@@ -8664,9 +8637,6 @@
       <c r="B729">
         <v>2004</v>
       </c>
-      <c r="C729" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
@@ -8675,6 +8645,9 @@
       <c r="B730">
         <v>2005</v>
       </c>
+      <c r="C730" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
@@ -8683,9 +8656,6 @@
       <c r="B731">
         <v>2006</v>
       </c>
-      <c r="C731" s="1">
-        <v>2.1667000000000001</v>
-      </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
@@ -8694,9 +8664,6 @@
       <c r="B732">
         <v>2007</v>
       </c>
-      <c r="C732" s="1">
-        <v>2.25</v>
-      </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
@@ -8705,9 +8672,6 @@
       <c r="B733">
         <v>2008</v>
       </c>
-      <c r="C733" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
@@ -8716,9 +8680,6 @@
       <c r="B734">
         <v>2009</v>
       </c>
-      <c r="C734" s="1">
-        <v>0.25</v>
-      </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
@@ -8736,7 +8697,7 @@
         <v>2011</v>
       </c>
       <c r="C736" s="1">
-        <v>1.2857000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
@@ -8746,9 +8707,6 @@
       <c r="B737">
         <v>2012</v>
       </c>
-      <c r="C737" s="1">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
@@ -8757,9 +8715,6 @@
       <c r="B738">
         <v>2013</v>
       </c>
-      <c r="C738" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
@@ -8768,9 +8723,6 @@
       <c r="B739">
         <v>2014</v>
       </c>
-      <c r="C739" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
@@ -8780,7 +8732,7 @@
         <v>2015</v>
       </c>
       <c r="C740" s="1">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
@@ -8790,9 +8742,6 @@
       <c r="B741">
         <v>2016</v>
       </c>
-      <c r="C741" s="1">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
@@ -8801,6 +8750,9 @@
       <c r="B742">
         <v>2017</v>
       </c>
+      <c r="C742" s="1">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
@@ -8809,6 +8761,9 @@
       <c r="B743">
         <v>1999</v>
       </c>
+      <c r="C743" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
@@ -8825,6 +8780,9 @@
       <c r="B745">
         <v>2001</v>
       </c>
+      <c r="C745" s="1">
+        <v>0.66669999999999996</v>
+      </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
@@ -8841,6 +8799,9 @@
       <c r="B747">
         <v>2003</v>
       </c>
+      <c r="C747" s="1">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
@@ -8858,7 +8819,7 @@
         <v>2005</v>
       </c>
       <c r="C749" s="1">
-        <v>1</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
@@ -8868,6 +8829,9 @@
       <c r="B750">
         <v>2006</v>
       </c>
+      <c r="C750" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
@@ -8876,6 +8840,9 @@
       <c r="B751">
         <v>2007</v>
       </c>
+      <c r="C751" s="1">
+        <v>4.4166999999999996</v>
+      </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
@@ -8884,6 +8851,9 @@
       <c r="B752">
         <v>2008</v>
       </c>
+      <c r="C752" s="1">
+        <v>4.25</v>
+      </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
@@ -8892,6 +8862,9 @@
       <c r="B753">
         <v>2009</v>
       </c>
+      <c r="C753" s="1">
+        <v>3.0333000000000001</v>
+      </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
@@ -8900,6 +8873,9 @@
       <c r="B754">
         <v>2010</v>
       </c>
+      <c r="C754" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
@@ -8909,7 +8885,7 @@
         <v>2011</v>
       </c>
       <c r="C755" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
@@ -8919,6 +8895,9 @@
       <c r="B756">
         <v>2012</v>
       </c>
+      <c r="C756" s="1">
+        <v>12.642899999999999</v>
+      </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
@@ -8927,6 +8906,9 @@
       <c r="B757">
         <v>2013</v>
       </c>
+      <c r="C757" s="1">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
@@ -8935,6 +8917,9 @@
       <c r="B758">
         <v>2014</v>
       </c>
+      <c r="C758" s="1">
+        <v>4.3333000000000004</v>
+      </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
@@ -8944,7 +8929,7 @@
         <v>2015</v>
       </c>
       <c r="C759" s="1">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
@@ -8954,6 +8939,9 @@
       <c r="B760">
         <v>2016</v>
       </c>
+      <c r="C760" s="1">
+        <v>6.2916999999999996</v>
+      </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
@@ -8963,7 +8951,7 @@
         <v>2017</v>
       </c>
       <c r="C761" s="1">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
@@ -8973,9 +8961,6 @@
       <c r="B762">
         <v>1999</v>
       </c>
-      <c r="C762" s="1">
-        <v>0.25</v>
-      </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
@@ -8992,9 +8977,6 @@
       <c r="B764">
         <v>2001</v>
       </c>
-      <c r="C764" s="1">
-        <v>0.66669999999999996</v>
-      </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
@@ -9003,6 +8985,9 @@
       <c r="B765">
         <v>2002</v>
       </c>
+      <c r="C765" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
@@ -9011,9 +8996,6 @@
       <c r="B766">
         <v>2003</v>
       </c>
-      <c r="C766" s="1">
-        <v>1.8</v>
-      </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
@@ -9022,6 +9004,9 @@
       <c r="B767">
         <v>2004</v>
       </c>
+      <c r="C767" s="1">
+        <v>1.6667000000000001</v>
+      </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
@@ -9031,7 +9016,7 @@
         <v>2005</v>
       </c>
       <c r="C768" s="1">
-        <v>5.75</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
@@ -9041,9 +9026,6 @@
       <c r="B769">
         <v>2006</v>
       </c>
-      <c r="C769" s="1">
-        <v>7</v>
-      </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
@@ -9052,9 +9034,6 @@
       <c r="B770">
         <v>2007</v>
       </c>
-      <c r="C770" s="1">
-        <v>4.4166999999999996</v>
-      </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
@@ -9063,9 +9042,6 @@
       <c r="B771">
         <v>2008</v>
       </c>
-      <c r="C771" s="1">
-        <v>4.25</v>
-      </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
@@ -9075,7 +9051,7 @@
         <v>2009</v>
       </c>
       <c r="C772" s="1">
-        <v>3.0333000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
@@ -9085,9 +9061,6 @@
       <c r="B773">
         <v>2010</v>
       </c>
-      <c r="C773" s="1">
-        <v>6.5</v>
-      </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
@@ -9097,7 +9070,7 @@
         <v>2011</v>
       </c>
       <c r="C774" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
@@ -9108,7 +9081,7 @@
         <v>2012</v>
       </c>
       <c r="C775" s="1">
-        <v>12.642899999999999</v>
+        <v>2.1667000000000001</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
@@ -9119,7 +9092,7 @@
         <v>2013</v>
       </c>
       <c r="C776" s="1">
-        <v>1.5</v>
+        <v>2.6429</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
@@ -9130,7 +9103,7 @@
         <v>2014</v>
       </c>
       <c r="C777" s="1">
-        <v>4.3333000000000004</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
@@ -9141,7 +9114,7 @@
         <v>2015</v>
       </c>
       <c r="C778" s="1">
-        <v>4.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
@@ -9152,7 +9125,7 @@
         <v>2016</v>
       </c>
       <c r="C779" s="1">
-        <v>6.2916999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
@@ -9162,9 +9135,6 @@
       <c r="B780">
         <v>2017</v>
       </c>
-      <c r="C780" s="1">
-        <v>2.25</v>
-      </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
@@ -9181,6 +9151,9 @@
       <c r="B782">
         <v>2000</v>
       </c>
+      <c r="C782" s="1">
+        <v>2.1071</v>
+      </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
@@ -9189,6 +9162,9 @@
       <c r="B783">
         <v>2001</v>
       </c>
+      <c r="C783" s="1">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
@@ -9198,7 +9174,7 @@
         <v>2002</v>
       </c>
       <c r="C784" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
@@ -9208,6 +9184,9 @@
       <c r="B785">
         <v>2003</v>
       </c>
+      <c r="C785" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
@@ -9217,7 +9196,7 @@
         <v>2004</v>
       </c>
       <c r="C786" s="1">
-        <v>1.6667000000000001</v>
+        <v>4.2144000000000004</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
@@ -9228,7 +9207,7 @@
         <v>2005</v>
       </c>
       <c r="C787" s="1">
-        <v>0.66669999999999996</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
@@ -9246,6 +9225,9 @@
       <c r="B789">
         <v>2007</v>
       </c>
+      <c r="C789" s="1">
+        <v>2.1429</v>
+      </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
@@ -9254,6 +9236,9 @@
       <c r="B790">
         <v>2008</v>
       </c>
+      <c r="C790" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
@@ -9263,7 +9248,7 @@
         <v>2009</v>
       </c>
       <c r="C791" s="1">
-        <v>2</v>
+        <v>1.3332999999999999</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
@@ -9273,6 +9258,9 @@
       <c r="B792">
         <v>2010</v>
       </c>
+      <c r="C792" s="1">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
@@ -9282,7 +9270,7 @@
         <v>2011</v>
       </c>
       <c r="C793" s="1">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
@@ -9293,7 +9281,7 @@
         <v>2012</v>
       </c>
       <c r="C794" s="1">
-        <v>2.1667000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
@@ -9304,7 +9292,7 @@
         <v>2013</v>
       </c>
       <c r="C795" s="1">
-        <v>2.6429</v>
+        <v>3</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
@@ -9315,7 +9303,7 @@
         <v>2014</v>
       </c>
       <c r="C796" s="1">
-        <v>0.1429</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
@@ -9325,9 +9313,6 @@
       <c r="B797">
         <v>2015</v>
       </c>
-      <c r="C797" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
@@ -9337,7 +9322,7 @@
         <v>2016</v>
       </c>
       <c r="C798" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
@@ -9347,6 +9332,9 @@
       <c r="B799">
         <v>2017</v>
       </c>
+      <c r="C799" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
@@ -9363,9 +9351,6 @@
       <c r="B801">
         <v>2000</v>
       </c>
-      <c r="C801" s="1">
-        <v>2.1071</v>
-      </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
@@ -9374,9 +9359,6 @@
       <c r="B802">
         <v>2001</v>
       </c>
-      <c r="C802" s="1">
-        <v>1.75</v>
-      </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
@@ -9385,9 +9367,6 @@
       <c r="B803">
         <v>2002</v>
       </c>
-      <c r="C803" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
@@ -9396,9 +9375,6 @@
       <c r="B804">
         <v>2003</v>
       </c>
-      <c r="C804" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
@@ -9407,9 +9383,6 @@
       <c r="B805">
         <v>2004</v>
       </c>
-      <c r="C805" s="1">
-        <v>4.2144000000000004</v>
-      </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
@@ -9418,9 +9391,6 @@
       <c r="B806">
         <v>2005</v>
       </c>
-      <c r="C806" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
@@ -9437,9 +9407,6 @@
       <c r="B808">
         <v>2007</v>
       </c>
-      <c r="C808" s="1">
-        <v>2.1429</v>
-      </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
@@ -9449,7 +9416,7 @@
         <v>2008</v>
       </c>
       <c r="C809" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
@@ -9460,7 +9427,7 @@
         <v>2009</v>
       </c>
       <c r="C810" s="1">
-        <v>1.3332999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
@@ -9470,9 +9437,6 @@
       <c r="B811">
         <v>2010</v>
       </c>
-      <c r="C811" s="1">
-        <v>3.5</v>
-      </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
@@ -9481,9 +9445,6 @@
       <c r="B812">
         <v>2011</v>
       </c>
-      <c r="C812" s="1">
-        <v>2.7</v>
-      </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
@@ -9492,9 +9453,6 @@
       <c r="B813">
         <v>2012</v>
       </c>
-      <c r="C813" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
@@ -9503,9 +9461,6 @@
       <c r="B814">
         <v>2013</v>
       </c>
-      <c r="C814" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
@@ -9514,9 +9469,6 @@
       <c r="B815">
         <v>2014</v>
       </c>
-      <c r="C815" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
@@ -9533,9 +9485,6 @@
       <c r="B817">
         <v>2016</v>
       </c>
-      <c r="C817" s="1">
-        <v>1.25</v>
-      </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
@@ -9544,9 +9493,6 @@
       <c r="B818">
         <v>2017</v>
       </c>
-      <c r="C818" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
@@ -9579,6 +9525,9 @@
       <c r="B822">
         <v>2002</v>
       </c>
+      <c r="C822" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
@@ -9587,6 +9536,9 @@
       <c r="B823">
         <v>2003</v>
       </c>
+      <c r="C823" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
@@ -9603,6 +9555,9 @@
       <c r="B825">
         <v>2005</v>
       </c>
+      <c r="C825" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
@@ -9611,6 +9566,9 @@
       <c r="B826">
         <v>2006</v>
       </c>
+      <c r="C826" s="1">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
@@ -9619,6 +9577,9 @@
       <c r="B827">
         <v>2007</v>
       </c>
+      <c r="C827" s="1">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
@@ -9649,6 +9610,9 @@
       <c r="B830">
         <v>2010</v>
       </c>
+      <c r="C830" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
@@ -9657,6 +9621,9 @@
       <c r="B831">
         <v>2011</v>
       </c>
+      <c r="C831" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
@@ -9665,6 +9632,9 @@
       <c r="B832">
         <v>2012</v>
       </c>
+      <c r="C832" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
@@ -9673,6 +9643,9 @@
       <c r="B833">
         <v>2013</v>
       </c>
+      <c r="C833" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
@@ -9681,6 +9654,9 @@
       <c r="B834">
         <v>2014</v>
       </c>
+      <c r="C834" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
@@ -9697,6 +9673,9 @@
       <c r="B836">
         <v>2016</v>
       </c>
+      <c r="C836" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
@@ -9713,6 +9692,9 @@
       <c r="B838">
         <v>1999</v>
       </c>
+      <c r="C838" s="1">
+        <v>13.75</v>
+      </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
@@ -9721,6 +9703,9 @@
       <c r="B839">
         <v>2000</v>
       </c>
+      <c r="C839" s="1">
+        <v>11.333299999999999</v>
+      </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
@@ -9729,6 +9714,9 @@
       <c r="B840">
         <v>2001</v>
       </c>
+      <c r="C840" s="1">
+        <v>12.3833</v>
+      </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
@@ -9738,7 +9726,7 @@
         <v>2002</v>
       </c>
       <c r="C841" s="1">
-        <v>1</v>
+        <v>9.6667000000000005</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
@@ -9749,7 +9737,7 @@
         <v>2003</v>
       </c>
       <c r="C842" s="1">
-        <v>1</v>
+        <v>24.557099999999998</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
@@ -9759,6 +9747,9 @@
       <c r="B843">
         <v>2004</v>
       </c>
+      <c r="C843" s="1">
+        <v>26.5</v>
+      </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
@@ -9768,7 +9759,7 @@
         <v>2005</v>
       </c>
       <c r="C844" s="1">
-        <v>1</v>
+        <v>30.4405</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
@@ -9779,7 +9770,7 @@
         <v>2006</v>
       </c>
       <c r="C845" s="1">
-        <v>3.5</v>
+        <v>59.988100000000003</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
@@ -9790,7 +9781,7 @@
         <v>2007</v>
       </c>
       <c r="C846" s="1">
-        <v>0.75</v>
+        <v>71.650000000000006</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
@@ -9801,7 +9792,7 @@
         <v>2008</v>
       </c>
       <c r="C847" s="1">
-        <v>1</v>
+        <v>62.210700000000003</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
@@ -9812,7 +9803,7 @@
         <v>2009</v>
       </c>
       <c r="C848" s="1">
-        <v>1</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
@@ -9823,7 +9814,7 @@
         <v>2010</v>
       </c>
       <c r="C849" s="1">
-        <v>1</v>
+        <v>79.466700000000003</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
@@ -9834,7 +9825,7 @@
         <v>2011</v>
       </c>
       <c r="C850" s="1">
-        <v>2</v>
+        <v>72.849999999999994</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
@@ -9845,7 +9836,7 @@
         <v>2012</v>
       </c>
       <c r="C851" s="1">
-        <v>3</v>
+        <v>80.238100000000003</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
@@ -9856,7 +9847,7 @@
         <v>2013</v>
       </c>
       <c r="C852" s="1">
-        <v>3</v>
+        <v>77.833299999999994</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
@@ -9867,7 +9858,7 @@
         <v>2014</v>
       </c>
       <c r="C853" s="1">
-        <v>1</v>
+        <v>75.341700000000003</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
@@ -9877,6 +9868,9 @@
       <c r="B854">
         <v>2015</v>
       </c>
+      <c r="C854" s="1">
+        <v>79.878600000000006</v>
+      </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
@@ -9886,7 +9880,7 @@
         <v>2016</v>
       </c>
       <c r="C855" s="1">
-        <v>0.5</v>
+        <v>82.825000000000003</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
@@ -9896,6 +9890,9 @@
       <c r="B856">
         <v>2017</v>
       </c>
+      <c r="C856" s="1">
+        <v>62.658299999999997</v>
+      </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
@@ -9905,7 +9902,7 @@
         <v>1999</v>
       </c>
       <c r="C857" s="1">
-        <v>13.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
@@ -9916,7 +9913,7 @@
         <v>2000</v>
       </c>
       <c r="C858" s="1">
-        <v>11.333299999999999</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
@@ -9927,7 +9924,7 @@
         <v>2001</v>
       </c>
       <c r="C859" s="1">
-        <v>12.3833</v>
+        <v>2.1111</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
@@ -9938,7 +9935,7 @@
         <v>2002</v>
       </c>
       <c r="C860" s="1">
-        <v>9.6667000000000005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
@@ -9949,7 +9946,7 @@
         <v>2003</v>
       </c>
       <c r="C861" s="1">
-        <v>24.557099999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
@@ -9960,7 +9957,7 @@
         <v>2004</v>
       </c>
       <c r="C862" s="1">
-        <v>26.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
@@ -9971,7 +9968,7 @@
         <v>2005</v>
       </c>
       <c r="C863" s="1">
-        <v>30.4405</v>
+        <v>5</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
@@ -9982,7 +9979,7 @@
         <v>2006</v>
       </c>
       <c r="C864" s="1">
-        <v>59.988100000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
@@ -9993,7 +9990,7 @@
         <v>2007</v>
       </c>
       <c r="C865" s="1">
-        <v>71.650000000000006</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
@@ -10004,7 +10001,7 @@
         <v>2008</v>
       </c>
       <c r="C866" s="1">
-        <v>62.210700000000003</v>
+        <v>9.6667000000000005</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
@@ -10015,7 +10012,7 @@
         <v>2009</v>
       </c>
       <c r="C867" s="1">
-        <v>52.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
@@ -10026,7 +10023,7 @@
         <v>2010</v>
       </c>
       <c r="C868" s="1">
-        <v>79.466700000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
@@ -10037,7 +10034,7 @@
         <v>2011</v>
       </c>
       <c r="C869" s="1">
-        <v>72.849999999999994</v>
+        <v>9.3833000000000002</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
@@ -10048,7 +10045,7 @@
         <v>2012</v>
       </c>
       <c r="C870" s="1">
-        <v>80.238100000000003</v>
+        <v>4.0833000000000004</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
@@ -10059,7 +10056,7 @@
         <v>2013</v>
       </c>
       <c r="C871" s="1">
-        <v>77.833299999999994</v>
+        <v>8.9332999999999991</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
@@ -10070,7 +10067,7 @@
         <v>2014</v>
       </c>
       <c r="C872" s="1">
-        <v>75.341700000000003</v>
+        <v>11.775</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
@@ -10081,7 +10078,7 @@
         <v>2015</v>
       </c>
       <c r="C873" s="1">
-        <v>79.878600000000006</v>
+        <v>15.1333</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
@@ -10092,7 +10089,7 @@
         <v>2016</v>
       </c>
       <c r="C874" s="1">
-        <v>82.825000000000003</v>
+        <v>6.9166999999999996</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
@@ -10103,7 +10100,7 @@
         <v>2017</v>
       </c>
       <c r="C875" s="1">
-        <v>62.658299999999997</v>
+        <v>5</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
@@ -10113,9 +10110,6 @@
       <c r="B876">
         <v>1999</v>
       </c>
-      <c r="C876" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
@@ -10124,9 +10118,6 @@
       <c r="B877">
         <v>2000</v>
       </c>
-      <c r="C877" s="1">
-        <v>2.75</v>
-      </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
@@ -10135,9 +10126,6 @@
       <c r="B878">
         <v>2001</v>
       </c>
-      <c r="C878" s="1">
-        <v>2.1111</v>
-      </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
@@ -10146,9 +10134,6 @@
       <c r="B879">
         <v>2002</v>
       </c>
-      <c r="C879" s="1">
-        <v>6</v>
-      </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
@@ -10158,7 +10143,7 @@
         <v>2003</v>
       </c>
       <c r="C880" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
@@ -10168,9 +10153,6 @@
       <c r="B881">
         <v>2004</v>
       </c>
-      <c r="C881" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
@@ -10180,7 +10162,7 @@
         <v>2005</v>
       </c>
       <c r="C882" s="1">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
@@ -10190,9 +10172,6 @@
       <c r="B883">
         <v>2006</v>
       </c>
-      <c r="C883" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
@@ -10201,9 +10180,6 @@
       <c r="B884">
         <v>2007</v>
       </c>
-      <c r="C884" s="1">
-        <v>4.7</v>
-      </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
@@ -10212,9 +10188,6 @@
       <c r="B885">
         <v>2008</v>
       </c>
-      <c r="C885" s="1">
-        <v>9.6667000000000005</v>
-      </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
@@ -10223,9 +10196,6 @@
       <c r="B886">
         <v>2009</v>
       </c>
-      <c r="C886" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
@@ -10234,9 +10204,6 @@
       <c r="B887">
         <v>2010</v>
       </c>
-      <c r="C887" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
@@ -10246,7 +10213,7 @@
         <v>2011</v>
       </c>
       <c r="C888" s="1">
-        <v>9.3833000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
@@ -10257,7 +10224,7 @@
         <v>2012</v>
       </c>
       <c r="C889" s="1">
-        <v>4.0833000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
@@ -10267,9 +10234,6 @@
       <c r="B890">
         <v>2013</v>
       </c>
-      <c r="C890" s="1">
-        <v>8.9332999999999991</v>
-      </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
@@ -10278,9 +10242,6 @@
       <c r="B891">
         <v>2014</v>
       </c>
-      <c r="C891" s="1">
-        <v>11.775</v>
-      </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
@@ -10289,9 +10250,6 @@
       <c r="B892">
         <v>2015</v>
       </c>
-      <c r="C892" s="1">
-        <v>15.1333</v>
-      </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
@@ -10300,9 +10258,6 @@
       <c r="B893">
         <v>2016</v>
       </c>
-      <c r="C893" s="1">
-        <v>6.9166999999999996</v>
-      </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
@@ -10311,9 +10266,6 @@
       <c r="B894">
         <v>2017</v>
       </c>
-      <c r="C894" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
@@ -10322,6 +10274,9 @@
       <c r="B895">
         <v>1999</v>
       </c>
+      <c r="C895" s="1">
+        <v>28.071400000000001</v>
+      </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
@@ -10330,6 +10285,9 @@
       <c r="B896">
         <v>2000</v>
       </c>
+      <c r="C896" s="1">
+        <v>38.0518</v>
+      </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
@@ -10338,6 +10296,9 @@
       <c r="B897">
         <v>2001</v>
       </c>
+      <c r="C897" s="1">
+        <v>55.952399999999997</v>
+      </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
@@ -10346,6 +10307,9 @@
       <c r="B898">
         <v>2002</v>
       </c>
+      <c r="C898" s="1">
+        <v>57.4</v>
+      </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
@@ -10355,7 +10319,7 @@
         <v>2003</v>
       </c>
       <c r="C899" s="1">
-        <v>1</v>
+        <v>66.267899999999997</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.2">
@@ -10365,6 +10329,9 @@
       <c r="B900">
         <v>2004</v>
       </c>
+      <c r="C900" s="1">
+        <v>108.85290000000001</v>
+      </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
@@ -10374,7 +10341,7 @@
         <v>2005</v>
       </c>
       <c r="C901" s="1">
-        <v>0.5</v>
+        <v>177.8229</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.2">
@@ -10384,6 +10351,9 @@
       <c r="B902">
         <v>2006</v>
       </c>
+      <c r="C902" s="1">
+        <v>259.44290000000001</v>
+      </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
@@ -10392,6 +10362,9 @@
       <c r="B903">
         <v>2007</v>
       </c>
+      <c r="C903" s="1">
+        <v>350.44439999999997</v>
+      </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
@@ -10400,6 +10373,9 @@
       <c r="B904">
         <v>2008</v>
       </c>
+      <c r="C904" s="1">
+        <v>372.74400000000003</v>
+      </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
@@ -10408,6 +10384,9 @@
       <c r="B905">
         <v>2009</v>
       </c>
+      <c r="C905" s="1">
+        <v>521.60630000000003</v>
+      </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
@@ -10416,6 +10395,9 @@
       <c r="B906">
         <v>2010</v>
       </c>
+      <c r="C906" s="1">
+        <v>948.6857</v>
+      </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
@@ -10425,7 +10407,7 @@
         <v>2011</v>
       </c>
       <c r="C907" s="1">
-        <v>2</v>
+        <v>1031.518</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
@@ -10436,7 +10418,7 @@
         <v>2012</v>
       </c>
       <c r="C908" s="1">
-        <v>1</v>
+        <v>1073.4919</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
@@ -10446,6 +10428,9 @@
       <c r="B909">
         <v>2013</v>
       </c>
+      <c r="C909" s="1">
+        <v>1220.1079</v>
+      </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
@@ -10454,6 +10439,9 @@
       <c r="B910">
         <v>2014</v>
       </c>
+      <c r="C910" s="1">
+        <v>1233.8492000000001</v>
+      </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
@@ -10462,6 +10450,9 @@
       <c r="B911">
         <v>2015</v>
       </c>
+      <c r="C911" s="1">
+        <v>1359.3041000000001</v>
+      </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
@@ -10470,6 +10461,9 @@
       <c r="B912">
         <v>2016</v>
       </c>
+      <c r="C912" s="1">
+        <v>1958.49</v>
+      </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
@@ -10478,6 +10472,9 @@
       <c r="B913">
         <v>2017</v>
       </c>
+      <c r="C913" s="1">
+        <v>1697.4572000000001</v>
+      </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
@@ -10487,7 +10484,7 @@
         <v>1999</v>
       </c>
       <c r="C914" s="1">
-        <v>28.071400000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.2">
@@ -10497,9 +10494,6 @@
       <c r="B915">
         <v>2000</v>
       </c>
-      <c r="C915" s="1">
-        <v>38.0518</v>
-      </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
@@ -10508,9 +10502,6 @@
       <c r="B916">
         <v>2001</v>
       </c>
-      <c r="C916" s="1">
-        <v>55.952399999999997</v>
-      </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
@@ -10519,9 +10510,6 @@
       <c r="B917">
         <v>2002</v>
       </c>
-      <c r="C917" s="1">
-        <v>57.4</v>
-      </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
@@ -10531,7 +10519,7 @@
         <v>2003</v>
       </c>
       <c r="C918" s="1">
-        <v>66.267899999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
@@ -10542,7 +10530,7 @@
         <v>2004</v>
       </c>
       <c r="C919" s="1">
-        <v>108.85290000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
@@ -10553,7 +10541,7 @@
         <v>2005</v>
       </c>
       <c r="C920" s="1">
-        <v>177.8229</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
@@ -10563,9 +10551,6 @@
       <c r="B921">
         <v>2006</v>
       </c>
-      <c r="C921" s="1">
-        <v>259.44290000000001</v>
-      </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
@@ -10575,7 +10560,7 @@
         <v>2007</v>
       </c>
       <c r="C922" s="1">
-        <v>350.44439999999997</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.2">
@@ -10586,7 +10571,7 @@
         <v>2008</v>
       </c>
       <c r="C923" s="1">
-        <v>372.74400000000003</v>
+        <v>2.1667000000000001</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.2">
@@ -10597,7 +10582,7 @@
         <v>2009</v>
       </c>
       <c r="C924" s="1">
-        <v>521.60630000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.2">
@@ -10608,7 +10593,7 @@
         <v>2010</v>
       </c>
       <c r="C925" s="1">
-        <v>948.6857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.2">
@@ -10618,9 +10603,6 @@
       <c r="B926">
         <v>2011</v>
       </c>
-      <c r="C926" s="1">
-        <v>1031.518</v>
-      </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
@@ -10630,7 +10612,7 @@
         <v>2012</v>
       </c>
       <c r="C927" s="1">
-        <v>1073.4919</v>
+        <v>5.8799999999999998E-2</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.2">
@@ -10641,7 +10623,7 @@
         <v>2013</v>
       </c>
       <c r="C928" s="1">
-        <v>1220.1079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.2">
@@ -10652,7 +10634,7 @@
         <v>2014</v>
       </c>
       <c r="C929" s="1">
-        <v>1233.8492000000001</v>
+        <v>1.3332999999999999</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
@@ -10662,9 +10644,6 @@
       <c r="B930">
         <v>2015</v>
       </c>
-      <c r="C930" s="1">
-        <v>1359.3041000000001</v>
-      </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
@@ -10674,7 +10653,7 @@
         <v>2016</v>
       </c>
       <c r="C931" s="1">
-        <v>1958.49</v>
+        <v>1.3332999999999999</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
@@ -10685,7 +10664,7 @@
         <v>2017</v>
       </c>
       <c r="C932" s="1">
-        <v>1697.4572000000001</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
@@ -10696,7 +10675,7 @@
         <v>1999</v>
       </c>
       <c r="C933" s="1">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
@@ -10706,6 +10685,9 @@
       <c r="B934">
         <v>2000</v>
       </c>
+      <c r="C934" s="1">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
@@ -10714,6 +10696,9 @@
       <c r="B935">
         <v>2001</v>
       </c>
+      <c r="C935" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
@@ -10722,6 +10707,9 @@
       <c r="B936">
         <v>2002</v>
       </c>
+      <c r="C936" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
@@ -10731,7 +10719,7 @@
         <v>2003</v>
       </c>
       <c r="C937" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
@@ -10753,7 +10741,7 @@
         <v>2005</v>
       </c>
       <c r="C939" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
@@ -10763,6 +10751,9 @@
       <c r="B940">
         <v>2006</v>
       </c>
+      <c r="C940" s="1">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
@@ -10772,7 +10763,7 @@
         <v>2007</v>
       </c>
       <c r="C941" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.2">
@@ -10783,7 +10774,7 @@
         <v>2008</v>
       </c>
       <c r="C942" s="1">
-        <v>2.1667000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.2">
@@ -10794,7 +10785,7 @@
         <v>2009</v>
       </c>
       <c r="C943" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.2">
@@ -10805,7 +10796,7 @@
         <v>2010</v>
       </c>
       <c r="C944" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.2">
@@ -10815,6 +10806,9 @@
       <c r="B945">
         <v>2011</v>
       </c>
+      <c r="C945" s="1">
+        <v>8.75</v>
+      </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
@@ -10824,7 +10818,7 @@
         <v>2012</v>
       </c>
       <c r="C946" s="1">
-        <v>5.8799999999999998E-2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
@@ -10835,7 +10829,7 @@
         <v>2013</v>
       </c>
       <c r="C947" s="1">
-        <v>1</v>
+        <v>4.2019000000000002</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
@@ -10846,7 +10840,7 @@
         <v>2014</v>
       </c>
       <c r="C948" s="1">
-        <v>1.3332999999999999</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
@@ -10856,6 +10850,9 @@
       <c r="B949">
         <v>2015</v>
       </c>
+      <c r="C949" s="1">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
@@ -10865,7 +10862,7 @@
         <v>2016</v>
       </c>
       <c r="C950" s="1">
-        <v>1.3332999999999999</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.2">
@@ -10876,7 +10873,7 @@
         <v>2017</v>
       </c>
       <c r="C951" s="1">
-        <v>4.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
@@ -10886,9 +10883,6 @@
       <c r="B952">
         <v>1999</v>
       </c>
-      <c r="C952" s="1">
-        <v>4.5</v>
-      </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
@@ -10897,9 +10891,6 @@
       <c r="B953">
         <v>2000</v>
       </c>
-      <c r="C953" s="1">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
@@ -10908,9 +10899,6 @@
       <c r="B954">
         <v>2001</v>
       </c>
-      <c r="C954" s="1">
-        <v>7</v>
-      </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
@@ -10919,9 +10907,6 @@
       <c r="B955">
         <v>2002</v>
       </c>
-      <c r="C955" s="1">
-        <v>8</v>
-      </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
@@ -10931,7 +10916,7 @@
         <v>2003</v>
       </c>
       <c r="C956" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.2">
@@ -10941,9 +10926,6 @@
       <c r="B957">
         <v>2004</v>
       </c>
-      <c r="C957" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
@@ -10953,7 +10935,7 @@
         <v>2005</v>
       </c>
       <c r="C958" s="1">
-        <v>3</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.2">
@@ -10964,7 +10946,7 @@
         <v>2006</v>
       </c>
       <c r="C959" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.2">
@@ -10974,9 +10956,6 @@
       <c r="B960">
         <v>2007</v>
       </c>
-      <c r="C960" s="1">
-        <v>6</v>
-      </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
@@ -10985,9 +10964,6 @@
       <c r="B961">
         <v>2008</v>
       </c>
-      <c r="C961" s="1">
-        <v>6</v>
-      </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
@@ -10996,9 +10972,6 @@
       <c r="B962">
         <v>2009</v>
       </c>
-      <c r="C962" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
@@ -11007,9 +10980,6 @@
       <c r="B963">
         <v>2010</v>
       </c>
-      <c r="C963" s="1">
-        <v>8</v>
-      </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
@@ -11018,9 +10988,6 @@
       <c r="B964">
         <v>2011</v>
       </c>
-      <c r="C964" s="1">
-        <v>8.75</v>
-      </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
@@ -11030,7 +10997,7 @@
         <v>2012</v>
       </c>
       <c r="C965" s="1">
-        <v>7</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
@@ -11040,9 +11007,6 @@
       <c r="B966">
         <v>2013</v>
       </c>
-      <c r="C966" s="1">
-        <v>4.2019000000000002</v>
-      </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
@@ -11051,9 +11015,6 @@
       <c r="B967">
         <v>2014</v>
       </c>
-      <c r="C967" s="1">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
@@ -11062,9 +11023,6 @@
       <c r="B968">
         <v>2015</v>
       </c>
-      <c r="C968" s="1">
-        <v>3.5</v>
-      </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
@@ -11073,9 +11031,6 @@
       <c r="B969">
         <v>2016</v>
       </c>
-      <c r="C969" s="1">
-        <v>5.5</v>
-      </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
@@ -11085,7 +11040,7 @@
         <v>2017</v>
       </c>
       <c r="C970" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
@@ -11103,6 +11058,9 @@
       <c r="B972">
         <v>2000</v>
       </c>
+      <c r="C972" s="1">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
@@ -11111,6 +11069,9 @@
       <c r="B973">
         <v>2001</v>
       </c>
+      <c r="C973" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
@@ -11119,6 +11080,9 @@
       <c r="B974">
         <v>2002</v>
       </c>
+      <c r="C974" s="1">
+        <v>0.91669999999999996</v>
+      </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
@@ -11128,7 +11092,7 @@
         <v>2003</v>
       </c>
       <c r="C975" s="1">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.2">
@@ -11147,7 +11111,7 @@
         <v>2005</v>
       </c>
       <c r="C977" s="1">
-        <v>0.33329999999999999</v>
+        <v>3.3332999999999999</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
@@ -11158,7 +11122,7 @@
         <v>2006</v>
       </c>
       <c r="C978" s="1">
-        <v>3</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.2">
@@ -11168,6 +11132,9 @@
       <c r="B979">
         <v>2007</v>
       </c>
+      <c r="C979" s="1">
+        <v>2.4500000000000002</v>
+      </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
@@ -11176,6 +11143,9 @@
       <c r="B980">
         <v>2008</v>
       </c>
+      <c r="C980" s="1">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
@@ -11184,6 +11154,9 @@
       <c r="B981">
         <v>2009</v>
       </c>
+      <c r="C981" s="1">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
@@ -11192,6 +11165,9 @@
       <c r="B982">
         <v>2010</v>
       </c>
+      <c r="C982" s="1">
+        <v>0.66669999999999996</v>
+      </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
@@ -11208,9 +11184,6 @@
       <c r="B984">
         <v>2012</v>
       </c>
-      <c r="C984" s="1">
-        <v>8.3299999999999999E-2</v>
-      </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
@@ -11227,6 +11200,9 @@
       <c r="B986">
         <v>2014</v>
       </c>
+      <c r="C986" s="1">
+        <v>1.1111</v>
+      </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
@@ -11235,6 +11211,9 @@
       <c r="B987">
         <v>2015</v>
       </c>
+      <c r="C987" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
@@ -11252,7 +11231,7 @@
         <v>2017</v>
       </c>
       <c r="C989" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
@@ -11270,9 +11249,6 @@
       <c r="B991">
         <v>2000</v>
       </c>
-      <c r="C991" s="1">
-        <v>1.2</v>
-      </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
@@ -11281,9 +11257,6 @@
       <c r="B992">
         <v>2001</v>
       </c>
-      <c r="C992" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
@@ -11292,9 +11265,6 @@
       <c r="B993">
         <v>2002</v>
       </c>
-      <c r="C993" s="1">
-        <v>0.91669999999999996</v>
-      </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
@@ -11303,9 +11273,6 @@
       <c r="B994">
         <v>2003</v>
       </c>
-      <c r="C994" s="1">
-        <v>0.33329999999999999</v>
-      </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
@@ -11322,9 +11289,6 @@
       <c r="B996">
         <v>2005</v>
       </c>
-      <c r="C996" s="1">
-        <v>3.3332999999999999</v>
-      </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
@@ -11333,9 +11297,6 @@
       <c r="B997">
         <v>2006</v>
       </c>
-      <c r="C997" s="1">
-        <v>0.33329999999999999</v>
-      </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
@@ -11344,9 +11305,6 @@
       <c r="B998">
         <v>2007</v>
       </c>
-      <c r="C998" s="1">
-        <v>2.4500000000000002</v>
-      </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
@@ -11355,9 +11313,6 @@
       <c r="B999">
         <v>2008</v>
       </c>
-      <c r="C999" s="1">
-        <v>3.5</v>
-      </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
@@ -11366,9 +11321,6 @@
       <c r="B1000">
         <v>2009</v>
       </c>
-      <c r="C1000" s="1">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
@@ -11377,9 +11329,6 @@
       <c r="B1001">
         <v>2010</v>
       </c>
-      <c r="C1001" s="1">
-        <v>0.66669999999999996</v>
-      </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
@@ -11388,6 +11337,9 @@
       <c r="B1002">
         <v>2011</v>
       </c>
+      <c r="C1002" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
@@ -11412,9 +11364,6 @@
       <c r="B1005">
         <v>2014</v>
       </c>
-      <c r="C1005" s="1">
-        <v>1.1111</v>
-      </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
@@ -11423,9 +11372,6 @@
       <c r="B1006">
         <v>2015</v>
       </c>
-      <c r="C1006" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
@@ -11442,9 +11388,6 @@
       <c r="B1008">
         <v>2017</v>
       </c>
-      <c r="C1008" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
@@ -11453,6 +11396,9 @@
       <c r="B1009">
         <v>1999</v>
       </c>
+      <c r="C1009" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
@@ -11493,6 +11439,9 @@
       <c r="B1014">
         <v>2004</v>
       </c>
+      <c r="C1014" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
@@ -11509,6 +11458,9 @@
       <c r="B1016">
         <v>2006</v>
       </c>
+      <c r="C1016" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
@@ -11517,6 +11469,9 @@
       <c r="B1017">
         <v>2007</v>
       </c>
+      <c r="C1017" s="1">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
@@ -11541,6 +11496,9 @@
       <c r="B1020">
         <v>2010</v>
       </c>
+      <c r="C1020" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
@@ -11550,7 +11508,7 @@
         <v>2011</v>
       </c>
       <c r="C1021" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
@@ -11560,6 +11518,9 @@
       <c r="B1022">
         <v>2012</v>
       </c>
+      <c r="C1022" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
@@ -11568,6 +11529,9 @@
       <c r="B1023">
         <v>2013</v>
       </c>
+      <c r="C1023" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
@@ -11576,6 +11540,9 @@
       <c r="B1024">
         <v>2014</v>
       </c>
+      <c r="C1024" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
@@ -11584,6 +11551,9 @@
       <c r="B1025">
         <v>2015</v>
       </c>
+      <c r="C1025" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
@@ -11592,6 +11562,9 @@
       <c r="B1026">
         <v>2016</v>
       </c>
+      <c r="C1026" s="1">
+        <v>1.3332999999999999</v>
+      </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
@@ -11600,6 +11573,9 @@
       <c r="B1027">
         <v>2017</v>
       </c>
+      <c r="C1027" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
@@ -11619,6 +11595,9 @@
       <c r="B1029">
         <v>2000</v>
       </c>
+      <c r="C1029" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
@@ -11643,6 +11622,9 @@
       <c r="B1032">
         <v>2003</v>
       </c>
+      <c r="C1032" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
@@ -11652,7 +11634,7 @@
         <v>2004</v>
       </c>
       <c r="C1033" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
@@ -11662,6 +11644,9 @@
       <c r="B1034">
         <v>2005</v>
       </c>
+      <c r="C1034" s="1">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
@@ -11671,7 +11656,7 @@
         <v>2006</v>
       </c>
       <c r="C1035" s="1">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
@@ -11682,7 +11667,7 @@
         <v>2007</v>
       </c>
       <c r="C1036" s="1">
-        <v>2.2000000000000002</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
@@ -11692,6 +11677,9 @@
       <c r="B1037">
         <v>2008</v>
       </c>
+      <c r="C1037" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
@@ -11700,6 +11688,9 @@
       <c r="B1038">
         <v>2009</v>
       </c>
+      <c r="C1038" s="1">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
@@ -11709,7 +11700,7 @@
         <v>2010</v>
       </c>
       <c r="C1039" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
@@ -11720,7 +11711,7 @@
         <v>2011</v>
       </c>
       <c r="C1040" s="1">
-        <v>0.5</v>
+        <v>4.8333000000000004</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
@@ -11731,7 +11722,7 @@
         <v>2012</v>
       </c>
       <c r="C1041" s="1">
-        <v>2</v>
+        <v>9.3332999999999995</v>
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
@@ -11742,7 +11733,7 @@
         <v>2013</v>
       </c>
       <c r="C1042" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
@@ -11753,7 +11744,7 @@
         <v>2014</v>
       </c>
       <c r="C1043" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
@@ -11764,7 +11755,7 @@
         <v>2015</v>
       </c>
       <c r="C1044" s="1">
-        <v>2</v>
+        <v>9.4524000000000008</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
@@ -11775,7 +11766,7 @@
         <v>2016</v>
       </c>
       <c r="C1045" s="1">
-        <v>1.3332999999999999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
@@ -11785,9 +11776,6 @@
       <c r="B1046">
         <v>2017</v>
       </c>
-      <c r="C1046" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
@@ -11796,9 +11784,6 @@
       <c r="B1047">
         <v>1999</v>
       </c>
-      <c r="C1047" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
@@ -11807,9 +11792,6 @@
       <c r="B1048">
         <v>2000</v>
       </c>
-      <c r="C1048" s="1">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
@@ -11834,9 +11816,6 @@
       <c r="B1051">
         <v>2003</v>
       </c>
-      <c r="C1051" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
@@ -11845,9 +11824,6 @@
       <c r="B1052">
         <v>2004</v>
       </c>
-      <c r="C1052" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
@@ -11856,9 +11832,6 @@
       <c r="B1053">
         <v>2005</v>
       </c>
-      <c r="C1053" s="1">
-        <v>3.25</v>
-      </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
@@ -11867,9 +11840,6 @@
       <c r="B1054">
         <v>2006</v>
       </c>
-      <c r="C1054" s="1">
-        <v>4.5</v>
-      </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
@@ -11878,9 +11848,6 @@
       <c r="B1055">
         <v>2007</v>
       </c>
-      <c r="C1055" s="1">
-        <v>7</v>
-      </c>
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
@@ -11890,7 +11857,7 @@
         <v>2008</v>
       </c>
       <c r="C1056" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
@@ -11900,9 +11867,6 @@
       <c r="B1057">
         <v>2009</v>
       </c>
-      <c r="C1057" s="1">
-        <v>5.5</v>
-      </c>
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
@@ -11911,9 +11875,6 @@
       <c r="B1058">
         <v>2010</v>
       </c>
-      <c r="C1058" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
@@ -11922,9 +11883,6 @@
       <c r="B1059">
         <v>2011</v>
       </c>
-      <c r="C1059" s="1">
-        <v>4.8333000000000004</v>
-      </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
@@ -11933,9 +11891,6 @@
       <c r="B1060">
         <v>2012</v>
       </c>
-      <c r="C1060" s="1">
-        <v>9.3332999999999995</v>
-      </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
@@ -11945,7 +11900,7 @@
         <v>2013</v>
       </c>
       <c r="C1061" s="1">
-        <v>10</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
@@ -11955,9 +11910,6 @@
       <c r="B1062">
         <v>2014</v>
       </c>
-      <c r="C1062" s="1">
-        <v>12</v>
-      </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
@@ -11967,7 +11919,7 @@
         <v>2015</v>
       </c>
       <c r="C1063" s="1">
-        <v>9.4524000000000008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
@@ -11977,9 +11929,6 @@
       <c r="B1064">
         <v>2016</v>
       </c>
-      <c r="C1064" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
@@ -11996,6 +11945,9 @@
       <c r="B1066">
         <v>1999</v>
       </c>
+      <c r="C1066" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
@@ -12012,6 +11964,9 @@
       <c r="B1068">
         <v>2001</v>
       </c>
+      <c r="C1068" s="1">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
@@ -12020,6 +11975,9 @@
       <c r="B1069">
         <v>2002</v>
       </c>
+      <c r="C1069" s="1">
+        <v>1.3332999999999999</v>
+      </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
@@ -12036,6 +11994,9 @@
       <c r="B1071">
         <v>2004</v>
       </c>
+      <c r="C1071" s="1">
+        <v>0.1429</v>
+      </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
@@ -12044,6 +12005,9 @@
       <c r="B1072">
         <v>2005</v>
       </c>
+      <c r="C1072" s="1">
+        <v>0.66669999999999996</v>
+      </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
@@ -12052,6 +12016,9 @@
       <c r="B1073">
         <v>2006</v>
       </c>
+      <c r="C1073" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
@@ -12060,6 +12027,9 @@
       <c r="B1074">
         <v>2007</v>
       </c>
+      <c r="C1074" s="1">
+        <v>1.3332999999999999</v>
+      </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
@@ -12079,6 +12049,9 @@
       <c r="B1076">
         <v>2009</v>
       </c>
+      <c r="C1076" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
@@ -12087,6 +12060,9 @@
       <c r="B1077">
         <v>2010</v>
       </c>
+      <c r="C1077" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
@@ -12095,6 +12071,9 @@
       <c r="B1078">
         <v>2011</v>
       </c>
+      <c r="C1078" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
@@ -12103,6 +12082,9 @@
       <c r="B1079">
         <v>2012</v>
       </c>
+      <c r="C1079" s="1">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
@@ -12111,9 +12093,6 @@
       <c r="B1080">
         <v>2013</v>
       </c>
-      <c r="C1080" s="1">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
@@ -12131,7 +12110,7 @@
         <v>2015</v>
       </c>
       <c r="C1082" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.2">
@@ -12141,6 +12120,9 @@
       <c r="B1083">
         <v>2016</v>
       </c>
+      <c r="C1083" s="1">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
@@ -12157,9 +12139,6 @@
       <c r="B1085">
         <v>1999</v>
       </c>
-      <c r="C1085" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
@@ -12177,7 +12156,7 @@
         <v>2001</v>
       </c>
       <c r="C1087" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.2">
@@ -12187,9 +12166,6 @@
       <c r="B1088">
         <v>2002</v>
       </c>
-      <c r="C1088" s="1">
-        <v>1.3332999999999999</v>
-      </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
@@ -12207,7 +12183,7 @@
         <v>2004</v>
       </c>
       <c r="C1090" s="1">
-        <v>0.1429</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
@@ -12217,9 +12193,6 @@
       <c r="B1091">
         <v>2005</v>
       </c>
-      <c r="C1091" s="1">
-        <v>0.66669999999999996</v>
-      </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
@@ -12228,9 +12201,6 @@
       <c r="B1092">
         <v>2006</v>
       </c>
-      <c r="C1092" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
@@ -12239,9 +12209,6 @@
       <c r="B1093">
         <v>2007</v>
       </c>
-      <c r="C1093" s="1">
-        <v>1.3332999999999999</v>
-      </c>
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
@@ -12250,9 +12217,6 @@
       <c r="B1094">
         <v>2008</v>
       </c>
-      <c r="C1094" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
@@ -12272,9 +12236,6 @@
       <c r="B1096">
         <v>2010</v>
       </c>
-      <c r="C1096" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
@@ -12284,7 +12245,7 @@
         <v>2011</v>
       </c>
       <c r="C1097" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.2">
@@ -12294,9 +12255,6 @@
       <c r="B1098">
         <v>2012</v>
       </c>
-      <c r="C1098" s="1">
-        <v>2.6</v>
-      </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
@@ -12321,9 +12279,6 @@
       <c r="B1101">
         <v>2015</v>
       </c>
-      <c r="C1101" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
@@ -12332,9 +12287,6 @@
       <c r="B1102">
         <v>2016</v>
       </c>
-      <c r="C1102" s="1">
-        <v>2.6</v>
-      </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
@@ -12351,6 +12303,9 @@
       <c r="B1104">
         <v>1999</v>
       </c>
+      <c r="C1104" s="1">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
@@ -12359,6 +12314,9 @@
       <c r="B1105">
         <v>2000</v>
       </c>
+      <c r="C1105" s="1">
+        <v>6.3333000000000004</v>
+      </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
@@ -12368,7 +12326,7 @@
         <v>2001</v>
       </c>
       <c r="C1106" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.2">
@@ -12378,6 +12336,9 @@
       <c r="B1107">
         <v>2002</v>
       </c>
+      <c r="C1107" s="1">
+        <v>11.666700000000001</v>
+      </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
@@ -12386,6 +12347,9 @@
       <c r="B1108">
         <v>2003</v>
       </c>
+      <c r="C1108" s="1">
+        <v>6.3333000000000004</v>
+      </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
@@ -12395,7 +12359,7 @@
         <v>2004</v>
       </c>
       <c r="C1109" s="1">
-        <v>0.25</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.2">
@@ -12405,6 +12369,9 @@
       <c r="B1110">
         <v>2005</v>
       </c>
+      <c r="C1110" s="1">
+        <v>19.026199999999999</v>
+      </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
@@ -12413,6 +12380,9 @@
       <c r="B1111">
         <v>2006</v>
       </c>
+      <c r="C1111" s="1">
+        <v>28.352399999999999</v>
+      </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
@@ -12421,6 +12391,9 @@
       <c r="B1112">
         <v>2007</v>
       </c>
+      <c r="C1112" s="1">
+        <v>22.1</v>
+      </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
@@ -12429,6 +12402,9 @@
       <c r="B1113">
         <v>2008</v>
       </c>
+      <c r="C1113" s="1">
+        <v>22.235700000000001</v>
+      </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
@@ -12438,7 +12414,7 @@
         <v>2009</v>
       </c>
       <c r="C1114" s="1">
-        <v>1</v>
+        <v>34.0167</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.2">
@@ -12448,6 +12424,9 @@
       <c r="B1115">
         <v>2010</v>
       </c>
+      <c r="C1115" s="1">
+        <v>34.492100000000001</v>
+      </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
@@ -12457,7 +12436,7 @@
         <v>2011</v>
       </c>
       <c r="C1116" s="1">
-        <v>1</v>
+        <v>34.735700000000001</v>
       </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.2">
@@ -12467,6 +12446,9 @@
       <c r="B1117">
         <v>2012</v>
       </c>
+      <c r="C1117" s="1">
+        <v>37.261899999999997</v>
+      </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
@@ -12475,6 +12457,9 @@
       <c r="B1118">
         <v>2013</v>
       </c>
+      <c r="C1118" s="1">
+        <v>38.558300000000003</v>
+      </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
@@ -12483,6 +12468,9 @@
       <c r="B1119">
         <v>2014</v>
       </c>
+      <c r="C1119" s="1">
+        <v>45.571399999999997</v>
+      </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
@@ -12491,6 +12479,9 @@
       <c r="B1120">
         <v>2015</v>
       </c>
+      <c r="C1120" s="1">
+        <v>33.726199999999999</v>
+      </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
@@ -12499,6 +12490,9 @@
       <c r="B1121">
         <v>2016</v>
       </c>
+      <c r="C1121" s="1">
+        <v>82.4636</v>
+      </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
@@ -12507,6 +12501,9 @@
       <c r="B1122">
         <v>2017</v>
       </c>
+      <c r="C1122" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
@@ -12516,7 +12513,7 @@
         <v>1999</v>
       </c>
       <c r="C1123" s="1">
-        <v>1.2</v>
+        <v>13.166700000000001</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
@@ -12527,7 +12524,7 @@
         <v>2000</v>
       </c>
       <c r="C1124" s="1">
-        <v>6.3333000000000004</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.2">
@@ -12538,7 +12535,7 @@
         <v>2001</v>
       </c>
       <c r="C1125" s="1">
-        <v>8</v>
+        <v>27.942900000000002</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.2">
@@ -12549,7 +12546,7 @@
         <v>2002</v>
       </c>
       <c r="C1126" s="1">
-        <v>11.666700000000001</v>
+        <v>52.3367</v>
       </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
@@ -12560,7 +12557,7 @@
         <v>2003</v>
       </c>
       <c r="C1127" s="1">
-        <v>6.3333000000000004</v>
+        <v>60.567900000000002</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
@@ -12571,7 +12568,7 @@
         <v>2004</v>
       </c>
       <c r="C1128" s="1">
-        <v>7.5</v>
+        <v>39.65</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
@@ -12582,7 +12579,7 @@
         <v>2005</v>
       </c>
       <c r="C1129" s="1">
-        <v>19.026199999999999</v>
+        <v>62.561900000000001</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
@@ -12593,7 +12590,7 @@
         <v>2006</v>
       </c>
       <c r="C1130" s="1">
-        <v>28.352399999999999</v>
+        <v>67.756699999999995</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
@@ -12604,7 +12601,7 @@
         <v>2007</v>
       </c>
       <c r="C1131" s="1">
-        <v>22.1</v>
+        <v>83.754800000000003</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
@@ -12615,7 +12612,7 @@
         <v>2008</v>
       </c>
       <c r="C1132" s="1">
-        <v>22.235700000000001</v>
+        <v>106.75360000000001</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
@@ -12626,7 +12623,7 @@
         <v>2009</v>
       </c>
       <c r="C1133" s="1">
-        <v>34.0167</v>
+        <v>136.6944</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
@@ -12637,7 +12634,7 @@
         <v>2010</v>
       </c>
       <c r="C1134" s="1">
-        <v>34.492100000000001</v>
+        <v>178.10169999999999</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
@@ -12648,7 +12645,7 @@
         <v>2011</v>
       </c>
       <c r="C1135" s="1">
-        <v>34.735700000000001</v>
+        <v>194.1036</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
@@ -12659,7 +12656,7 @@
         <v>2012</v>
       </c>
       <c r="C1136" s="1">
-        <v>37.261899999999997</v>
+        <v>189.75970000000001</v>
       </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.2">
@@ -12670,7 +12667,7 @@
         <v>2013</v>
       </c>
       <c r="C1137" s="1">
-        <v>38.558300000000003</v>
+        <v>213.5797</v>
       </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
@@ -12681,7 +12678,7 @@
         <v>2014</v>
       </c>
       <c r="C1138" s="1">
-        <v>45.571399999999997</v>
+        <v>176.9383</v>
       </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
@@ -12692,7 +12689,7 @@
         <v>2015</v>
       </c>
       <c r="C1139" s="1">
-        <v>33.726199999999999</v>
+        <v>212.10400000000001</v>
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.2">
@@ -12703,7 +12700,7 @@
         <v>2016</v>
       </c>
       <c r="C1140" s="1">
-        <v>82.4636</v>
+        <v>218.01390000000001</v>
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.2">
@@ -12714,7 +12711,7 @@
         <v>2017</v>
       </c>
       <c r="C1141" s="1">
-        <v>37</v>
+        <v>123.5123</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.2">
@@ -12724,9 +12721,6 @@
       <c r="B1142">
         <v>1999</v>
       </c>
-      <c r="C1142" s="1">
-        <v>13.166700000000001</v>
-      </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
@@ -12736,7 +12730,7 @@
         <v>2000</v>
       </c>
       <c r="C1143" s="1">
-        <v>11.95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.2">
@@ -12746,9 +12740,6 @@
       <c r="B1144">
         <v>2001</v>
       </c>
-      <c r="C1144" s="1">
-        <v>27.942900000000002</v>
-      </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
@@ -12758,7 +12749,7 @@
         <v>2002</v>
       </c>
       <c r="C1145" s="1">
-        <v>52.3367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.2">
@@ -12768,9 +12759,6 @@
       <c r="B1146">
         <v>2003</v>
       </c>
-      <c r="C1146" s="1">
-        <v>60.567900000000002</v>
-      </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
@@ -12780,7 +12768,7 @@
         <v>2004</v>
       </c>
       <c r="C1147" s="1">
-        <v>39.65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.2">
@@ -12791,7 +12779,7 @@
         <v>2005</v>
       </c>
       <c r="C1148" s="1">
-        <v>62.561900000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.2">
@@ -12802,7 +12790,7 @@
         <v>2006</v>
       </c>
       <c r="C1149" s="1">
-        <v>67.756699999999995</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.2">
@@ -12813,7 +12801,7 @@
         <v>2007</v>
       </c>
       <c r="C1150" s="1">
-        <v>83.754800000000003</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.2">
@@ -12823,9 +12811,6 @@
       <c r="B1151">
         <v>2008</v>
       </c>
-      <c r="C1151" s="1">
-        <v>106.75360000000001</v>
-      </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
@@ -12835,7 +12820,7 @@
         <v>2009</v>
       </c>
       <c r="C1152" s="1">
-        <v>136.6944</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
@@ -12846,7 +12831,7 @@
         <v>2010</v>
       </c>
       <c r="C1153" s="1">
-        <v>178.10169999999999</v>
+        <v>2.4167000000000001</v>
       </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
@@ -12857,7 +12842,7 @@
         <v>2011</v>
       </c>
       <c r="C1154" s="1">
-        <v>194.1036</v>
+        <v>2.0667</v>
       </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.2">
@@ -12868,7 +12853,7 @@
         <v>2012</v>
       </c>
       <c r="C1155" s="1">
-        <v>189.75970000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
@@ -12879,7 +12864,7 @@
         <v>2013</v>
       </c>
       <c r="C1156" s="1">
-        <v>213.5797</v>
+        <v>4.3333000000000004</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.2">
@@ -12890,7 +12875,7 @@
         <v>2014</v>
       </c>
       <c r="C1157" s="1">
-        <v>176.9383</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
@@ -12901,7 +12886,7 @@
         <v>2015</v>
       </c>
       <c r="C1158" s="1">
-        <v>212.10400000000001</v>
+        <v>4.8333000000000004</v>
       </c>
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.2">
@@ -12912,7 +12897,7 @@
         <v>2016</v>
       </c>
       <c r="C1159" s="1">
-        <v>218.01390000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
@@ -12923,7 +12908,7 @@
         <v>2017</v>
       </c>
       <c r="C1160" s="1">
-        <v>123.5123</v>
+        <v>1.8889</v>
       </c>
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.2">
@@ -12942,7 +12927,7 @@
         <v>2000</v>
       </c>
       <c r="C1162" s="1">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
@@ -12960,9 +12945,6 @@
       <c r="B1164">
         <v>2002</v>
       </c>
-      <c r="C1164" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
@@ -12971,6 +12953,9 @@
       <c r="B1165">
         <v>2003</v>
       </c>
+      <c r="C1165" s="1">
+        <v>0.33329999999999999</v>
+      </c>
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
@@ -12980,7 +12965,7 @@
         <v>2004</v>
       </c>
       <c r="C1166" s="1">
-        <v>3</v>
+        <v>1.3332999999999999</v>
       </c>
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.2">
@@ -12990,9 +12975,6 @@
       <c r="B1167">
         <v>2005</v>
       </c>
-      <c r="C1167" s="1">
-        <v>1.3</v>
-      </c>
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
@@ -13002,7 +12984,7 @@
         <v>2006</v>
       </c>
       <c r="C1168" s="1">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
@@ -13012,9 +12994,6 @@
       <c r="B1169">
         <v>2007</v>
       </c>
-      <c r="C1169" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
@@ -13023,6 +13002,9 @@
       <c r="B1170">
         <v>2008</v>
       </c>
+      <c r="C1170" s="1">
+        <v>2.3332999999999999</v>
+      </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
@@ -13031,9 +13013,6 @@
       <c r="B1171">
         <v>2009</v>
       </c>
-      <c r="C1171" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
@@ -13043,7 +13022,7 @@
         <v>2010</v>
       </c>
       <c r="C1172" s="1">
-        <v>2.4167000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
@@ -13054,7 +13033,7 @@
         <v>2011</v>
       </c>
       <c r="C1173" s="1">
-        <v>2.0667</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
@@ -13065,7 +13044,7 @@
         <v>2012</v>
       </c>
       <c r="C1174" s="1">
-        <v>1.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
@@ -13076,7 +13055,7 @@
         <v>2013</v>
       </c>
       <c r="C1175" s="1">
-        <v>4.3333000000000004</v>
+        <v>1.3332999999999999</v>
       </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
@@ -13087,7 +13066,7 @@
         <v>2014</v>
       </c>
       <c r="C1176" s="1">
-        <v>1.375</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
@@ -13098,7 +13077,7 @@
         <v>2015</v>
       </c>
       <c r="C1177" s="1">
-        <v>4.8333000000000004</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
@@ -13109,7 +13088,7 @@
         <v>2016</v>
       </c>
       <c r="C1178" s="1">
-        <v>0.2</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
@@ -13120,7 +13099,7 @@
         <v>2017</v>
       </c>
       <c r="C1179" s="1">
-        <v>1.8889</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
@@ -13138,9 +13117,6 @@
       <c r="B1181">
         <v>2000</v>
       </c>
-      <c r="C1181" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
@@ -13165,9 +13141,6 @@
       <c r="B1184">
         <v>2003</v>
       </c>
-      <c r="C1184" s="1">
-        <v>0.33329999999999999</v>
-      </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
@@ -13177,7 +13150,7 @@
         <v>2004</v>
       </c>
       <c r="C1185" s="1">
-        <v>1.3332999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
@@ -13187,6 +13160,9 @@
       <c r="B1186">
         <v>2005</v>
       </c>
+      <c r="C1186" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
@@ -13196,7 +13172,7 @@
         <v>2006</v>
       </c>
       <c r="C1187" s="1">
-        <v>1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.2">
@@ -13214,9 +13190,6 @@
       <c r="B1189">
         <v>2008</v>
       </c>
-      <c r="C1189" s="1">
-        <v>2.3332999999999999</v>
-      </c>
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
@@ -13233,9 +13206,6 @@
       <c r="B1191">
         <v>2010</v>
       </c>
-      <c r="C1191" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
@@ -13255,9 +13225,6 @@
       <c r="B1193">
         <v>2012</v>
       </c>
-      <c r="C1193" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
@@ -13266,9 +13233,6 @@
       <c r="B1194">
         <v>2013</v>
       </c>
-      <c r="C1194" s="1">
-        <v>1.3332999999999999</v>
-      </c>
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
@@ -13277,9 +13241,6 @@
       <c r="B1195">
         <v>2014</v>
       </c>
-      <c r="C1195" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
@@ -13288,9 +13249,6 @@
       <c r="B1196">
         <v>2015</v>
       </c>
-      <c r="C1196" s="1">
-        <v>11.5</v>
-      </c>
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
@@ -13299,9 +13257,6 @@
       <c r="B1197">
         <v>2016</v>
       </c>
-      <c r="C1197" s="1">
-        <v>8.6</v>
-      </c>
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
@@ -13310,9 +13265,6 @@
       <c r="B1198">
         <v>2017</v>
       </c>
-      <c r="C1198" s="1">
-        <v>14</v>
-      </c>
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
@@ -13361,9 +13313,6 @@
       <c r="B1204">
         <v>2004</v>
       </c>
-      <c r="C1204" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
@@ -13372,9 +13321,6 @@
       <c r="B1205">
         <v>2005</v>
       </c>
-      <c r="C1205" s="1">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
@@ -13384,7 +13330,7 @@
         <v>2006</v>
       </c>
       <c r="C1206" s="1">
-        <v>0.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
@@ -13394,6 +13340,9 @@
       <c r="B1207">
         <v>2007</v>
       </c>
+      <c r="C1207" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
@@ -13410,6 +13359,9 @@
       <c r="B1209">
         <v>2009</v>
       </c>
+      <c r="C1209" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
@@ -13427,7 +13379,7 @@
         <v>2011</v>
       </c>
       <c r="C1211" s="1">
-        <v>0.33329999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.2">
@@ -13445,6 +13397,9 @@
       <c r="B1213">
         <v>2013</v>
       </c>
+      <c r="C1213" s="1">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
@@ -13453,6 +13408,9 @@
       <c r="B1214">
         <v>2014</v>
       </c>
+      <c r="C1214" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
@@ -13469,6 +13427,9 @@
       <c r="B1216">
         <v>2016</v>
       </c>
+      <c r="C1216" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
@@ -13477,6 +13438,9 @@
       <c r="B1217">
         <v>2017</v>
       </c>
+      <c r="C1217" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
@@ -13485,6 +13449,9 @@
       <c r="B1218">
         <v>1999</v>
       </c>
+      <c r="C1218" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
@@ -13501,6 +13468,9 @@
       <c r="B1220">
         <v>2001</v>
       </c>
+      <c r="C1220" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
@@ -13509,6 +13479,9 @@
       <c r="B1221">
         <v>2002</v>
       </c>
+      <c r="C1221" s="1">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
@@ -13517,6 +13490,9 @@
       <c r="B1222">
         <v>2003</v>
       </c>
+      <c r="C1222" s="1">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
@@ -13533,6 +13509,9 @@
       <c r="B1224">
         <v>2005</v>
       </c>
+      <c r="C1224" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
@@ -13542,7 +13521,7 @@
         <v>2006</v>
       </c>
       <c r="C1225" s="1">
-        <v>1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.2">
@@ -13563,6 +13542,9 @@
       <c r="B1227">
         <v>2008</v>
       </c>
+      <c r="C1227" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
@@ -13572,7 +13554,7 @@
         <v>2009</v>
       </c>
       <c r="C1228" s="1">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
@@ -13582,6 +13564,9 @@
       <c r="B1229">
         <v>2010</v>
       </c>
+      <c r="C1229" s="1">
+        <v>3.1547999999999998</v>
+      </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
@@ -13591,7 +13576,7 @@
         <v>2011</v>
       </c>
       <c r="C1230" s="1">
-        <v>1</v>
+        <v>2.0667</v>
       </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
@@ -13601,6 +13586,9 @@
       <c r="B1231">
         <v>2012</v>
       </c>
+      <c r="C1231" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
@@ -13610,7 +13598,7 @@
         <v>2013</v>
       </c>
       <c r="C1232" s="1">
-        <v>1.5</v>
+        <v>5.3333000000000004</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.2">
@@ -13631,6 +13619,9 @@
       <c r="B1234">
         <v>2015</v>
       </c>
+      <c r="C1234" s="1">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
@@ -13640,7 +13631,7 @@
         <v>2016</v>
       </c>
       <c r="C1235" s="1">
-        <v>1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.2">
@@ -13651,7 +13642,7 @@
         <v>2017</v>
       </c>
       <c r="C1236" s="1">
-        <v>0.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.2">
@@ -13661,9 +13652,6 @@
       <c r="B1237">
         <v>1999</v>
       </c>
-      <c r="C1237" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
@@ -13680,9 +13668,6 @@
       <c r="B1239">
         <v>2001</v>
       </c>
-      <c r="C1239" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
@@ -13691,9 +13676,6 @@
       <c r="B1240">
         <v>2002</v>
       </c>
-      <c r="C1240" s="1">
-        <v>2.25</v>
-      </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
@@ -13702,9 +13684,6 @@
       <c r="B1241">
         <v>2003</v>
       </c>
-      <c r="C1241" s="1">
-        <v>1.4</v>
-      </c>
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
@@ -13713,6 +13692,9 @@
       <c r="B1242">
         <v>2004</v>
       </c>
+      <c r="C1242" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
@@ -13722,7 +13704,7 @@
         <v>2005</v>
       </c>
       <c r="C1243" s="1">
-        <v>1</v>
+        <v>6.6699999999999995E-2</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.2">
@@ -13733,7 +13715,7 @@
         <v>2006</v>
       </c>
       <c r="C1244" s="1">
-        <v>8.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.2">
@@ -13743,9 +13725,6 @@
       <c r="B1245">
         <v>2007</v>
       </c>
-      <c r="C1245" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
@@ -13755,7 +13734,7 @@
         <v>2008</v>
       </c>
       <c r="C1246" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.2">
@@ -13766,7 +13745,7 @@
         <v>2009</v>
       </c>
       <c r="C1247" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.2">
@@ -13776,9 +13755,6 @@
       <c r="B1248">
         <v>2010</v>
       </c>
-      <c r="C1248" s="1">
-        <v>3.1547999999999998</v>
-      </c>
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
@@ -13787,9 +13763,6 @@
       <c r="B1249">
         <v>2011</v>
       </c>
-      <c r="C1249" s="1">
-        <v>2.0667</v>
-      </c>
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
@@ -13799,7 +13772,7 @@
         <v>2012</v>
       </c>
       <c r="C1250" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.2">
@@ -13809,9 +13782,6 @@
       <c r="B1251">
         <v>2013</v>
       </c>
-      <c r="C1251" s="1">
-        <v>5.3333000000000004</v>
-      </c>
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
@@ -13821,7 +13791,7 @@
         <v>2014</v>
       </c>
       <c r="C1252" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.2">
@@ -13832,7 +13802,7 @@
         <v>2015</v>
       </c>
       <c r="C1253" s="1">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.2">
@@ -13843,7 +13813,7 @@
         <v>2016</v>
       </c>
       <c r="C1254" s="1">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.2">
@@ -13853,9 +13823,6 @@
       <c r="B1255">
         <v>2017</v>
       </c>
-      <c r="C1255" s="1">
-        <v>4.75</v>
-      </c>
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
@@ -13872,6 +13839,9 @@
       <c r="B1257">
         <v>2000</v>
       </c>
+      <c r="C1257" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
@@ -13896,6 +13866,9 @@
       <c r="B1260">
         <v>2003</v>
       </c>
+      <c r="C1260" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
@@ -13905,7 +13878,7 @@
         <v>2004</v>
       </c>
       <c r="C1261" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.2">
@@ -13915,9 +13888,6 @@
       <c r="B1262">
         <v>2005</v>
       </c>
-      <c r="C1262" s="1">
-        <v>6.6699999999999995E-2</v>
-      </c>
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
@@ -13926,9 +13896,6 @@
       <c r="B1263">
         <v>2006</v>
       </c>
-      <c r="C1263" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
@@ -13945,9 +13912,6 @@
       <c r="B1265">
         <v>2008</v>
       </c>
-      <c r="C1265" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
@@ -13957,7 +13921,7 @@
         <v>2009</v>
       </c>
       <c r="C1266" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.2">
@@ -13983,9 +13947,6 @@
       <c r="B1269">
         <v>2012</v>
       </c>
-      <c r="C1269" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
@@ -14003,7 +13964,7 @@
         <v>2014</v>
       </c>
       <c r="C1271" s="1">
-        <v>2</v>
+        <v>1.3332999999999999</v>
       </c>
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.2">
@@ -14013,9 +13974,6 @@
       <c r="B1272">
         <v>2015</v>
       </c>
-      <c r="C1272" s="1">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
@@ -14025,7 +13983,7 @@
         <v>2016</v>
       </c>
       <c r="C1273" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.2">
@@ -14051,9 +14009,6 @@
       <c r="B1276">
         <v>2000</v>
       </c>
-      <c r="C1276" s="1">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="1277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
@@ -14078,9 +14033,6 @@
       <c r="B1279">
         <v>2003</v>
       </c>
-      <c r="C1279" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
@@ -14089,9 +14041,6 @@
       <c r="B1280">
         <v>2004</v>
       </c>
-      <c r="C1280" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
@@ -14100,6 +14049,9 @@
       <c r="B1281">
         <v>2005</v>
       </c>
+      <c r="C1281" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
@@ -14116,6 +14068,9 @@
       <c r="B1283">
         <v>2007</v>
       </c>
+      <c r="C1283" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
@@ -14132,9 +14087,6 @@
       <c r="B1285">
         <v>2009</v>
       </c>
-      <c r="C1285" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
@@ -14143,6 +14095,9 @@
       <c r="B1286">
         <v>2010</v>
       </c>
+      <c r="C1286" s="1">
+        <v>1.3332999999999999</v>
+      </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
@@ -14159,6 +14114,9 @@
       <c r="B1288">
         <v>2012</v>
       </c>
+      <c r="C1288" s="1">
+        <v>1.1667000000000001</v>
+      </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
@@ -14175,9 +14133,6 @@
       <c r="B1290">
         <v>2014</v>
       </c>
-      <c r="C1290" s="1">
-        <v>1.3332999999999999</v>
-      </c>
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
@@ -14186,6 +14141,9 @@
       <c r="B1291">
         <v>2015</v>
       </c>
+      <c r="C1291" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
@@ -14195,7 +14153,7 @@
         <v>2016</v>
       </c>
       <c r="C1292" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.2">
@@ -14205,6 +14163,9 @@
       <c r="B1293">
         <v>2017</v>
       </c>
+      <c r="C1293" s="1">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
@@ -14213,6 +14174,9 @@
       <c r="B1294">
         <v>1999</v>
       </c>
+      <c r="C1294" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
@@ -14221,6 +14185,9 @@
       <c r="B1295">
         <v>2000</v>
       </c>
+      <c r="C1295" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
@@ -14245,6 +14212,9 @@
       <c r="B1298">
         <v>2003</v>
       </c>
+      <c r="C1298" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
@@ -14253,6 +14223,9 @@
       <c r="B1299">
         <v>2004</v>
       </c>
+      <c r="C1299" s="1">
+        <v>1.8095000000000001</v>
+      </c>
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
@@ -14261,9 +14234,6 @@
       <c r="B1300">
         <v>2005</v>
       </c>
-      <c r="C1300" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
@@ -14272,6 +14242,9 @@
       <c r="B1301">
         <v>2006</v>
       </c>
+      <c r="C1301" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
@@ -14280,9 +14253,6 @@
       <c r="B1302">
         <v>2007</v>
       </c>
-      <c r="C1302" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
@@ -14291,6 +14261,9 @@
       <c r="B1303">
         <v>2008</v>
       </c>
+      <c r="C1303" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
@@ -14299,6 +14272,9 @@
       <c r="B1304">
         <v>2009</v>
       </c>
+      <c r="C1304" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
@@ -14308,7 +14284,7 @@
         <v>2010</v>
       </c>
       <c r="C1305" s="1">
-        <v>1.3332999999999999</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.2">
@@ -14327,7 +14303,7 @@
         <v>2012</v>
       </c>
       <c r="C1307" s="1">
-        <v>1.1667000000000001</v>
+        <v>0.3095</v>
       </c>
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.2">
@@ -14337,6 +14313,9 @@
       <c r="B1308">
         <v>2013</v>
       </c>
+      <c r="C1308" s="1">
+        <v>9.0899999999999995E-2</v>
+      </c>
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
@@ -14345,6 +14324,9 @@
       <c r="B1309">
         <v>2014</v>
       </c>
+      <c r="C1309" s="1">
+        <v>3.6667000000000001</v>
+      </c>
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
@@ -14354,7 +14336,7 @@
         <v>2015</v>
       </c>
       <c r="C1310" s="1">
-        <v>1</v>
+        <v>1.3332999999999999</v>
       </c>
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.2">
@@ -14365,7 +14347,7 @@
         <v>2016</v>
       </c>
       <c r="C1311" s="1">
-        <v>2</v>
+        <v>0.86670000000000003</v>
       </c>
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.2">
@@ -14375,9 +14357,6 @@
       <c r="B1312">
         <v>2017</v>
       </c>
-      <c r="C1312" s="1">
-        <v>2.25</v>
-      </c>
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
@@ -14386,9 +14365,6 @@
       <c r="B1313">
         <v>1999</v>
       </c>
-      <c r="C1313" s="1">
-        <v>0.25</v>
-      </c>
     </row>
     <row r="1314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
@@ -14397,9 +14373,6 @@
       <c r="B1314">
         <v>2000</v>
       </c>
-      <c r="C1314" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
@@ -14408,6 +14381,9 @@
       <c r="B1315">
         <v>2001</v>
       </c>
+      <c r="C1315" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
@@ -14416,6 +14392,9 @@
       <c r="B1316">
         <v>2002</v>
       </c>
+      <c r="C1316" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
@@ -14425,7 +14404,7 @@
         <v>2003</v>
       </c>
       <c r="C1317" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.2">
@@ -14436,7 +14415,7 @@
         <v>2004</v>
       </c>
       <c r="C1318" s="1">
-        <v>1.8095000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.2">
@@ -14446,6 +14425,9 @@
       <c r="B1319">
         <v>2005</v>
       </c>
+      <c r="C1319" s="1">
+        <v>1.8332999999999999</v>
+      </c>
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
@@ -14454,9 +14436,6 @@
       <c r="B1320">
         <v>2006</v>
       </c>
-      <c r="C1320" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
@@ -14465,6 +14444,9 @@
       <c r="B1321">
         <v>2007</v>
       </c>
+      <c r="C1321" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
@@ -14474,7 +14456,7 @@
         <v>2008</v>
       </c>
       <c r="C1322" s="1">
-        <v>0.25</v>
+        <v>1.6667000000000001</v>
       </c>
     </row>
     <row r="1323" spans="1:3" x14ac:dyDescent="0.2">
@@ -14485,7 +14467,7 @@
         <v>2009</v>
       </c>
       <c r="C1323" s="1">
-        <v>1</v>
+        <v>1.8332999999999999</v>
       </c>
     </row>
     <row r="1324" spans="1:3" x14ac:dyDescent="0.2">
@@ -14496,7 +14478,7 @@
         <v>2010</v>
       </c>
       <c r="C1324" s="1">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.2">
@@ -14506,6 +14488,9 @@
       <c r="B1325">
         <v>2011</v>
       </c>
+      <c r="C1325" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
@@ -14515,7 +14500,7 @@
         <v>2012</v>
       </c>
       <c r="C1326" s="1">
-        <v>0.3095</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1327" spans="1:3" x14ac:dyDescent="0.2">
@@ -14526,7 +14511,7 @@
         <v>2013</v>
       </c>
       <c r="C1327" s="1">
-        <v>9.0899999999999995E-2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.2">
@@ -14537,7 +14522,7 @@
         <v>2014</v>
       </c>
       <c r="C1328" s="1">
-        <v>3.6667000000000001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="1329" spans="1:3" x14ac:dyDescent="0.2">
@@ -14548,7 +14533,7 @@
         <v>2015</v>
       </c>
       <c r="C1329" s="1">
-        <v>1.3332999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="1330" spans="1:3" x14ac:dyDescent="0.2">
@@ -14558,9 +14543,6 @@
       <c r="B1330">
         <v>2016</v>
       </c>
-      <c r="C1330" s="1">
-        <v>0.86670000000000003</v>
-      </c>
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
@@ -14569,6 +14551,9 @@
       <c r="B1331">
         <v>2017</v>
       </c>
+      <c r="C1331" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
@@ -14585,6 +14570,9 @@
       <c r="B1333">
         <v>2000</v>
       </c>
+      <c r="C1333" s="1">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="1334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
@@ -14594,7 +14582,7 @@
         <v>2001</v>
       </c>
       <c r="C1334" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1335" spans="1:3" x14ac:dyDescent="0.2">
@@ -14605,7 +14593,7 @@
         <v>2002</v>
       </c>
       <c r="C1335" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1336" spans="1:3" x14ac:dyDescent="0.2">
@@ -14616,7 +14604,7 @@
         <v>2003</v>
       </c>
       <c r="C1336" s="1">
-        <v>2</v>
+        <v>2.5832999999999999</v>
       </c>
     </row>
     <row r="1337" spans="1:3" x14ac:dyDescent="0.2">
@@ -14627,7 +14615,7 @@
         <v>2004</v>
       </c>
       <c r="C1337" s="1">
-        <v>0.33329999999999999</v>
+        <v>4.0556000000000001</v>
       </c>
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.2">
@@ -14638,7 +14626,7 @@
         <v>2005</v>
       </c>
       <c r="C1338" s="1">
-        <v>1.8332999999999999</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.2">
@@ -14648,6 +14636,9 @@
       <c r="B1339">
         <v>2006</v>
       </c>
+      <c r="C1339" s="1">
+        <v>9.65</v>
+      </c>
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
@@ -14657,7 +14648,7 @@
         <v>2007</v>
       </c>
       <c r="C1340" s="1">
-        <v>0.5</v>
+        <v>11.333299999999999</v>
       </c>
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.2">
@@ -14668,7 +14659,7 @@
         <v>2008</v>
       </c>
       <c r="C1341" s="1">
-        <v>1.6667000000000001</v>
+        <v>27.908300000000001</v>
       </c>
     </row>
     <row r="1342" spans="1:3" x14ac:dyDescent="0.2">
@@ -14679,7 +14670,7 @@
         <v>2009</v>
       </c>
       <c r="C1342" s="1">
-        <v>1.8332999999999999</v>
+        <v>25.133299999999998</v>
       </c>
     </row>
     <row r="1343" spans="1:3" x14ac:dyDescent="0.2">
@@ -14690,7 +14681,7 @@
         <v>2010</v>
       </c>
       <c r="C1343" s="1">
-        <v>1.75</v>
+        <v>21.666699999999999</v>
       </c>
     </row>
     <row r="1344" spans="1:3" x14ac:dyDescent="0.2">
@@ -14701,7 +14692,7 @@
         <v>2011</v>
       </c>
       <c r="C1344" s="1">
-        <v>1</v>
+        <v>28.350100000000001</v>
       </c>
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.2">
@@ -14712,7 +14703,7 @@
         <v>2012</v>
       </c>
       <c r="C1345" s="1">
-        <v>2</v>
+        <v>26.633299999999998</v>
       </c>
     </row>
     <row r="1346" spans="1:3" x14ac:dyDescent="0.2">
@@ -14723,7 +14714,7 @@
         <v>2013</v>
       </c>
       <c r="C1346" s="1">
-        <v>2.25</v>
+        <v>26.485700000000001</v>
       </c>
     </row>
     <row r="1347" spans="1:3" x14ac:dyDescent="0.2">
@@ -14734,7 +14725,7 @@
         <v>2014</v>
       </c>
       <c r="C1347" s="1">
-        <v>0.25</v>
+        <v>23.346399999999999</v>
       </c>
     </row>
     <row r="1348" spans="1:3" x14ac:dyDescent="0.2">
@@ -14745,7 +14736,7 @@
         <v>2015</v>
       </c>
       <c r="C1348" s="1">
-        <v>0.75</v>
+        <v>18.833300000000001</v>
       </c>
     </row>
     <row r="1349" spans="1:3" x14ac:dyDescent="0.2">
@@ -14755,6 +14746,9 @@
       <c r="B1349">
         <v>2016</v>
       </c>
+      <c r="C1349" s="1">
+        <v>19.75</v>
+      </c>
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
@@ -14764,7 +14758,7 @@
         <v>2017</v>
       </c>
       <c r="C1350" s="1">
-        <v>1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.2">
@@ -14783,7 +14777,7 @@
         <v>2000</v>
       </c>
       <c r="C1352" s="1">
-        <v>3.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.2">
@@ -14793,9 +14787,6 @@
       <c r="B1353">
         <v>2001</v>
       </c>
-      <c r="C1353" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="1354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
@@ -14804,9 +14795,6 @@
       <c r="B1354">
         <v>2002</v>
       </c>
-      <c r="C1354" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="1355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
@@ -14815,9 +14803,6 @@
       <c r="B1355">
         <v>2003</v>
       </c>
-      <c r="C1355" s="1">
-        <v>2.5832999999999999</v>
-      </c>
     </row>
     <row r="1356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
@@ -14827,7 +14812,7 @@
         <v>2004</v>
       </c>
       <c r="C1356" s="1">
-        <v>4.0556000000000001</v>
+        <v>2.1667000000000001</v>
       </c>
     </row>
     <row r="1357" spans="1:3" x14ac:dyDescent="0.2">
@@ -14837,9 +14822,6 @@
       <c r="B1357">
         <v>2005</v>
       </c>
-      <c r="C1357" s="1">
-        <v>4.75</v>
-      </c>
     </row>
     <row r="1358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
@@ -14848,9 +14830,6 @@
       <c r="B1358">
         <v>2006</v>
       </c>
-      <c r="C1358" s="1">
-        <v>9.65</v>
-      </c>
     </row>
     <row r="1359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
@@ -14859,9 +14838,6 @@
       <c r="B1359">
         <v>2007</v>
       </c>
-      <c r="C1359" s="1">
-        <v>11.333299999999999</v>
-      </c>
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
@@ -14870,9 +14846,6 @@
       <c r="B1360">
         <v>2008</v>
       </c>
-      <c r="C1360" s="1">
-        <v>27.908300000000001</v>
-      </c>
     </row>
     <row r="1361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
@@ -14881,9 +14854,6 @@
       <c r="B1361">
         <v>2009</v>
       </c>
-      <c r="C1361" s="1">
-        <v>25.133299999999998</v>
-      </c>
     </row>
     <row r="1362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
@@ -14893,7 +14863,7 @@
         <v>2010</v>
       </c>
       <c r="C1362" s="1">
-        <v>21.666699999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1363" spans="1:3" x14ac:dyDescent="0.2">
@@ -14903,9 +14873,6 @@
       <c r="B1363">
         <v>2011</v>
       </c>
-      <c r="C1363" s="1">
-        <v>28.350100000000001</v>
-      </c>
     </row>
     <row r="1364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
@@ -14915,7 +14882,7 @@
         <v>2012</v>
       </c>
       <c r="C1364" s="1">
-        <v>26.633299999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1365" spans="1:3" x14ac:dyDescent="0.2">
@@ -14926,7 +14893,7 @@
         <v>2013</v>
       </c>
       <c r="C1365" s="1">
-        <v>26.485700000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.2">
@@ -14937,7 +14904,7 @@
         <v>2014</v>
       </c>
       <c r="C1366" s="1">
-        <v>23.346399999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.2">
@@ -14948,7 +14915,7 @@
         <v>2015</v>
       </c>
       <c r="C1367" s="1">
-        <v>18.833300000000001</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.2">
@@ -14959,7 +14926,7 @@
         <v>2016</v>
       </c>
       <c r="C1368" s="1">
-        <v>19.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1369" spans="1:3" x14ac:dyDescent="0.2">
@@ -14970,7 +14937,7 @@
         <v>2017</v>
       </c>
       <c r="C1369" s="1">
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1370" spans="1:3" x14ac:dyDescent="0.2">
@@ -14988,9 +14955,6 @@
       <c r="B1371">
         <v>2000</v>
       </c>
-      <c r="C1371" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
@@ -14999,6 +14963,9 @@
       <c r="B1372">
         <v>2001</v>
       </c>
+      <c r="C1372" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
@@ -15007,6 +14974,9 @@
       <c r="B1373">
         <v>2002</v>
       </c>
+      <c r="C1373" s="1">
+        <v>1.3332999999999999</v>
+      </c>
     </row>
     <row r="1374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
@@ -15023,9 +14993,6 @@
       <c r="B1375">
         <v>2004</v>
       </c>
-      <c r="C1375" s="1">
-        <v>2.1667000000000001</v>
-      </c>
     </row>
     <row r="1376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
@@ -15034,6 +15001,9 @@
       <c r="B1376">
         <v>2005</v>
       </c>
+      <c r="C1376" s="1">
+        <v>3.375</v>
+      </c>
     </row>
     <row r="1377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
@@ -15042,6 +15012,9 @@
       <c r="B1377">
         <v>2006</v>
       </c>
+      <c r="C1377" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
@@ -15050,6 +15023,9 @@
       <c r="B1378">
         <v>2007</v>
       </c>
+      <c r="C1378" s="1">
+        <v>1.1429</v>
+      </c>
     </row>
     <row r="1379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
@@ -15058,6 +15034,9 @@
       <c r="B1379">
         <v>2008</v>
       </c>
+      <c r="C1379" s="1">
+        <v>1.3332999999999999</v>
+      </c>
     </row>
     <row r="1380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
@@ -15066,6 +15045,9 @@
       <c r="B1380">
         <v>2009</v>
       </c>
+      <c r="C1380" s="1">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="1381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
@@ -15074,9 +15056,6 @@
       <c r="B1381">
         <v>2010</v>
       </c>
-      <c r="C1381" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
@@ -15085,6 +15064,9 @@
       <c r="B1382">
         <v>2011</v>
       </c>
+      <c r="C1382" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
@@ -15094,7 +15076,7 @@
         <v>2012</v>
       </c>
       <c r="C1383" s="1">
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="1384" spans="1:3" x14ac:dyDescent="0.2">
@@ -15105,7 +15087,7 @@
         <v>2013</v>
       </c>
       <c r="C1384" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1385" spans="1:3" x14ac:dyDescent="0.2">
@@ -15115,9 +15097,6 @@
       <c r="B1385">
         <v>2014</v>
       </c>
-      <c r="C1385" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="1386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
@@ -15127,7 +15106,7 @@
         <v>2015</v>
       </c>
       <c r="C1386" s="1">
-        <v>5.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1387" spans="1:3" x14ac:dyDescent="0.2">
@@ -15138,7 +15117,7 @@
         <v>2016</v>
       </c>
       <c r="C1387" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1388" spans="1:3" x14ac:dyDescent="0.2">
@@ -15148,9 +15127,6 @@
       <c r="B1388">
         <v>2017</v>
       </c>
-      <c r="C1388" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="1389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
@@ -15167,6 +15143,9 @@
       <c r="B1390">
         <v>2000</v>
       </c>
+      <c r="C1390" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="1391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
@@ -15187,7 +15166,7 @@
         <v>2002</v>
       </c>
       <c r="C1392" s="1">
-        <v>1.3332999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1393" spans="1:3" x14ac:dyDescent="0.2">
@@ -15205,6 +15184,9 @@
       <c r="B1394">
         <v>2004</v>
       </c>
+      <c r="C1394" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
@@ -15214,7 +15196,7 @@
         <v>2005</v>
       </c>
       <c r="C1395" s="1">
-        <v>3.375</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="1396" spans="1:3" x14ac:dyDescent="0.2">
@@ -15224,9 +15206,6 @@
       <c r="B1396">
         <v>2006</v>
       </c>
-      <c r="C1396" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
@@ -15236,7 +15215,7 @@
         <v>2007</v>
       </c>
       <c r="C1397" s="1">
-        <v>1.1429</v>
+        <v>1.8332999999999999</v>
       </c>
     </row>
     <row r="1398" spans="1:3" x14ac:dyDescent="0.2">
@@ -15247,7 +15226,7 @@
         <v>2008</v>
       </c>
       <c r="C1398" s="1">
-        <v>1.3332999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1399" spans="1:3" x14ac:dyDescent="0.2">
@@ -15258,7 +15237,7 @@
         <v>2009</v>
       </c>
       <c r="C1399" s="1">
-        <v>0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1400" spans="1:3" x14ac:dyDescent="0.2">
@@ -15268,6 +15247,9 @@
       <c r="B1400">
         <v>2010</v>
       </c>
+      <c r="C1400" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
@@ -15276,9 +15258,6 @@
       <c r="B1401">
         <v>2011</v>
       </c>
-      <c r="C1401" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="1402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
@@ -15287,9 +15266,6 @@
       <c r="B1402">
         <v>2012</v>
       </c>
-      <c r="C1402" s="1">
-        <v>0.25</v>
-      </c>
     </row>
     <row r="1403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
@@ -15298,9 +15274,6 @@
       <c r="B1403">
         <v>2013</v>
       </c>
-      <c r="C1403" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
@@ -15309,6 +15282,9 @@
       <c r="B1404">
         <v>2014</v>
       </c>
+      <c r="C1404" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
@@ -15318,7 +15294,7 @@
         <v>2015</v>
       </c>
       <c r="C1405" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1406" spans="1:3" x14ac:dyDescent="0.2">
@@ -15328,9 +15304,6 @@
       <c r="B1406">
         <v>2016</v>
       </c>
-      <c r="C1406" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="1407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
@@ -15355,9 +15328,6 @@
       <c r="B1409">
         <v>2000</v>
       </c>
-      <c r="C1409" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="1410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
@@ -15366,9 +15336,6 @@
       <c r="B1410">
         <v>2001</v>
       </c>
-      <c r="C1410" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
@@ -15377,9 +15344,6 @@
       <c r="B1411">
         <v>2002</v>
       </c>
-      <c r="C1411" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
@@ -15396,9 +15360,6 @@
       <c r="B1413">
         <v>2004</v>
       </c>
-      <c r="C1413" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
@@ -15407,9 +15368,6 @@
       <c r="B1414">
         <v>2005</v>
       </c>
-      <c r="C1414" s="1">
-        <v>0.33329999999999999</v>
-      </c>
     </row>
     <row r="1415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
@@ -15426,9 +15384,6 @@
       <c r="B1416">
         <v>2007</v>
       </c>
-      <c r="C1416" s="1">
-        <v>1.8332999999999999</v>
-      </c>
     </row>
     <row r="1417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
@@ -15438,7 +15393,7 @@
         <v>2008</v>
       </c>
       <c r="C1417" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="1418" spans="1:3" x14ac:dyDescent="0.2">
@@ -15448,9 +15403,6 @@
       <c r="B1418">
         <v>2009</v>
       </c>
-      <c r="C1418" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="1419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
@@ -15459,9 +15411,6 @@
       <c r="B1419">
         <v>2010</v>
       </c>
-      <c r="C1419" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
@@ -15494,9 +15443,6 @@
       <c r="B1423">
         <v>2014</v>
       </c>
-      <c r="C1423" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
@@ -15505,9 +15451,6 @@
       <c r="B1424">
         <v>2015</v>
       </c>
-      <c r="C1424" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="1425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
@@ -15524,6 +15467,9 @@
       <c r="B1426">
         <v>2017</v>
       </c>
+      <c r="C1426" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
@@ -15540,6 +15486,9 @@
       <c r="B1428">
         <v>2000</v>
       </c>
+      <c r="C1428" s="1">
+        <v>0.42859999999999998</v>
+      </c>
     </row>
     <row r="1429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
@@ -15548,6 +15497,9 @@
       <c r="B1429">
         <v>2001</v>
       </c>
+      <c r="C1429" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
@@ -15564,6 +15516,9 @@
       <c r="B1431">
         <v>2003</v>
       </c>
+      <c r="C1431" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="1432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
@@ -15572,6 +15527,9 @@
       <c r="B1432">
         <v>2004</v>
       </c>
+      <c r="C1432" s="1">
+        <v>1.3332999999999999</v>
+      </c>
     </row>
     <row r="1433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
@@ -15580,6 +15538,9 @@
       <c r="B1433">
         <v>2005</v>
       </c>
+      <c r="C1433" s="1">
+        <v>2.125</v>
+      </c>
     </row>
     <row r="1434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
@@ -15588,6 +15549,9 @@
       <c r="B1434">
         <v>2006</v>
       </c>
+      <c r="C1434" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
@@ -15596,6 +15560,9 @@
       <c r="B1435">
         <v>2007</v>
       </c>
+      <c r="C1435" s="1">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="1436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
@@ -15605,7 +15572,7 @@
         <v>2008</v>
       </c>
       <c r="C1436" s="1">
-        <v>0.4</v>
+        <v>3.8332999999999999</v>
       </c>
     </row>
     <row r="1437" spans="1:3" x14ac:dyDescent="0.2">
@@ -15615,6 +15582,9 @@
       <c r="B1437">
         <v>2009</v>
       </c>
+      <c r="C1437" s="1">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
@@ -15623,6 +15593,9 @@
       <c r="B1438">
         <v>2010</v>
       </c>
+      <c r="C1438" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="1439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
@@ -15631,6 +15604,9 @@
       <c r="B1439">
         <v>2011</v>
       </c>
+      <c r="C1439" s="1">
+        <v>7.9443999999999999</v>
+      </c>
     </row>
     <row r="1440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
@@ -15639,6 +15615,9 @@
       <c r="B1440">
         <v>2012</v>
       </c>
+      <c r="C1440" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="1441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
@@ -15647,6 +15626,9 @@
       <c r="B1441">
         <v>2013</v>
       </c>
+      <c r="C1441" s="1">
+        <v>13.25</v>
+      </c>
     </row>
     <row r="1442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
@@ -15655,6 +15637,9 @@
       <c r="B1442">
         <v>2014</v>
       </c>
+      <c r="C1442" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="1443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
@@ -15663,6 +15648,9 @@
       <c r="B1443">
         <v>2015</v>
       </c>
+      <c r="C1443" s="1">
+        <v>8.625</v>
+      </c>
     </row>
     <row r="1444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
@@ -15671,6 +15659,9 @@
       <c r="B1444">
         <v>2016</v>
       </c>
+      <c r="C1444" s="1">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="1445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
@@ -15680,7 +15671,7 @@
         <v>2017</v>
       </c>
       <c r="C1445" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1446" spans="1:3" x14ac:dyDescent="0.2">
@@ -15690,6 +15681,9 @@
       <c r="B1446">
         <v>1999</v>
       </c>
+      <c r="C1446" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
@@ -15698,9 +15692,6 @@
       <c r="B1447">
         <v>2000</v>
       </c>
-      <c r="C1447" s="1">
-        <v>0.42859999999999998</v>
-      </c>
     </row>
     <row r="1448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
@@ -15709,9 +15700,6 @@
       <c r="B1448">
         <v>2001</v>
       </c>
-      <c r="C1448" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
@@ -15720,6 +15708,9 @@
       <c r="B1449">
         <v>2002</v>
       </c>
+      <c r="C1449" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="1450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
@@ -15728,9 +15719,6 @@
       <c r="B1450">
         <v>2003</v>
       </c>
-      <c r="C1450" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="1451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
@@ -15739,9 +15727,6 @@
       <c r="B1451">
         <v>2004</v>
       </c>
-      <c r="C1451" s="1">
-        <v>1.3332999999999999</v>
-      </c>
     </row>
     <row r="1452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
@@ -15750,9 +15735,6 @@
       <c r="B1452">
         <v>2005</v>
       </c>
-      <c r="C1452" s="1">
-        <v>2.125</v>
-      </c>
     </row>
     <row r="1453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
@@ -15761,9 +15743,6 @@
       <c r="B1453">
         <v>2006</v>
       </c>
-      <c r="C1453" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
@@ -15773,7 +15752,7 @@
         <v>2007</v>
       </c>
       <c r="C1454" s="1">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1455" spans="1:3" x14ac:dyDescent="0.2">
@@ -15784,7 +15763,7 @@
         <v>2008</v>
       </c>
       <c r="C1455" s="1">
-        <v>3.8332999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1456" spans="1:3" x14ac:dyDescent="0.2">
@@ -15794,9 +15773,6 @@
       <c r="B1456">
         <v>2009</v>
       </c>
-      <c r="C1456" s="1">
-        <v>6.8</v>
-      </c>
     </row>
     <row r="1457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
@@ -15805,9 +15781,6 @@
       <c r="B1457">
         <v>2010</v>
       </c>
-      <c r="C1457" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
@@ -15816,9 +15789,6 @@
       <c r="B1458">
         <v>2011</v>
       </c>
-      <c r="C1458" s="1">
-        <v>7.9443999999999999</v>
-      </c>
     </row>
     <row r="1459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
@@ -15827,9 +15797,6 @@
       <c r="B1459">
         <v>2012</v>
       </c>
-      <c r="C1459" s="1">
-        <v>10</v>
-      </c>
     </row>
     <row r="1460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
@@ -15838,9 +15805,6 @@
       <c r="B1460">
         <v>2013</v>
       </c>
-      <c r="C1460" s="1">
-        <v>13.25</v>
-      </c>
     </row>
     <row r="1461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
@@ -15849,9 +15813,6 @@
       <c r="B1461">
         <v>2014</v>
       </c>
-      <c r="C1461" s="1">
-        <v>6</v>
-      </c>
     </row>
     <row r="1462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
@@ -15861,7 +15822,7 @@
         <v>2015</v>
       </c>
       <c r="C1462" s="1">
-        <v>8.625</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.2">
@@ -15871,9 +15832,6 @@
       <c r="B1463">
         <v>2016</v>
       </c>
-      <c r="C1463" s="1">
-        <v>8.5</v>
-      </c>
     </row>
     <row r="1464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
@@ -15882,9 +15840,6 @@
       <c r="B1464">
         <v>2017</v>
       </c>
-      <c r="C1464" s="1">
-        <v>6</v>
-      </c>
     </row>
     <row r="1465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
@@ -15893,9 +15848,6 @@
       <c r="B1465">
         <v>1999</v>
       </c>
-      <c r="C1465" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
@@ -15920,9 +15872,6 @@
       <c r="B1468">
         <v>2002</v>
       </c>
-      <c r="C1468" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="1469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
@@ -15947,6 +15896,9 @@
       <c r="B1471">
         <v>2005</v>
       </c>
+      <c r="C1471" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
@@ -15963,9 +15915,6 @@
       <c r="B1473">
         <v>2007</v>
       </c>
-      <c r="C1473" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
@@ -15974,9 +15923,6 @@
       <c r="B1474">
         <v>2008</v>
       </c>
-      <c r="C1474" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
@@ -15985,6 +15931,9 @@
       <c r="B1475">
         <v>2009</v>
       </c>
+      <c r="C1475" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1476" t="s">
@@ -16017,6 +15966,9 @@
       <c r="B1479">
         <v>2013</v>
       </c>
+      <c r="C1479" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
@@ -16034,7 +15986,7 @@
         <v>2015</v>
       </c>
       <c r="C1481" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1482" spans="1:3" x14ac:dyDescent="0.2">
@@ -16044,6 +15996,9 @@
       <c r="B1482">
         <v>2016</v>
       </c>
+      <c r="C1482" s="1">
+        <v>1.1333</v>
+      </c>
     </row>
     <row r="1483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
@@ -16108,9 +16063,6 @@
       <c r="B1490">
         <v>2005</v>
       </c>
-      <c r="C1490" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="1491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
@@ -16144,7 +16096,7 @@
         <v>2009</v>
       </c>
       <c r="C1494" s="1">
-        <v>1</v>
+        <v>1.3332999999999999</v>
       </c>
     </row>
     <row r="1495" spans="1:3" x14ac:dyDescent="0.2">
@@ -16162,6 +16114,9 @@
       <c r="B1496">
         <v>2011</v>
       </c>
+      <c r="C1496" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
@@ -16170,6 +16125,9 @@
       <c r="B1497">
         <v>2012</v>
       </c>
+      <c r="C1497" s="1">
+        <v>1.3332999999999999</v>
+      </c>
     </row>
     <row r="1498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
@@ -16179,7 +16137,7 @@
         <v>2013</v>
       </c>
       <c r="C1498" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="1499" spans="1:3" x14ac:dyDescent="0.2">
@@ -16189,6 +16147,9 @@
       <c r="B1499">
         <v>2014</v>
       </c>
+      <c r="C1499" s="1">
+        <v>0.60119999999999996</v>
+      </c>
     </row>
     <row r="1500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
@@ -16197,9 +16158,6 @@
       <c r="B1500">
         <v>2015</v>
       </c>
-      <c r="C1500" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="1501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
@@ -16209,7 +16167,7 @@
         <v>2016</v>
       </c>
       <c r="C1501" s="1">
-        <v>1.1333</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="1502" spans="1:3" x14ac:dyDescent="0.2">
@@ -16251,6 +16209,9 @@
       <c r="B1506">
         <v>2002</v>
       </c>
+      <c r="C1506" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
@@ -16299,6 +16260,9 @@
       <c r="B1512">
         <v>2008</v>
       </c>
+      <c r="C1512" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
@@ -16307,9 +16271,6 @@
       <c r="B1513">
         <v>2009</v>
       </c>
-      <c r="C1513" s="1">
-        <v>1.3332999999999999</v>
-      </c>
     </row>
     <row r="1514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
@@ -16326,9 +16287,6 @@
       <c r="B1515">
         <v>2011</v>
       </c>
-      <c r="C1515" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="1516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
@@ -16337,9 +16295,6 @@
       <c r="B1516">
         <v>2012</v>
       </c>
-      <c r="C1516" s="1">
-        <v>1.3332999999999999</v>
-      </c>
     </row>
     <row r="1517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
@@ -16349,7 +16304,7 @@
         <v>2013</v>
       </c>
       <c r="C1517" s="1">
-        <v>0.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1518" spans="1:3" x14ac:dyDescent="0.2">
@@ -16360,7 +16315,7 @@
         <v>2014</v>
       </c>
       <c r="C1518" s="1">
-        <v>0.60119999999999996</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1519" spans="1:3" x14ac:dyDescent="0.2">
@@ -16379,7 +16334,7 @@
         <v>2016</v>
       </c>
       <c r="C1520" s="1">
-        <v>0.1429</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1521" spans="1:3" x14ac:dyDescent="0.2">
@@ -16389,6 +16344,9 @@
       <c r="B1521">
         <v>2017</v>
       </c>
+      <c r="C1521" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
@@ -16422,7 +16380,7 @@
         <v>2002</v>
       </c>
       <c r="C1525" s="1">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="1526" spans="1:3" x14ac:dyDescent="0.2">
@@ -16432,6 +16390,9 @@
       <c r="B1526">
         <v>2003</v>
       </c>
+      <c r="C1526" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="1527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
@@ -16440,6 +16401,9 @@
       <c r="B1527">
         <v>2004</v>
       </c>
+      <c r="C1527" s="1">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="1528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
@@ -16456,6 +16420,9 @@
       <c r="B1529">
         <v>2006</v>
       </c>
+      <c r="C1529" s="1">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="1530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
@@ -16464,6 +16431,9 @@
       <c r="B1530">
         <v>2007</v>
       </c>
+      <c r="C1530" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="1531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
@@ -16473,7 +16443,7 @@
         <v>2008</v>
       </c>
       <c r="C1531" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1532" spans="1:3" x14ac:dyDescent="0.2">
@@ -16483,6 +16453,9 @@
       <c r="B1532">
         <v>2009</v>
       </c>
+      <c r="C1532" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1533" t="s">
@@ -16491,6 +16464,9 @@
       <c r="B1533">
         <v>2010</v>
       </c>
+      <c r="C1533" s="1">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="1534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1534" t="s">
@@ -16507,6 +16483,9 @@
       <c r="B1535">
         <v>2012</v>
       </c>
+      <c r="C1535" s="1">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="1536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
@@ -16516,7 +16495,7 @@
         <v>2013</v>
       </c>
       <c r="C1536" s="1">
-        <v>2</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="1537" spans="1:3" x14ac:dyDescent="0.2">
@@ -16527,7 +16506,7 @@
         <v>2014</v>
       </c>
       <c r="C1537" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1538" spans="1:3" x14ac:dyDescent="0.2">
@@ -16537,6 +16516,9 @@
       <c r="B1538">
         <v>2015</v>
       </c>
+      <c r="C1538" s="1">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="1539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
@@ -16546,7 +16528,7 @@
         <v>2016</v>
       </c>
       <c r="C1539" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1540" spans="1:3" x14ac:dyDescent="0.2">
@@ -16557,7 +16539,7 @@
         <v>2017</v>
       </c>
       <c r="C1540" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1541" spans="1:3" x14ac:dyDescent="0.2">
@@ -16567,6 +16549,9 @@
       <c r="B1541">
         <v>1999</v>
       </c>
+      <c r="C1541" s="1">
+        <v>0.22220000000000001</v>
+      </c>
     </row>
     <row r="1542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
@@ -16575,6 +16560,9 @@
       <c r="B1542">
         <v>2000</v>
       </c>
+      <c r="C1542" s="1">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="1543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
@@ -16583,6 +16571,9 @@
       <c r="B1543">
         <v>2001</v>
       </c>
+      <c r="C1543" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
@@ -16591,9 +16582,6 @@
       <c r="B1544">
         <v>2002</v>
       </c>
-      <c r="C1544" s="1">
-        <v>0.66669999999999996</v>
-      </c>
     </row>
     <row r="1545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
@@ -16603,7 +16591,7 @@
         <v>2003</v>
       </c>
       <c r="C1545" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1546" spans="1:3" x14ac:dyDescent="0.2">
@@ -16614,7 +16602,7 @@
         <v>2004</v>
       </c>
       <c r="C1546" s="1">
-        <v>1.2</v>
+        <v>4.7786</v>
       </c>
     </row>
     <row r="1547" spans="1:3" x14ac:dyDescent="0.2">
@@ -16624,6 +16612,9 @@
       <c r="B1547">
         <v>2005</v>
       </c>
+      <c r="C1547" s="1">
+        <v>8.25</v>
+      </c>
     </row>
     <row r="1548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
@@ -16633,7 +16624,7 @@
         <v>2006</v>
       </c>
       <c r="C1548" s="1">
-        <v>0.45</v>
+        <v>3.8332999999999999</v>
       </c>
     </row>
     <row r="1549" spans="1:3" x14ac:dyDescent="0.2">
@@ -16644,7 +16635,7 @@
         <v>2007</v>
       </c>
       <c r="C1549" s="1">
-        <v>0.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1550" spans="1:3" x14ac:dyDescent="0.2">
@@ -16655,7 +16646,7 @@
         <v>2008</v>
       </c>
       <c r="C1550" s="1">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="1551" spans="1:3" x14ac:dyDescent="0.2">
@@ -16666,7 +16657,7 @@
         <v>2009</v>
       </c>
       <c r="C1551" s="1">
-        <v>0.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1552" spans="1:3" x14ac:dyDescent="0.2">
@@ -16677,7 +16668,7 @@
         <v>2010</v>
       </c>
       <c r="C1552" s="1">
-        <v>3.75</v>
+        <v>1.9556</v>
       </c>
     </row>
     <row r="1553" spans="1:3" x14ac:dyDescent="0.2">
@@ -16687,6 +16678,9 @@
       <c r="B1553">
         <v>2011</v>
       </c>
+      <c r="C1553" s="1">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="1554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
@@ -16696,7 +16690,7 @@
         <v>2012</v>
       </c>
       <c r="C1554" s="1">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="1555" spans="1:3" x14ac:dyDescent="0.2">
@@ -16707,7 +16701,7 @@
         <v>2013</v>
       </c>
       <c r="C1555" s="1">
-        <v>5.25</v>
+        <v>5.1909000000000001</v>
       </c>
     </row>
     <row r="1556" spans="1:3" x14ac:dyDescent="0.2">
@@ -16718,7 +16712,7 @@
         <v>2014</v>
       </c>
       <c r="C1556" s="1">
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="1557" spans="1:3" x14ac:dyDescent="0.2">
@@ -16729,7 +16723,7 @@
         <v>2015</v>
       </c>
       <c r="C1557" s="1">
-        <v>3.5</v>
+        <v>3.8555999999999999</v>
       </c>
     </row>
     <row r="1558" spans="1:3" x14ac:dyDescent="0.2">
@@ -16740,7 +16734,7 @@
         <v>2016</v>
       </c>
       <c r="C1558" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1559" spans="1:3" x14ac:dyDescent="0.2">
@@ -16751,7 +16745,7 @@
         <v>2017</v>
       </c>
       <c r="C1559" s="1">
-        <v>2</v>
+        <v>3.6667000000000001</v>
       </c>
     </row>
     <row r="1560" spans="1:3" x14ac:dyDescent="0.2">
@@ -16761,9 +16755,6 @@
       <c r="B1560">
         <v>1999</v>
       </c>
-      <c r="C1560" s="1">
-        <v>0.22220000000000001</v>
-      </c>
     </row>
     <row r="1561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
@@ -16772,9 +16763,6 @@
       <c r="B1561">
         <v>2000</v>
       </c>
-      <c r="C1561" s="1">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="1562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
@@ -16783,9 +16771,6 @@
       <c r="B1562">
         <v>2001</v>
       </c>
-      <c r="C1562" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
@@ -16802,9 +16787,6 @@
       <c r="B1564">
         <v>2003</v>
       </c>
-      <c r="C1564" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="1565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
@@ -16813,9 +16795,6 @@
       <c r="B1565">
         <v>2004</v>
       </c>
-      <c r="C1565" s="1">
-        <v>4.7786</v>
-      </c>
     </row>
     <row r="1566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
@@ -16824,9 +16803,6 @@
       <c r="B1566">
         <v>2005</v>
       </c>
-      <c r="C1566" s="1">
-        <v>8.25</v>
-      </c>
     </row>
     <row r="1567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
@@ -16835,9 +16811,6 @@
       <c r="B1567">
         <v>2006</v>
       </c>
-      <c r="C1567" s="1">
-        <v>3.8332999999999999</v>
-      </c>
     </row>
     <row r="1568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
@@ -16847,7 +16820,7 @@
         <v>2007</v>
       </c>
       <c r="C1568" s="1">
-        <v>4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="1569" spans="1:3" x14ac:dyDescent="0.2">
@@ -16857,9 +16830,6 @@
       <c r="B1569">
         <v>2008</v>
       </c>
-      <c r="C1569" s="1">
-        <v>3.5</v>
-      </c>
     </row>
     <row r="1570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
@@ -16869,7 +16839,7 @@
         <v>2009</v>
       </c>
       <c r="C1570" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1571" spans="1:3" x14ac:dyDescent="0.2">
@@ -16879,9 +16849,6 @@
       <c r="B1571">
         <v>2010</v>
       </c>
-      <c r="C1571" s="1">
-        <v>1.9556</v>
-      </c>
     </row>
     <row r="1572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
@@ -16890,9 +16857,6 @@
       <c r="B1572">
         <v>2011</v>
       </c>
-      <c r="C1572" s="1">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="1573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
@@ -16902,7 +16866,7 @@
         <v>2012</v>
       </c>
       <c r="C1573" s="1">
-        <v>3.25</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="1574" spans="1:3" x14ac:dyDescent="0.2">
@@ -16913,7 +16877,7 @@
         <v>2013</v>
       </c>
       <c r="C1574" s="1">
-        <v>5.1909000000000001</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="1575" spans="1:3" x14ac:dyDescent="0.2">
@@ -16923,9 +16887,6 @@
       <c r="B1575">
         <v>2014</v>
       </c>
-      <c r="C1575" s="1">
-        <v>3.75</v>
-      </c>
     </row>
     <row r="1576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
@@ -16935,7 +16896,7 @@
         <v>2015</v>
       </c>
       <c r="C1576" s="1">
-        <v>3.8555999999999999</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1577" spans="1:3" x14ac:dyDescent="0.2">
@@ -16946,7 +16907,7 @@
         <v>2016</v>
       </c>
       <c r="C1577" s="1">
-        <v>4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="1578" spans="1:3" x14ac:dyDescent="0.2">
@@ -16956,9 +16917,6 @@
       <c r="B1578">
         <v>2017</v>
       </c>
-      <c r="C1578" s="1">
-        <v>3.6667000000000001</v>
-      </c>
     </row>
     <row r="1579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
@@ -16967,6 +16925,9 @@
       <c r="B1579">
         <v>1999</v>
       </c>
+      <c r="C1579" s="1">
+        <v>3.6825000000000001</v>
+      </c>
     </row>
     <row r="1580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
@@ -16975,6 +16936,9 @@
       <c r="B1580">
         <v>2000</v>
       </c>
+      <c r="C1580" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="1581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
@@ -16983,6 +16947,9 @@
       <c r="B1581">
         <v>2001</v>
       </c>
+      <c r="C1581" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="1582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
@@ -16991,6 +16958,9 @@
       <c r="B1582">
         <v>2002</v>
       </c>
+      <c r="C1582" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="1583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
@@ -16999,6 +16969,9 @@
       <c r="B1583">
         <v>2003</v>
       </c>
+      <c r="C1583" s="1">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="1584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
@@ -17007,6 +16980,9 @@
       <c r="B1584">
         <v>2004</v>
       </c>
+      <c r="C1584" s="1">
+        <v>5.7857000000000003</v>
+      </c>
     </row>
     <row r="1585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
@@ -17015,6 +16991,9 @@
       <c r="B1585">
         <v>2005</v>
       </c>
+      <c r="C1585" s="1">
+        <v>5.9333</v>
+      </c>
     </row>
     <row r="1586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
@@ -17023,6 +17002,9 @@
       <c r="B1586">
         <v>2006</v>
       </c>
+      <c r="C1586" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="1587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
@@ -17032,7 +17014,7 @@
         <v>2007</v>
       </c>
       <c r="C1587" s="1">
-        <v>0.25</v>
+        <v>5.8666999999999998</v>
       </c>
     </row>
     <row r="1588" spans="1:3" x14ac:dyDescent="0.2">
@@ -17042,6 +17024,9 @@
       <c r="B1588">
         <v>2008</v>
       </c>
+      <c r="C1588" s="1">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="1589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
@@ -17051,7 +17036,7 @@
         <v>2009</v>
       </c>
       <c r="C1589" s="1">
-        <v>3</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="1590" spans="1:3" x14ac:dyDescent="0.2">
@@ -17061,6 +17046,9 @@
       <c r="B1590">
         <v>2010</v>
       </c>
+      <c r="C1590" s="1">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="1591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1591" t="s">
@@ -17069,6 +17057,9 @@
       <c r="B1591">
         <v>2011</v>
       </c>
+      <c r="C1591" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="1592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1592" t="s">
@@ -17078,7 +17069,7 @@
         <v>2012</v>
       </c>
       <c r="C1592" s="1">
-        <v>0.41670000000000001</v>
+        <v>9.1667000000000005</v>
       </c>
     </row>
     <row r="1593" spans="1:3" x14ac:dyDescent="0.2">
@@ -17089,7 +17080,7 @@
         <v>2013</v>
       </c>
       <c r="C1593" s="1">
-        <v>3.15</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="1594" spans="1:3" x14ac:dyDescent="0.2">
@@ -17099,6 +17090,9 @@
       <c r="B1594">
         <v>2014</v>
       </c>
+      <c r="C1594" s="1">
+        <v>5.1666999999999996</v>
+      </c>
     </row>
     <row r="1595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1595" t="s">
@@ -17108,7 +17102,7 @@
         <v>2015</v>
       </c>
       <c r="C1595" s="1">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="1596" spans="1:3" x14ac:dyDescent="0.2">
@@ -17119,7 +17113,7 @@
         <v>2016</v>
       </c>
       <c r="C1596" s="1">
-        <v>0.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1597" spans="1:3" x14ac:dyDescent="0.2">
@@ -17129,6 +17123,9 @@
       <c r="B1597">
         <v>2017</v>
       </c>
+      <c r="C1597" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1598" t="s">
@@ -17138,7 +17135,7 @@
         <v>1999</v>
       </c>
       <c r="C1598" s="1">
-        <v>3.6825000000000001</v>
+        <v>50.272599999999997</v>
       </c>
     </row>
     <row r="1599" spans="1:3" x14ac:dyDescent="0.2">
@@ -17149,7 +17146,7 @@
         <v>2000</v>
       </c>
       <c r="C1599" s="1">
-        <v>3</v>
+        <v>63.265099999999997</v>
       </c>
     </row>
     <row r="1600" spans="1:3" x14ac:dyDescent="0.2">
@@ -17160,7 +17157,7 @@
         <v>2001</v>
       </c>
       <c r="C1600" s="1">
-        <v>2</v>
+        <v>64.4893</v>
       </c>
     </row>
     <row r="1601" spans="1:3" x14ac:dyDescent="0.2">
@@ -17171,7 +17168,7 @@
         <v>2002</v>
       </c>
       <c r="C1601" s="1">
-        <v>2</v>
+        <v>56.749299999999998</v>
       </c>
     </row>
     <row r="1602" spans="1:3" x14ac:dyDescent="0.2">
@@ -17182,7 +17179,7 @@
         <v>2003</v>
       </c>
       <c r="C1602" s="1">
-        <v>4.5</v>
+        <v>65.979799999999997</v>
       </c>
     </row>
     <row r="1603" spans="1:3" x14ac:dyDescent="0.2">
@@ -17193,7 +17190,7 @@
         <v>2004</v>
       </c>
       <c r="C1603" s="1">
-        <v>5.7857000000000003</v>
+        <v>61.886499999999998</v>
       </c>
     </row>
     <row r="1604" spans="1:3" x14ac:dyDescent="0.2">
@@ -17204,7 +17201,7 @@
         <v>2005</v>
       </c>
       <c r="C1604" s="1">
-        <v>5.9333</v>
+        <v>68.307100000000005</v>
       </c>
     </row>
     <row r="1605" spans="1:3" x14ac:dyDescent="0.2">
@@ -17215,7 +17212,7 @@
         <v>2006</v>
       </c>
       <c r="C1605" s="1">
-        <v>6</v>
+        <v>82.989699999999999</v>
       </c>
     </row>
     <row r="1606" spans="1:3" x14ac:dyDescent="0.2">
@@ -17226,7 +17223,7 @@
         <v>2007</v>
       </c>
       <c r="C1606" s="1">
-        <v>5.8666999999999998</v>
+        <v>98.415099999999995</v>
       </c>
     </row>
     <row r="1607" spans="1:3" x14ac:dyDescent="0.2">
@@ -17237,7 +17234,7 @@
         <v>2008</v>
       </c>
       <c r="C1607" s="1">
-        <v>4.5</v>
+        <v>96.333299999999994</v>
       </c>
     </row>
     <row r="1608" spans="1:3" x14ac:dyDescent="0.2">
@@ -17248,7 +17245,7 @@
         <v>2009</v>
       </c>
       <c r="C1608" s="1">
-        <v>10.75</v>
+        <v>99.51</v>
       </c>
     </row>
     <row r="1609" spans="1:3" x14ac:dyDescent="0.2">
@@ -17259,7 +17256,7 @@
         <v>2010</v>
       </c>
       <c r="C1609" s="1">
-        <v>5.5</v>
+        <v>110.31789999999999</v>
       </c>
     </row>
     <row r="1610" spans="1:3" x14ac:dyDescent="0.2">
@@ -17270,7 +17267,7 @@
         <v>2011</v>
       </c>
       <c r="C1610" s="1">
-        <v>6</v>
+        <v>136.9667</v>
       </c>
     </row>
     <row r="1611" spans="1:3" x14ac:dyDescent="0.2">
@@ -17281,7 +17278,7 @@
         <v>2012</v>
       </c>
       <c r="C1611" s="1">
-        <v>9.1667000000000005</v>
+        <v>114.96510000000001</v>
       </c>
     </row>
     <row r="1612" spans="1:3" x14ac:dyDescent="0.2">
@@ -17292,7 +17289,7 @@
         <v>2013</v>
       </c>
       <c r="C1612" s="1">
-        <v>11.5</v>
+        <v>111.1786</v>
       </c>
     </row>
     <row r="1613" spans="1:3" x14ac:dyDescent="0.2">
@@ -17303,7 +17300,7 @@
         <v>2014</v>
       </c>
       <c r="C1613" s="1">
-        <v>5.1666999999999996</v>
+        <v>129.44399999999999</v>
       </c>
     </row>
     <row r="1614" spans="1:3" x14ac:dyDescent="0.2">
@@ -17314,7 +17311,7 @@
         <v>2015</v>
       </c>
       <c r="C1614" s="1">
-        <v>4.5</v>
+        <v>83.620199999999997</v>
       </c>
     </row>
     <row r="1615" spans="1:3" x14ac:dyDescent="0.2">
@@ -17325,7 +17322,7 @@
         <v>2016</v>
       </c>
       <c r="C1615" s="1">
-        <v>4</v>
+        <v>78.517899999999997</v>
       </c>
     </row>
     <row r="1616" spans="1:3" x14ac:dyDescent="0.2">
@@ -17336,7 +17333,7 @@
         <v>2017</v>
       </c>
       <c r="C1616" s="1">
-        <v>1</v>
+        <v>62.25</v>
       </c>
     </row>
     <row r="1617" spans="1:3" x14ac:dyDescent="0.2">
@@ -17347,7 +17344,7 @@
         <v>1999</v>
       </c>
       <c r="C1617" s="1">
-        <v>50.272599999999997</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1618" spans="1:3" x14ac:dyDescent="0.2">
@@ -17358,7 +17355,7 @@
         <v>2000</v>
       </c>
       <c r="C1618" s="1">
-        <v>63.265099999999997</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1619" spans="1:3" x14ac:dyDescent="0.2">
@@ -17369,7 +17366,7 @@
         <v>2001</v>
       </c>
       <c r="C1619" s="1">
-        <v>64.4893</v>
+        <v>1.3332999999999999</v>
       </c>
     </row>
     <row r="1620" spans="1:3" x14ac:dyDescent="0.2">
@@ -17380,7 +17377,7 @@
         <v>2002</v>
       </c>
       <c r="C1620" s="1">
-        <v>56.749299999999998</v>
+        <v>3.3332999999999999</v>
       </c>
     </row>
     <row r="1621" spans="1:3" x14ac:dyDescent="0.2">
@@ -17390,9 +17387,6 @@
       <c r="B1621">
         <v>2003</v>
       </c>
-      <c r="C1621" s="1">
-        <v>65.979799999999997</v>
-      </c>
     </row>
     <row r="1622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1622" t="s">
@@ -17402,7 +17396,7 @@
         <v>2004</v>
       </c>
       <c r="C1622" s="1">
-        <v>61.886499999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1623" spans="1:3" x14ac:dyDescent="0.2">
@@ -17413,7 +17407,7 @@
         <v>2005</v>
       </c>
       <c r="C1623" s="1">
-        <v>68.307100000000005</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1624" spans="1:3" x14ac:dyDescent="0.2">
@@ -17424,7 +17418,7 @@
         <v>2006</v>
       </c>
       <c r="C1624" s="1">
-        <v>82.989699999999999</v>
+        <v>7.5833000000000004</v>
       </c>
     </row>
     <row r="1625" spans="1:3" x14ac:dyDescent="0.2">
@@ -17435,7 +17429,7 @@
         <v>2007</v>
       </c>
       <c r="C1625" s="1">
-        <v>98.415099999999995</v>
+        <v>10.966100000000001</v>
       </c>
     </row>
     <row r="1626" spans="1:3" x14ac:dyDescent="0.2">
@@ -17446,7 +17440,7 @@
         <v>2008</v>
       </c>
       <c r="C1626" s="1">
-        <v>96.333299999999994</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="1627" spans="1:3" x14ac:dyDescent="0.2">
@@ -17457,7 +17451,7 @@
         <v>2009</v>
       </c>
       <c r="C1627" s="1">
-        <v>99.51</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="1628" spans="1:3" x14ac:dyDescent="0.2">
@@ -17468,7 +17462,7 @@
         <v>2010</v>
       </c>
       <c r="C1628" s="1">
-        <v>110.31789999999999</v>
+        <v>12.0985</v>
       </c>
     </row>
     <row r="1629" spans="1:3" x14ac:dyDescent="0.2">
@@ -17479,7 +17473,7 @@
         <v>2011</v>
       </c>
       <c r="C1629" s="1">
-        <v>136.9667</v>
+        <v>43.133299999999998</v>
       </c>
     </row>
     <row r="1630" spans="1:3" x14ac:dyDescent="0.2">
@@ -17490,7 +17484,7 @@
         <v>2012</v>
       </c>
       <c r="C1630" s="1">
-        <v>114.96510000000001</v>
+        <v>47.445799999999998</v>
       </c>
     </row>
     <row r="1631" spans="1:3" x14ac:dyDescent="0.2">
@@ -17501,7 +17495,7 @@
         <v>2013</v>
       </c>
       <c r="C1631" s="1">
-        <v>111.1786</v>
+        <v>50.3611</v>
       </c>
     </row>
     <row r="1632" spans="1:3" x14ac:dyDescent="0.2">
@@ -17512,7 +17506,7 @@
         <v>2014</v>
       </c>
       <c r="C1632" s="1">
-        <v>129.44399999999999</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="1633" spans="1:3" x14ac:dyDescent="0.2">
@@ -17523,7 +17517,7 @@
         <v>2015</v>
       </c>
       <c r="C1633" s="1">
-        <v>83.620199999999997</v>
+        <v>91.180999999999997</v>
       </c>
     </row>
     <row r="1634" spans="1:3" x14ac:dyDescent="0.2">
@@ -17534,7 +17528,7 @@
         <v>2016</v>
       </c>
       <c r="C1634" s="1">
-        <v>78.517899999999997</v>
+        <v>66.826599999999999</v>
       </c>
     </row>
     <row r="1635" spans="1:3" x14ac:dyDescent="0.2">
@@ -17545,7 +17539,7 @@
         <v>2017</v>
       </c>
       <c r="C1635" s="1">
-        <v>62.25</v>
+        <v>86.261899999999997</v>
       </c>
     </row>
     <row r="1636" spans="1:3" x14ac:dyDescent="0.2">
@@ -17555,9 +17549,6 @@
       <c r="B1636">
         <v>1999</v>
       </c>
-      <c r="C1636" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="1637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1637" t="s">
@@ -17566,9 +17557,6 @@
       <c r="B1637">
         <v>2000</v>
       </c>
-      <c r="C1637" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="1638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1638" t="s">
@@ -17577,9 +17565,6 @@
       <c r="B1638">
         <v>2001</v>
       </c>
-      <c r="C1638" s="1">
-        <v>1.3332999999999999</v>
-      </c>
     </row>
     <row r="1639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1639" t="s">
@@ -17588,9 +17573,6 @@
       <c r="B1639">
         <v>2002</v>
       </c>
-      <c r="C1639" s="1">
-        <v>3.3332999999999999</v>
-      </c>
     </row>
     <row r="1640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1640" t="s">
@@ -17607,9 +17589,6 @@
       <c r="B1641">
         <v>2004</v>
       </c>
-      <c r="C1641" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="1642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1642" t="s">
@@ -17618,9 +17597,6 @@
       <c r="B1642">
         <v>2005</v>
       </c>
-      <c r="C1642" s="1">
-        <v>7.5</v>
-      </c>
     </row>
     <row r="1643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1643" t="s">
@@ -17629,9 +17605,6 @@
       <c r="B1643">
         <v>2006</v>
       </c>
-      <c r="C1643" s="1">
-        <v>7.5833000000000004</v>
-      </c>
     </row>
     <row r="1644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1644" t="s">
@@ -17640,9 +17613,6 @@
       <c r="B1644">
         <v>2007</v>
       </c>
-      <c r="C1644" s="1">
-        <v>10.966100000000001</v>
-      </c>
     </row>
     <row r="1645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1645" t="s">
@@ -17651,9 +17621,6 @@
       <c r="B1645">
         <v>2008</v>
       </c>
-      <c r="C1645" s="1">
-        <v>7.7</v>
-      </c>
     </row>
     <row r="1646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1646" t="s">
@@ -17662,9 +17629,6 @@
       <c r="B1646">
         <v>2009</v>
       </c>
-      <c r="C1646" s="1">
-        <v>8.5</v>
-      </c>
     </row>
     <row r="1647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1647" t="s">
@@ -17673,9 +17637,6 @@
       <c r="B1647">
         <v>2010</v>
       </c>
-      <c r="C1647" s="1">
-        <v>12.0985</v>
-      </c>
     </row>
     <row r="1648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1648" t="s">
@@ -17684,9 +17645,6 @@
       <c r="B1648">
         <v>2011</v>
       </c>
-      <c r="C1648" s="1">
-        <v>43.133299999999998</v>
-      </c>
     </row>
     <row r="1649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1649" t="s">
@@ -17695,9 +17653,6 @@
       <c r="B1649">
         <v>2012</v>
       </c>
-      <c r="C1649" s="1">
-        <v>47.445799999999998</v>
-      </c>
     </row>
     <row r="1650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1650" t="s">
@@ -17706,9 +17661,6 @@
       <c r="B1650">
         <v>2013</v>
       </c>
-      <c r="C1650" s="1">
-        <v>50.3611</v>
-      </c>
     </row>
     <row r="1651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1651" t="s">
@@ -17717,9 +17669,6 @@
       <c r="B1651">
         <v>2014</v>
       </c>
-      <c r="C1651" s="1">
-        <v>75.5</v>
-      </c>
     </row>
     <row r="1652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1652" t="s">
@@ -17728,9 +17677,6 @@
       <c r="B1652">
         <v>2015</v>
       </c>
-      <c r="C1652" s="1">
-        <v>91.180999999999997</v>
-      </c>
     </row>
     <row r="1653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1653" t="s">
@@ -17739,9 +17685,6 @@
       <c r="B1653">
         <v>2016</v>
       </c>
-      <c r="C1653" s="1">
-        <v>66.826599999999999</v>
-      </c>
     </row>
     <row r="1654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1654" t="s">
@@ -17750,9 +17693,6 @@
       <c r="B1654">
         <v>2017</v>
       </c>
-      <c r="C1654" s="1">
-        <v>86.261899999999997</v>
-      </c>
     </row>
     <row r="1655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1655" t="s">
@@ -17761,6 +17701,9 @@
       <c r="B1655">
         <v>1999</v>
       </c>
+      <c r="C1655" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="1656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1656" t="s">
@@ -17769,6 +17712,9 @@
       <c r="B1656">
         <v>2000</v>
       </c>
+      <c r="C1656" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="1657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1657" t="s">
@@ -17777,6 +17723,9 @@
       <c r="B1657">
         <v>2001</v>
       </c>
+      <c r="C1657" s="1">
+        <v>5.6666999999999996</v>
+      </c>
     </row>
     <row r="1658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1658" t="s">
@@ -17785,6 +17734,9 @@
       <c r="B1658">
         <v>2002</v>
       </c>
+      <c r="C1658" s="1">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="1659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1659" t="s">
@@ -17793,6 +17745,9 @@
       <c r="B1659">
         <v>2003</v>
       </c>
+      <c r="C1659" s="1">
+        <v>18.473800000000001</v>
+      </c>
     </row>
     <row r="1660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1660" t="s">
@@ -17801,6 +17756,9 @@
       <c r="B1660">
         <v>2004</v>
       </c>
+      <c r="C1660" s="1">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="1661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1661" t="s">
@@ -17809,6 +17767,9 @@
       <c r="B1661">
         <v>2005</v>
       </c>
+      <c r="C1661" s="1">
+        <v>25.3095</v>
+      </c>
     </row>
     <row r="1662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1662" t="s">
@@ -17817,6 +17778,9 @@
       <c r="B1662">
         <v>2006</v>
       </c>
+      <c r="C1662" s="1">
+        <v>25.698899999999998</v>
+      </c>
     </row>
     <row r="1663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1663" t="s">
@@ -17825,6 +17789,9 @@
       <c r="B1663">
         <v>2007</v>
       </c>
+      <c r="C1663" s="1">
+        <v>45.7316</v>
+      </c>
     </row>
     <row r="1664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1664" t="s">
@@ -17833,6 +17800,9 @@
       <c r="B1664">
         <v>2008</v>
       </c>
+      <c r="C1664" s="1">
+        <v>66.186899999999994</v>
+      </c>
     </row>
     <row r="1665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1665" t="s">
@@ -17841,6 +17811,9 @@
       <c r="B1665">
         <v>2009</v>
       </c>
+      <c r="C1665" s="1">
+        <v>75.902500000000003</v>
+      </c>
     </row>
     <row r="1666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1666" t="s">
@@ -17849,6 +17822,9 @@
       <c r="B1666">
         <v>2010</v>
       </c>
+      <c r="C1666" s="1">
+        <v>78.182400000000001</v>
+      </c>
     </row>
     <row r="1667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1667" t="s">
@@ -17857,6 +17833,9 @@
       <c r="B1667">
         <v>2011</v>
       </c>
+      <c r="C1667" s="1">
+        <v>85.035700000000006</v>
+      </c>
     </row>
     <row r="1668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1668" t="s">
@@ -17865,6 +17844,9 @@
       <c r="B1668">
         <v>2012</v>
       </c>
+      <c r="C1668" s="1">
+        <v>79.768900000000002</v>
+      </c>
     </row>
     <row r="1669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1669" t="s">
@@ -17873,6 +17855,9 @@
       <c r="B1669">
         <v>2013</v>
       </c>
+      <c r="C1669" s="1">
+        <v>72.391099999999994</v>
+      </c>
     </row>
     <row r="1670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1670" t="s">
@@ -17881,6 +17866,9 @@
       <c r="B1670">
         <v>2014</v>
       </c>
+      <c r="C1670" s="1">
+        <v>68.767899999999997</v>
+      </c>
     </row>
     <row r="1671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1671" t="s">
@@ -17889,6 +17877,9 @@
       <c r="B1671">
         <v>2015</v>
       </c>
+      <c r="C1671" s="1">
+        <v>65.283299999999997</v>
+      </c>
     </row>
     <row r="1672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1672" t="s">
@@ -17897,6 +17888,9 @@
       <c r="B1672">
         <v>2016</v>
       </c>
+      <c r="C1672" s="1">
+        <v>63.604799999999997</v>
+      </c>
     </row>
     <row r="1673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1673" t="s">
@@ -17905,6 +17899,9 @@
       <c r="B1673">
         <v>2017</v>
       </c>
+      <c r="C1673" s="1">
+        <v>38.881</v>
+      </c>
     </row>
     <row r="1674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1674" t="s">
@@ -17914,7 +17911,7 @@
         <v>1999</v>
       </c>
       <c r="C1674" s="1">
-        <v>8</v>
+        <v>41.15</v>
       </c>
     </row>
     <row r="1675" spans="1:3" x14ac:dyDescent="0.2">
@@ -17925,7 +17922,7 @@
         <v>2000</v>
       </c>
       <c r="C1675" s="1">
-        <v>9</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="1676" spans="1:3" x14ac:dyDescent="0.2">
@@ -17936,7 +17933,7 @@
         <v>2001</v>
       </c>
       <c r="C1676" s="1">
-        <v>5.6666999999999996</v>
+        <v>50.25</v>
       </c>
     </row>
     <row r="1677" spans="1:3" x14ac:dyDescent="0.2">
@@ -17947,7 +17944,7 @@
         <v>2002</v>
       </c>
       <c r="C1677" s="1">
-        <v>12.5</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="1678" spans="1:3" x14ac:dyDescent="0.2">
@@ -17958,7 +17955,7 @@
         <v>2003</v>
       </c>
       <c r="C1678" s="1">
-        <v>18.473800000000001</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="1679" spans="1:3" x14ac:dyDescent="0.2">
@@ -17969,7 +17966,7 @@
         <v>2004</v>
       </c>
       <c r="C1679" s="1">
-        <v>19.5</v>
+        <v>39.166699999999999</v>
       </c>
     </row>
     <row r="1680" spans="1:3" x14ac:dyDescent="0.2">
@@ -17980,7 +17977,7 @@
         <v>2005</v>
       </c>
       <c r="C1680" s="1">
-        <v>25.3095</v>
+        <v>53.666699999999999</v>
       </c>
     </row>
     <row r="1681" spans="1:3" x14ac:dyDescent="0.2">
@@ -17991,7 +17988,7 @@
         <v>2006</v>
       </c>
       <c r="C1681" s="1">
-        <v>25.698899999999998</v>
+        <v>38.533299999999997</v>
       </c>
     </row>
     <row r="1682" spans="1:3" x14ac:dyDescent="0.2">
@@ -18002,7 +17999,7 @@
         <v>2007</v>
       </c>
       <c r="C1682" s="1">
-        <v>45.7316</v>
+        <v>42.416699999999999</v>
       </c>
     </row>
     <row r="1683" spans="1:3" x14ac:dyDescent="0.2">
@@ -18013,7 +18010,7 @@
         <v>2008</v>
       </c>
       <c r="C1683" s="1">
-        <v>66.186899999999994</v>
+        <v>47.892899999999997</v>
       </c>
     </row>
     <row r="1684" spans="1:3" x14ac:dyDescent="0.2">
@@ -18024,7 +18021,7 @@
         <v>2009</v>
       </c>
       <c r="C1684" s="1">
-        <v>75.902500000000003</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="1685" spans="1:3" x14ac:dyDescent="0.2">
@@ -18035,7 +18032,7 @@
         <v>2010</v>
       </c>
       <c r="C1685" s="1">
-        <v>78.182400000000001</v>
+        <v>43.825099999999999</v>
       </c>
     </row>
     <row r="1686" spans="1:3" x14ac:dyDescent="0.2">
@@ -18046,7 +18043,7 @@
         <v>2011</v>
       </c>
       <c r="C1686" s="1">
-        <v>85.035700000000006</v>
+        <v>41.683300000000003</v>
       </c>
     </row>
     <row r="1687" spans="1:3" x14ac:dyDescent="0.2">
@@ -18057,7 +18054,7 @@
         <v>2012</v>
       </c>
       <c r="C1687" s="1">
-        <v>79.768900000000002</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="1688" spans="1:3" x14ac:dyDescent="0.2">
@@ -18068,7 +18065,7 @@
         <v>2013</v>
       </c>
       <c r="C1688" s="1">
-        <v>72.391099999999994</v>
+        <v>35.716700000000003</v>
       </c>
     </row>
     <row r="1689" spans="1:3" x14ac:dyDescent="0.2">
@@ -18079,7 +18076,7 @@
         <v>2014</v>
       </c>
       <c r="C1689" s="1">
-        <v>68.767899999999997</v>
+        <v>38.908299999999997</v>
       </c>
     </row>
     <row r="1690" spans="1:3" x14ac:dyDescent="0.2">
@@ -18090,7 +18087,7 @@
         <v>2015</v>
       </c>
       <c r="C1690" s="1">
-        <v>65.283299999999997</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="1691" spans="1:3" x14ac:dyDescent="0.2">
@@ -18101,7 +18098,7 @@
         <v>2016</v>
       </c>
       <c r="C1691" s="1">
-        <v>63.604799999999997</v>
+        <v>25.866700000000002</v>
       </c>
     </row>
     <row r="1692" spans="1:3" x14ac:dyDescent="0.2">
@@ -18112,7 +18109,7 @@
         <v>2017</v>
       </c>
       <c r="C1692" s="1">
-        <v>38.881</v>
+        <v>14.333299999999999</v>
       </c>
     </row>
     <row r="1693" spans="1:3" x14ac:dyDescent="0.2">
@@ -18122,9 +18119,6 @@
       <c r="B1693">
         <v>1999</v>
       </c>
-      <c r="C1693" s="1">
-        <v>41.15</v>
-      </c>
     </row>
     <row r="1694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1694" t="s">
@@ -18134,7 +18128,7 @@
         <v>2000</v>
       </c>
       <c r="C1694" s="1">
-        <v>35.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1695" spans="1:3" x14ac:dyDescent="0.2">
@@ -18144,9 +18138,6 @@
       <c r="B1695">
         <v>2001</v>
       </c>
-      <c r="C1695" s="1">
-        <v>50.25</v>
-      </c>
     </row>
     <row r="1696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1696" t="s">
@@ -18156,7 +18147,7 @@
         <v>2002</v>
       </c>
       <c r="C1696" s="1">
-        <v>53.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1697" spans="1:3" x14ac:dyDescent="0.2">
@@ -18167,7 +18158,7 @@
         <v>2003</v>
       </c>
       <c r="C1697" s="1">
-        <v>37.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1698" spans="1:3" x14ac:dyDescent="0.2">
@@ -18177,9 +18168,6 @@
       <c r="B1698">
         <v>2004</v>
       </c>
-      <c r="C1698" s="1">
-        <v>39.166699999999999</v>
-      </c>
     </row>
     <row r="1699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1699" t="s">
@@ -18188,9 +18176,6 @@
       <c r="B1699">
         <v>2005</v>
       </c>
-      <c r="C1699" s="1">
-        <v>53.666699999999999</v>
-      </c>
     </row>
     <row r="1700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1700" t="s">
@@ -18200,7 +18185,7 @@
         <v>2006</v>
       </c>
       <c r="C1700" s="1">
-        <v>38.533299999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1701" spans="1:3" x14ac:dyDescent="0.2">
@@ -18211,7 +18196,7 @@
         <v>2007</v>
       </c>
       <c r="C1701" s="1">
-        <v>42.416699999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1702" spans="1:3" x14ac:dyDescent="0.2">
@@ -18222,7 +18207,7 @@
         <v>2008</v>
       </c>
       <c r="C1702" s="1">
-        <v>47.892899999999997</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1703" spans="1:3" x14ac:dyDescent="0.2">
@@ -18233,7 +18218,7 @@
         <v>2009</v>
       </c>
       <c r="C1703" s="1">
-        <v>37.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="1704" spans="1:3" x14ac:dyDescent="0.2">
@@ -18244,7 +18229,7 @@
         <v>2010</v>
       </c>
       <c r="C1704" s="1">
-        <v>43.825099999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1705" spans="1:3" x14ac:dyDescent="0.2">
@@ -18254,9 +18239,6 @@
       <c r="B1705">
         <v>2011</v>
       </c>
-      <c r="C1705" s="1">
-        <v>41.683300000000003</v>
-      </c>
     </row>
     <row r="1706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1706" t="s">
@@ -18266,7 +18248,7 @@
         <v>2012</v>
       </c>
       <c r="C1706" s="1">
-        <v>39.200000000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1707" spans="1:3" x14ac:dyDescent="0.2">
@@ -18277,7 +18259,7 @@
         <v>2013</v>
       </c>
       <c r="C1707" s="1">
-        <v>35.716700000000003</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1708" spans="1:3" x14ac:dyDescent="0.2">
@@ -18287,9 +18269,6 @@
       <c r="B1708">
         <v>2014</v>
       </c>
-      <c r="C1708" s="1">
-        <v>38.908299999999997</v>
-      </c>
     </row>
     <row r="1709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1709" t="s">
@@ -18299,7 +18278,7 @@
         <v>2015</v>
       </c>
       <c r="C1709" s="1">
-        <v>41.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1710" spans="1:3" x14ac:dyDescent="0.2">
@@ -18310,7 +18289,7 @@
         <v>2016</v>
       </c>
       <c r="C1710" s="1">
-        <v>25.866700000000002</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="1711" spans="1:3" x14ac:dyDescent="0.2">
@@ -18320,9 +18299,6 @@
       <c r="B1711">
         <v>2017</v>
       </c>
-      <c r="C1711" s="1">
-        <v>14.333299999999999</v>
-      </c>
     </row>
     <row r="1712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1712" t="s">
@@ -18331,6 +18307,9 @@
       <c r="B1712">
         <v>1999</v>
       </c>
+      <c r="C1712" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="1713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1713" t="s">
@@ -18340,7 +18319,7 @@
         <v>2000</v>
       </c>
       <c r="C1713" s="1">
-        <v>0.2</v>
+        <v>6.5833000000000004</v>
       </c>
     </row>
     <row r="1714" spans="1:3" x14ac:dyDescent="0.2">
@@ -18350,6 +18329,9 @@
       <c r="B1714">
         <v>2001</v>
       </c>
+      <c r="C1714" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="1715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1715" t="s">
@@ -18359,7 +18341,7 @@
         <v>2002</v>
       </c>
       <c r="C1715" s="1">
-        <v>1</v>
+        <v>3.1429</v>
       </c>
     </row>
     <row r="1716" spans="1:3" x14ac:dyDescent="0.2">
@@ -18370,7 +18352,7 @@
         <v>2003</v>
       </c>
       <c r="C1716" s="1">
-        <v>1</v>
+        <v>14.416700000000001</v>
       </c>
     </row>
     <row r="1717" spans="1:3" x14ac:dyDescent="0.2">
@@ -18380,6 +18362,9 @@
       <c r="B1717">
         <v>2004</v>
       </c>
+      <c r="C1717" s="1">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="1718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1718" t="s">
@@ -18388,6 +18373,9 @@
       <c r="B1718">
         <v>2005</v>
       </c>
+      <c r="C1718" s="1">
+        <v>11.776199999999999</v>
+      </c>
     </row>
     <row r="1719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1719" t="s">
@@ -18397,7 +18385,7 @@
         <v>2006</v>
       </c>
       <c r="C1719" s="1">
-        <v>1</v>
+        <v>20.106100000000001</v>
       </c>
     </row>
     <row r="1720" spans="1:3" x14ac:dyDescent="0.2">
@@ -18408,7 +18396,7 @@
         <v>2007</v>
       </c>
       <c r="C1720" s="1">
-        <v>1</v>
+        <v>21.833300000000001</v>
       </c>
     </row>
     <row r="1721" spans="1:3" x14ac:dyDescent="0.2">
@@ -18419,7 +18407,7 @@
         <v>2008</v>
       </c>
       <c r="C1721" s="1">
-        <v>2</v>
+        <v>20.2194</v>
       </c>
     </row>
     <row r="1722" spans="1:3" x14ac:dyDescent="0.2">
@@ -18430,7 +18418,7 @@
         <v>2009</v>
       </c>
       <c r="C1722" s="1">
-        <v>1.25</v>
+        <v>30.133299999999998</v>
       </c>
     </row>
     <row r="1723" spans="1:3" x14ac:dyDescent="0.2">
@@ -18441,7 +18429,7 @@
         <v>2010</v>
       </c>
       <c r="C1723" s="1">
-        <v>1</v>
+        <v>43.85</v>
       </c>
     </row>
     <row r="1724" spans="1:3" x14ac:dyDescent="0.2">
@@ -18451,6 +18439,9 @@
       <c r="B1724">
         <v>2011</v>
       </c>
+      <c r="C1724" s="1">
+        <v>49.114400000000003</v>
+      </c>
     </row>
     <row r="1725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1725" t="s">
@@ -18460,7 +18451,7 @@
         <v>2012</v>
       </c>
       <c r="C1725" s="1">
-        <v>3</v>
+        <v>68.845200000000006</v>
       </c>
     </row>
     <row r="1726" spans="1:3" x14ac:dyDescent="0.2">
@@ -18471,7 +18462,7 @@
         <v>2013</v>
       </c>
       <c r="C1726" s="1">
-        <v>5</v>
+        <v>63.740499999999997</v>
       </c>
     </row>
     <row r="1727" spans="1:3" x14ac:dyDescent="0.2">
@@ -18481,6 +18472,9 @@
       <c r="B1727">
         <v>2014</v>
       </c>
+      <c r="C1727" s="1">
+        <v>37.783299999999997</v>
+      </c>
     </row>
     <row r="1728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1728" t="s">
@@ -18490,7 +18484,7 @@
         <v>2015</v>
       </c>
       <c r="C1728" s="1">
-        <v>1</v>
+        <v>38.765500000000003</v>
       </c>
     </row>
     <row r="1729" spans="1:3" x14ac:dyDescent="0.2">
@@ -18501,7 +18495,7 @@
         <v>2016</v>
       </c>
       <c r="C1729" s="1">
-        <v>0.66669999999999996</v>
+        <v>31.274699999999999</v>
       </c>
     </row>
     <row r="1730" spans="1:3" x14ac:dyDescent="0.2">
@@ -18511,6 +18505,9 @@
       <c r="B1730">
         <v>2017</v>
       </c>
+      <c r="C1730" s="1">
+        <v>8.0530000000000008</v>
+      </c>
     </row>
     <row r="1731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1731" t="s">
@@ -18519,9 +18516,6 @@
       <c r="B1731">
         <v>1999</v>
       </c>
-      <c r="C1731" s="1">
-        <v>0.25</v>
-      </c>
     </row>
     <row r="1732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1732" t="s">
@@ -18530,9 +18524,6 @@
       <c r="B1732">
         <v>2000</v>
       </c>
-      <c r="C1732" s="1">
-        <v>6.5833000000000004</v>
-      </c>
     </row>
     <row r="1733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1733" t="s">
@@ -18542,7 +18533,7 @@
         <v>2001</v>
       </c>
       <c r="C1733" s="1">
-        <v>3</v>
+        <v>0.83330000000000004</v>
       </c>
     </row>
     <row r="1734" spans="1:3" x14ac:dyDescent="0.2">
@@ -18553,7 +18544,7 @@
         <v>2002</v>
       </c>
       <c r="C1734" s="1">
-        <v>3.1429</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1735" spans="1:3" x14ac:dyDescent="0.2">
@@ -18564,7 +18555,7 @@
         <v>2003</v>
       </c>
       <c r="C1735" s="1">
-        <v>14.416700000000001</v>
+        <v>2.2094999999999998</v>
       </c>
     </row>
     <row r="1736" spans="1:3" x14ac:dyDescent="0.2">
@@ -18575,7 +18566,7 @@
         <v>2004</v>
       </c>
       <c r="C1736" s="1">
-        <v>7.7</v>
+        <v>2.9916999999999998</v>
       </c>
     </row>
     <row r="1737" spans="1:3" x14ac:dyDescent="0.2">
@@ -18586,7 +18577,7 @@
         <v>2005</v>
       </c>
       <c r="C1737" s="1">
-        <v>11.776199999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="1738" spans="1:3" x14ac:dyDescent="0.2">
@@ -18597,7 +18588,7 @@
         <v>2006</v>
       </c>
       <c r="C1738" s="1">
-        <v>20.106100000000001</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="1739" spans="1:3" x14ac:dyDescent="0.2">
@@ -18608,7 +18599,7 @@
         <v>2007</v>
       </c>
       <c r="C1739" s="1">
-        <v>21.833300000000001</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="1740" spans="1:3" x14ac:dyDescent="0.2">
@@ -18619,7 +18610,7 @@
         <v>2008</v>
       </c>
       <c r="C1740" s="1">
-        <v>20.2194</v>
+        <v>2.8889</v>
       </c>
     </row>
     <row r="1741" spans="1:3" x14ac:dyDescent="0.2">
@@ -18630,7 +18621,7 @@
         <v>2009</v>
       </c>
       <c r="C1741" s="1">
-        <v>30.133299999999998</v>
+        <v>6.3333000000000004</v>
       </c>
     </row>
     <row r="1742" spans="1:3" x14ac:dyDescent="0.2">
@@ -18641,7 +18632,7 @@
         <v>2010</v>
       </c>
       <c r="C1742" s="1">
-        <v>43.85</v>
+        <v>16.1111</v>
       </c>
     </row>
     <row r="1743" spans="1:3" x14ac:dyDescent="0.2">
@@ -18652,7 +18643,7 @@
         <v>2011</v>
       </c>
       <c r="C1743" s="1">
-        <v>49.114400000000003</v>
+        <v>20.183299999999999</v>
       </c>
     </row>
     <row r="1744" spans="1:3" x14ac:dyDescent="0.2">
@@ -18663,7 +18654,7 @@
         <v>2012</v>
       </c>
       <c r="C1744" s="1">
-        <v>68.845200000000006</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="1745" spans="1:3" x14ac:dyDescent="0.2">
@@ -18674,7 +18665,7 @@
         <v>2013</v>
       </c>
       <c r="C1745" s="1">
-        <v>63.740499999999997</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="1746" spans="1:3" x14ac:dyDescent="0.2">
@@ -18685,7 +18676,7 @@
         <v>2014</v>
       </c>
       <c r="C1746" s="1">
-        <v>37.783299999999997</v>
+        <v>18.772200000000002</v>
       </c>
     </row>
     <row r="1747" spans="1:3" x14ac:dyDescent="0.2">
@@ -18696,7 +18687,7 @@
         <v>2015</v>
       </c>
       <c r="C1747" s="1">
-        <v>38.765500000000003</v>
+        <v>19.166699999999999</v>
       </c>
     </row>
     <row r="1748" spans="1:3" x14ac:dyDescent="0.2">
@@ -18707,7 +18698,7 @@
         <v>2016</v>
       </c>
       <c r="C1748" s="1">
-        <v>31.274699999999999</v>
+        <v>22.2667</v>
       </c>
     </row>
     <row r="1749" spans="1:3" x14ac:dyDescent="0.2">
@@ -18718,7 +18709,7 @@
         <v>2017</v>
       </c>
       <c r="C1749" s="1">
-        <v>8.0530000000000008</v>
+        <v>2.2143000000000002</v>
       </c>
     </row>
     <row r="1750" spans="1:3" x14ac:dyDescent="0.2">
@@ -18744,9 +18735,6 @@
       <c r="B1752">
         <v>2001</v>
       </c>
-      <c r="C1752" s="1">
-        <v>0.83330000000000004</v>
-      </c>
     </row>
     <row r="1753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1753" t="s">
@@ -18756,7 +18744,7 @@
         <v>2002</v>
       </c>
       <c r="C1753" s="1">
-        <v>2</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="1754" spans="1:3" x14ac:dyDescent="0.2">
@@ -18766,9 +18754,6 @@
       <c r="B1754">
         <v>2003</v>
       </c>
-      <c r="C1754" s="1">
-        <v>2.2094999999999998</v>
-      </c>
     </row>
     <row r="1755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1755" t="s">
@@ -18777,9 +18762,6 @@
       <c r="B1755">
         <v>2004</v>
       </c>
-      <c r="C1755" s="1">
-        <v>2.9916999999999998</v>
-      </c>
     </row>
     <row r="1756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1756" t="s">
@@ -18789,7 +18771,7 @@
         <v>2005</v>
       </c>
       <c r="C1756" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1757" spans="1:3" x14ac:dyDescent="0.2">
@@ -18799,9 +18781,6 @@
       <c r="B1757">
         <v>2006</v>
       </c>
-      <c r="C1757" s="1">
-        <v>1.25</v>
-      </c>
     </row>
     <row r="1758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1758" t="s">
@@ -18810,9 +18789,6 @@
       <c r="B1758">
         <v>2007</v>
       </c>
-      <c r="C1758" s="1">
-        <v>3.3</v>
-      </c>
     </row>
     <row r="1759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1759" t="s">
@@ -18821,9 +18797,6 @@
       <c r="B1759">
         <v>2008</v>
       </c>
-      <c r="C1759" s="1">
-        <v>2.8889</v>
-      </c>
     </row>
     <row r="1760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1760" t="s">
@@ -18832,9 +18805,6 @@
       <c r="B1760">
         <v>2009</v>
       </c>
-      <c r="C1760" s="1">
-        <v>6.3333000000000004</v>
-      </c>
     </row>
     <row r="1761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1761" t="s">
@@ -18844,7 +18814,7 @@
         <v>2010</v>
       </c>
       <c r="C1761" s="1">
-        <v>16.1111</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1762" spans="1:3" x14ac:dyDescent="0.2">
@@ -18854,9 +18824,6 @@
       <c r="B1762">
         <v>2011</v>
       </c>
-      <c r="C1762" s="1">
-        <v>20.183299999999999</v>
-      </c>
     </row>
     <row r="1763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1763" t="s">
@@ -18865,9 +18832,6 @@
       <c r="B1763">
         <v>2012</v>
       </c>
-      <c r="C1763" s="1">
-        <v>18.5</v>
-      </c>
     </row>
     <row r="1764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1764" t="s">
@@ -18876,9 +18840,6 @@
       <c r="B1764">
         <v>2013</v>
       </c>
-      <c r="C1764" s="1">
-        <v>8.5</v>
-      </c>
     </row>
     <row r="1765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1765" t="s">
@@ -18887,9 +18848,6 @@
       <c r="B1765">
         <v>2014</v>
       </c>
-      <c r="C1765" s="1">
-        <v>18.772200000000002</v>
-      </c>
     </row>
     <row r="1766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1766" t="s">
@@ -18898,9 +18856,6 @@
       <c r="B1766">
         <v>2015</v>
       </c>
-      <c r="C1766" s="1">
-        <v>19.166699999999999</v>
-      </c>
     </row>
     <row r="1767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1767" t="s">
@@ -18909,9 +18864,6 @@
       <c r="B1767">
         <v>2016</v>
       </c>
-      <c r="C1767" s="1">
-        <v>22.2667</v>
-      </c>
     </row>
     <row r="1768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1768" t="s">
@@ -18920,9 +18872,6 @@
       <c r="B1768">
         <v>2017</v>
       </c>
-      <c r="C1768" s="1">
-        <v>2.2143000000000002</v>
-      </c>
     </row>
     <row r="1769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1769" t="s">
@@ -18956,7 +18905,7 @@
         <v>2002</v>
       </c>
       <c r="C1772" s="1">
-        <v>0.33329999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1773" spans="1:3" x14ac:dyDescent="0.2">
@@ -18974,6 +18923,9 @@
       <c r="B1774">
         <v>2004</v>
       </c>
+      <c r="C1774" s="1">
+        <v>0.16669999999999999</v>
+      </c>
     </row>
     <row r="1775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1775" t="s">
@@ -18983,7 +18935,7 @@
         <v>2005</v>
       </c>
       <c r="C1775" s="1">
-        <v>0.2</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="1776" spans="1:3" x14ac:dyDescent="0.2">
@@ -18993,6 +18945,9 @@
       <c r="B1776">
         <v>2006</v>
       </c>
+      <c r="C1776" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1777" t="s">
@@ -19009,6 +18964,9 @@
       <c r="B1778">
         <v>2008</v>
       </c>
+      <c r="C1778" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1779" t="s">
@@ -19017,6 +18975,9 @@
       <c r="B1779">
         <v>2009</v>
       </c>
+      <c r="C1779" s="1">
+        <v>2.9333</v>
+      </c>
     </row>
     <row r="1780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1780" t="s">
@@ -19026,7 +18987,7 @@
         <v>2010</v>
       </c>
       <c r="C1780" s="1">
-        <v>0.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1781" spans="1:3" x14ac:dyDescent="0.2">
@@ -19036,6 +18997,9 @@
       <c r="B1781">
         <v>2011</v>
       </c>
+      <c r="C1781" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="1782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1782" t="s">
@@ -19044,6 +19008,9 @@
       <c r="B1782">
         <v>2012</v>
       </c>
+      <c r="C1782" s="1">
+        <v>0.5333</v>
+      </c>
     </row>
     <row r="1783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1783" t="s">
@@ -19068,6 +19035,9 @@
       <c r="B1785">
         <v>2015</v>
       </c>
+      <c r="C1785" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1786" t="s">
@@ -19076,6 +19046,9 @@
       <c r="B1786">
         <v>2016</v>
       </c>
+      <c r="C1786" s="1">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="1787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1787" t="s">
@@ -19092,6 +19065,9 @@
       <c r="B1788">
         <v>1999</v>
       </c>
+      <c r="C1788" s="1">
+        <v>4.0762</v>
+      </c>
     </row>
     <row r="1789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1789" t="s">
@@ -19100,6 +19076,9 @@
       <c r="B1789">
         <v>2000</v>
       </c>
+      <c r="C1789" s="1">
+        <v>6.3611000000000004</v>
+      </c>
     </row>
     <row r="1790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1790" t="s">
@@ -19108,6 +19087,9 @@
       <c r="B1790">
         <v>2001</v>
       </c>
+      <c r="C1790" s="1">
+        <v>8.8332999999999995</v>
+      </c>
     </row>
     <row r="1791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1791" t="s">
@@ -19117,7 +19099,7 @@
         <v>2002</v>
       </c>
       <c r="C1791" s="1">
-        <v>2</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="1792" spans="1:3" x14ac:dyDescent="0.2">
@@ -19127,6 +19109,9 @@
       <c r="B1792">
         <v>2003</v>
       </c>
+      <c r="C1792" s="1">
+        <v>10.666700000000001</v>
+      </c>
     </row>
     <row r="1793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1793" t="s">
@@ -19136,7 +19121,7 @@
         <v>2004</v>
       </c>
       <c r="C1793" s="1">
-        <v>0.16669999999999999</v>
+        <v>9.4438999999999993</v>
       </c>
     </row>
     <row r="1794" spans="1:3" x14ac:dyDescent="0.2">
@@ -19147,7 +19132,7 @@
         <v>2005</v>
       </c>
       <c r="C1794" s="1">
-        <v>1.45</v>
+        <v>12.490500000000001</v>
       </c>
     </row>
     <row r="1795" spans="1:3" x14ac:dyDescent="0.2">
@@ -19158,7 +19143,7 @@
         <v>2006</v>
       </c>
       <c r="C1795" s="1">
-        <v>1</v>
+        <v>15.333299999999999</v>
       </c>
     </row>
     <row r="1796" spans="1:3" x14ac:dyDescent="0.2">
@@ -19168,6 +19153,9 @@
       <c r="B1796">
         <v>2007</v>
       </c>
+      <c r="C1796" s="1">
+        <v>22.226199999999999</v>
+      </c>
     </row>
     <row r="1797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1797" t="s">
@@ -19177,7 +19165,7 @@
         <v>2008</v>
       </c>
       <c r="C1797" s="1">
-        <v>1</v>
+        <v>11.8833</v>
       </c>
     </row>
     <row r="1798" spans="1:3" x14ac:dyDescent="0.2">
@@ -19188,7 +19176,7 @@
         <v>2009</v>
       </c>
       <c r="C1798" s="1">
-        <v>2.9333</v>
+        <v>13.416700000000001</v>
       </c>
     </row>
     <row r="1799" spans="1:3" x14ac:dyDescent="0.2">
@@ -19199,7 +19187,7 @@
         <v>2010</v>
       </c>
       <c r="C1799" s="1">
-        <v>4</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="1800" spans="1:3" x14ac:dyDescent="0.2">
@@ -19210,7 +19198,7 @@
         <v>2011</v>
       </c>
       <c r="C1800" s="1">
-        <v>2</v>
+        <v>16.416699999999999</v>
       </c>
     </row>
     <row r="1801" spans="1:3" x14ac:dyDescent="0.2">
@@ -19221,7 +19209,7 @@
         <v>2012</v>
       </c>
       <c r="C1801" s="1">
-        <v>0.5333</v>
+        <v>16.666699999999999</v>
       </c>
     </row>
     <row r="1802" spans="1:3" x14ac:dyDescent="0.2">
@@ -19231,6 +19219,9 @@
       <c r="B1802">
         <v>2013</v>
       </c>
+      <c r="C1802" s="1">
+        <v>19.824999999999999</v>
+      </c>
     </row>
     <row r="1803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1803" t="s">
@@ -19239,6 +19230,9 @@
       <c r="B1803">
         <v>2014</v>
       </c>
+      <c r="C1803" s="1">
+        <v>16.350000000000001</v>
+      </c>
     </row>
     <row r="1804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1804" t="s">
@@ -19248,7 +19242,7 @@
         <v>2015</v>
       </c>
       <c r="C1804" s="1">
-        <v>1</v>
+        <v>15.583299999999999</v>
       </c>
     </row>
     <row r="1805" spans="1:3" x14ac:dyDescent="0.2">
@@ -19259,7 +19253,7 @@
         <v>2016</v>
       </c>
       <c r="C1805" s="1">
-        <v>1.9</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="1806" spans="1:3" x14ac:dyDescent="0.2">
@@ -19269,6 +19263,9 @@
       <c r="B1806">
         <v>2017</v>
       </c>
+      <c r="C1806" s="1">
+        <v>12.333299999999999</v>
+      </c>
     </row>
     <row r="1807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1807" t="s">
@@ -19277,9 +19274,6 @@
       <c r="B1807">
         <v>1999</v>
       </c>
-      <c r="C1807" s="1">
-        <v>4.0762</v>
-      </c>
     </row>
     <row r="1808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1808" t="s">
@@ -19289,7 +19283,7 @@
         <v>2000</v>
       </c>
       <c r="C1808" s="1">
-        <v>6.3611000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1809" spans="1:3" x14ac:dyDescent="0.2">
@@ -19300,7 +19294,7 @@
         <v>2001</v>
       </c>
       <c r="C1809" s="1">
-        <v>8.8332999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1810" spans="1:3" x14ac:dyDescent="0.2">
@@ -19311,7 +19305,7 @@
         <v>2002</v>
       </c>
       <c r="C1810" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="1811" spans="1:3" x14ac:dyDescent="0.2">
@@ -19322,7 +19316,7 @@
         <v>2003</v>
       </c>
       <c r="C1811" s="1">
-        <v>10.666700000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1812" spans="1:3" x14ac:dyDescent="0.2">
@@ -19333,7 +19327,7 @@
         <v>2004</v>
       </c>
       <c r="C1812" s="1">
-        <v>9.4438999999999993</v>
+        <v>3.3332999999999999</v>
       </c>
     </row>
     <row r="1813" spans="1:3" x14ac:dyDescent="0.2">
@@ -19344,7 +19338,7 @@
         <v>2005</v>
       </c>
       <c r="C1813" s="1">
-        <v>12.490500000000001</v>
+        <v>1.2278</v>
       </c>
     </row>
     <row r="1814" spans="1:3" x14ac:dyDescent="0.2">
@@ -19355,7 +19349,7 @@
         <v>2006</v>
       </c>
       <c r="C1814" s="1">
-        <v>15.333299999999999</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1815" spans="1:3" x14ac:dyDescent="0.2">
@@ -19366,7 +19360,7 @@
         <v>2007</v>
       </c>
       <c r="C1815" s="1">
-        <v>22.226199999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1816" spans="1:3" x14ac:dyDescent="0.2">
@@ -19377,7 +19371,7 @@
         <v>2008</v>
       </c>
       <c r="C1816" s="1">
-        <v>11.8833</v>
+        <v>4.7832999999999997</v>
       </c>
     </row>
     <row r="1817" spans="1:3" x14ac:dyDescent="0.2">
@@ -19388,7 +19382,7 @@
         <v>2009</v>
       </c>
       <c r="C1817" s="1">
-        <v>13.416700000000001</v>
+        <v>4.8333000000000004</v>
       </c>
     </row>
     <row r="1818" spans="1:3" x14ac:dyDescent="0.2">
@@ -19399,7 +19393,7 @@
         <v>2010</v>
       </c>
       <c r="C1818" s="1">
-        <v>20.75</v>
+        <v>8.5832999999999995</v>
       </c>
     </row>
     <row r="1819" spans="1:3" x14ac:dyDescent="0.2">
@@ -19410,7 +19404,7 @@
         <v>2011</v>
       </c>
       <c r="C1819" s="1">
-        <v>16.416699999999999</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="1820" spans="1:3" x14ac:dyDescent="0.2">
@@ -19421,7 +19415,7 @@
         <v>2012</v>
       </c>
       <c r="C1820" s="1">
-        <v>16.666699999999999</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="1821" spans="1:3" x14ac:dyDescent="0.2">
@@ -19432,7 +19426,7 @@
         <v>2013</v>
       </c>
       <c r="C1821" s="1">
-        <v>19.824999999999999</v>
+        <v>10.166700000000001</v>
       </c>
     </row>
     <row r="1822" spans="1:3" x14ac:dyDescent="0.2">
@@ -19443,7 +19437,7 @@
         <v>2014</v>
       </c>
       <c r="C1822" s="1">
-        <v>16.350000000000001</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="1823" spans="1:3" x14ac:dyDescent="0.2">
@@ -19454,7 +19448,7 @@
         <v>2015</v>
       </c>
       <c r="C1823" s="1">
-        <v>15.583299999999999</v>
+        <v>10.333299999999999</v>
       </c>
     </row>
     <row r="1824" spans="1:3" x14ac:dyDescent="0.2">
@@ -19465,7 +19459,7 @@
         <v>2016</v>
       </c>
       <c r="C1824" s="1">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1825" spans="1:3" x14ac:dyDescent="0.2">
@@ -19476,7 +19470,7 @@
         <v>2017</v>
       </c>
       <c r="C1825" s="1">
-        <v>12.333299999999999</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="1826" spans="1:3" x14ac:dyDescent="0.2">
@@ -19486,6 +19480,9 @@
       <c r="B1826">
         <v>1999</v>
       </c>
+      <c r="C1826" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1827" t="s">
@@ -19494,9 +19491,6 @@
       <c r="B1827">
         <v>2000</v>
       </c>
-      <c r="C1827" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1828" t="s">
@@ -19505,9 +19499,6 @@
       <c r="B1828">
         <v>2001</v>
       </c>
-      <c r="C1828" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1829" t="s">
@@ -19516,9 +19507,6 @@
       <c r="B1829">
         <v>2002</v>
       </c>
-      <c r="C1829" s="1">
-        <v>0.25</v>
-      </c>
     </row>
     <row r="1830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1830" t="s">
@@ -19527,9 +19515,6 @@
       <c r="B1830">
         <v>2003</v>
       </c>
-      <c r="C1830" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1831" t="s">
@@ -19538,9 +19523,6 @@
       <c r="B1831">
         <v>2004</v>
       </c>
-      <c r="C1831" s="1">
-        <v>3.3332999999999999</v>
-      </c>
     </row>
     <row r="1832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1832" t="s">
@@ -19549,9 +19531,6 @@
       <c r="B1832">
         <v>2005</v>
       </c>
-      <c r="C1832" s="1">
-        <v>1.2278</v>
-      </c>
     </row>
     <row r="1833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1833" t="s">
@@ -19560,9 +19539,6 @@
       <c r="B1833">
         <v>2006</v>
       </c>
-      <c r="C1833" s="1">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="1834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1834" t="s">
@@ -19583,7 +19559,7 @@
         <v>2008</v>
       </c>
       <c r="C1835" s="1">
-        <v>4.7832999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1836" spans="1:3" x14ac:dyDescent="0.2">
@@ -19593,9 +19569,6 @@
       <c r="B1836">
         <v>2009</v>
       </c>
-      <c r="C1836" s="1">
-        <v>4.8333000000000004</v>
-      </c>
     </row>
     <row r="1837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1837" t="s">
@@ -19604,9 +19577,6 @@
       <c r="B1837">
         <v>2010</v>
       </c>
-      <c r="C1837" s="1">
-        <v>8.5832999999999995</v>
-      </c>
     </row>
     <row r="1838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1838" t="s">
@@ -19616,7 +19586,7 @@
         <v>2011</v>
       </c>
       <c r="C1838" s="1">
-        <v>4.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1839" spans="1:3" x14ac:dyDescent="0.2">
@@ -19627,7 +19597,7 @@
         <v>2012</v>
       </c>
       <c r="C1839" s="1">
-        <v>4.9000000000000004</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="1840" spans="1:3" x14ac:dyDescent="0.2">
@@ -19638,7 +19608,7 @@
         <v>2013</v>
       </c>
       <c r="C1840" s="1">
-        <v>10.166700000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1841" spans="1:3" x14ac:dyDescent="0.2">
@@ -19649,7 +19619,7 @@
         <v>2014</v>
       </c>
       <c r="C1841" s="1">
-        <v>11.5</v>
+        <v>1.5832999999999999</v>
       </c>
     </row>
     <row r="1842" spans="1:3" x14ac:dyDescent="0.2">
@@ -19660,7 +19630,7 @@
         <v>2015</v>
       </c>
       <c r="C1842" s="1">
-        <v>10.333299999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1843" spans="1:3" x14ac:dyDescent="0.2">
@@ -19670,9 +19640,6 @@
       <c r="B1843">
         <v>2016</v>
       </c>
-      <c r="C1843" s="1">
-        <v>7.5</v>
-      </c>
     </row>
     <row r="1844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1844" t="s">
@@ -19682,7 +19649,7 @@
         <v>2017</v>
       </c>
       <c r="C1844" s="1">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="1845" spans="1:3" x14ac:dyDescent="0.2">
@@ -19692,9 +19659,6 @@
       <c r="B1845">
         <v>1999</v>
       </c>
-      <c r="C1845" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="1846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1846" t="s">
@@ -19703,6 +19667,9 @@
       <c r="B1846">
         <v>2000</v>
       </c>
+      <c r="C1846" s="1">
+        <v>1.3332999999999999</v>
+      </c>
     </row>
     <row r="1847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1847" t="s">
@@ -19719,6 +19686,9 @@
       <c r="B1848">
         <v>2002</v>
       </c>
+      <c r="C1848" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1849" t="s">
@@ -19735,6 +19705,9 @@
       <c r="B1850">
         <v>2004</v>
       </c>
+      <c r="C1850" s="1">
+        <v>1.2857000000000001</v>
+      </c>
     </row>
     <row r="1851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1851" t="s">
@@ -19743,6 +19716,9 @@
       <c r="B1851">
         <v>2005</v>
       </c>
+      <c r="C1851" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1852" t="s">
@@ -19751,6 +19727,9 @@
       <c r="B1852">
         <v>2006</v>
       </c>
+      <c r="C1852" s="1">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="1853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1853" t="s">
@@ -19759,9 +19738,6 @@
       <c r="B1853">
         <v>2007</v>
       </c>
-      <c r="C1853" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="1854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1854" t="s">
@@ -19770,9 +19746,6 @@
       <c r="B1854">
         <v>2008</v>
       </c>
-      <c r="C1854" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1855" t="s">
@@ -19798,7 +19771,7 @@
         <v>2011</v>
       </c>
       <c r="C1857" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="1858" spans="1:3" x14ac:dyDescent="0.2">
@@ -19808,9 +19781,6 @@
       <c r="B1858">
         <v>2012</v>
       </c>
-      <c r="C1858" s="1">
-        <v>8.3299999999999999E-2</v>
-      </c>
     </row>
     <row r="1859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1859" t="s">
@@ -19819,9 +19789,6 @@
       <c r="B1859">
         <v>2013</v>
       </c>
-      <c r="C1859" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="1860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1860" t="s">
@@ -19830,9 +19797,6 @@
       <c r="B1860">
         <v>2014</v>
       </c>
-      <c r="C1860" s="1">
-        <v>1.5832999999999999</v>
-      </c>
     </row>
     <row r="1861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1861" t="s">
@@ -19841,9 +19805,6 @@
       <c r="B1861">
         <v>2015</v>
       </c>
-      <c r="C1861" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1862" t="s">
@@ -19861,7 +19822,7 @@
         <v>2017</v>
       </c>
       <c r="C1863" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1864" spans="1:3" x14ac:dyDescent="0.2">
@@ -19871,6 +19832,9 @@
       <c r="B1864">
         <v>1999</v>
       </c>
+      <c r="C1864" s="1">
+        <v>1.0667</v>
+      </c>
     </row>
     <row r="1865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1865" t="s">
@@ -19880,7 +19844,7 @@
         <v>2000</v>
       </c>
       <c r="C1865" s="1">
-        <v>1.3332999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1866" spans="1:3" x14ac:dyDescent="0.2">
@@ -19890,6 +19854,9 @@
       <c r="B1866">
         <v>2001</v>
       </c>
+      <c r="C1866" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="1867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1867" t="s">
@@ -19899,7 +19866,7 @@
         <v>2002</v>
       </c>
       <c r="C1867" s="1">
-        <v>1</v>
+        <v>0.91669999999999996</v>
       </c>
     </row>
     <row r="1868" spans="1:3" x14ac:dyDescent="0.2">
@@ -19909,6 +19876,9 @@
       <c r="B1868">
         <v>2003</v>
       </c>
+      <c r="C1868" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="1869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1869" t="s">
@@ -19917,9 +19887,6 @@
       <c r="B1869">
         <v>2004</v>
       </c>
-      <c r="C1869" s="1">
-        <v>1.2857000000000001</v>
-      </c>
     </row>
     <row r="1870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1870" t="s">
@@ -19928,9 +19895,6 @@
       <c r="B1870">
         <v>2005</v>
       </c>
-      <c r="C1870" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="1871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1871" t="s">
@@ -19940,7 +19904,7 @@
         <v>2006</v>
       </c>
       <c r="C1871" s="1">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="1872" spans="1:3" x14ac:dyDescent="0.2">
@@ -19983,7 +19947,7 @@
         <v>2011</v>
       </c>
       <c r="C1876" s="1">
-        <v>0.66669999999999996</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="1877" spans="1:3" x14ac:dyDescent="0.2">
@@ -19993,6 +19957,9 @@
       <c r="B1877">
         <v>2012</v>
       </c>
+      <c r="C1877" s="1">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="1878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1878" t="s">
@@ -20001,6 +19968,9 @@
       <c r="B1878">
         <v>2013</v>
       </c>
+      <c r="C1878" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1879" t="s">
@@ -20025,6 +19995,9 @@
       <c r="B1881">
         <v>2016</v>
       </c>
+      <c r="C1881" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1882" t="s">
@@ -20033,9 +20006,6 @@
       <c r="B1882">
         <v>2017</v>
       </c>
-      <c r="C1882" s="1">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="1883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1883" t="s">
@@ -20044,9 +20014,6 @@
       <c r="B1883">
         <v>1999</v>
       </c>
-      <c r="C1883" s="1">
-        <v>1.0667</v>
-      </c>
     </row>
     <row r="1884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1884" t="s">
@@ -20056,7 +20023,7 @@
         <v>2000</v>
       </c>
       <c r="C1884" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1885" spans="1:3" x14ac:dyDescent="0.2">
@@ -20066,9 +20033,6 @@
       <c r="B1885">
         <v>2001</v>
       </c>
-      <c r="C1885" s="1">
-        <v>0.25</v>
-      </c>
     </row>
     <row r="1886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1886" t="s">
@@ -20077,9 +20041,6 @@
       <c r="B1886">
         <v>2002</v>
       </c>
-      <c r="C1886" s="1">
-        <v>0.91669999999999996</v>
-      </c>
     </row>
     <row r="1887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1887" t="s">
@@ -20115,9 +20076,6 @@
       <c r="B1890">
         <v>2006</v>
       </c>
-      <c r="C1890" s="1">
-        <v>1.75</v>
-      </c>
     </row>
     <row r="1891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1891" t="s">
@@ -20134,6 +20092,9 @@
       <c r="B1892">
         <v>2008</v>
       </c>
+      <c r="C1892" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1893" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1893" t="s">
@@ -20158,9 +20119,6 @@
       <c r="B1895">
         <v>2011</v>
       </c>
-      <c r="C1895" s="1">
-        <v>1.2</v>
-      </c>
     </row>
     <row r="1896" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1896" t="s">
@@ -20169,9 +20127,6 @@
       <c r="B1896">
         <v>2012</v>
       </c>
-      <c r="C1896" s="1">
-        <v>1.45</v>
-      </c>
     </row>
     <row r="1897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1897" t="s">
@@ -20180,9 +20135,6 @@
       <c r="B1897">
         <v>2013</v>
       </c>
-      <c r="C1897" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="1898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1898" t="s">
@@ -20199,6 +20151,9 @@
       <c r="B1899">
         <v>2015</v>
       </c>
+      <c r="C1899" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="1900" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1900" t="s">
@@ -20208,7 +20163,7 @@
         <v>2016</v>
       </c>
       <c r="C1900" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1901" spans="1:3" x14ac:dyDescent="0.2">
@@ -20216,173 +20171,6 @@
         <v>102</v>
       </c>
       <c r="B1901">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="1902" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1902" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1902">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="1903" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1903" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1903">
-        <v>2000</v>
-      </c>
-      <c r="C1903" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1904" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1904" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1904">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="1905" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1905" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1905">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="1906" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1906" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1906">
-        <v>2003</v>
-      </c>
-      <c r="C1906" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="1907" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1907" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1907">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="1908" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1908" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1908">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1909" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1909">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="1910" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1910" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1910">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="1911" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1911" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1911">
-        <v>2008</v>
-      </c>
-      <c r="C1911" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1912" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1912" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1912">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="1913" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1913" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1913">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="1914" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1914" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1914">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1915" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1915">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="1916" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1916" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1916">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="1917" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1917" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1917">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="1918" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1918" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1918">
-        <v>2015</v>
-      </c>
-      <c r="C1918" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1919" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1919" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1919">
-        <v>2016</v>
-      </c>
-      <c r="C1919" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1920" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1920">
         <v>2017</v>
       </c>
     </row>
